--- a/Excels/MG.xlsx
+++ b/Excels/MG.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" firstSheet="9" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2789" uniqueCount="895">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2796" uniqueCount="901">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -2719,13 +2719,31 @@
     <t>040920000010</t>
   </si>
   <si>
-    <t>040920000011</t>
-  </si>
-  <si>
-    <t>040920000012</t>
-  </si>
-  <si>
-    <t>040920000013</t>
+    <t>Issue Field 7 - Label</t>
+  </si>
+  <si>
+    <t>Field 7 Type</t>
+  </si>
+  <si>
+    <t>Workgroup 2</t>
+  </si>
+  <si>
+    <t>SLA2 ( Hrs : Mins)</t>
+  </si>
+  <si>
+    <t>Workgroup 3</t>
+  </si>
+  <si>
+    <t>SLA3 ( Hrs : Mins)</t>
+  </si>
+  <si>
+    <t>Workgroup 4</t>
+  </si>
+  <si>
+    <t>SLA4 ( Hrs : Mins)</t>
+  </si>
+  <si>
+    <t>Total Committed SLA</t>
   </si>
 </sst>
 </file>
@@ -2987,7 +3005,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1"/>
@@ -3039,6 +3057,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3385,8 +3405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3864,7 +3884,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J13" activeCellId="1" sqref="I1 J13"/>
     </sheetView>
   </sheetViews>
@@ -4211,15 +4231,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB6"/>
+  <dimension ref="A1:AL6"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="T15" sqref="T15"/>
+    <sheetView topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AH6" sqref="AH6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:28" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>25</v>
       </c>
@@ -4289,23 +4309,53 @@
       <c r="W1" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="X1" s="36" t="s">
+      <c r="X1" t="s">
+        <v>892</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>893</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA1" t="s">
         <v>41</v>
       </c>
-      <c r="Y1" s="36" t="s">
+      <c r="AB1" t="s">
         <v>42</v>
       </c>
-      <c r="Z1" s="36" t="s">
+      <c r="AC1" s="41" t="s">
+        <v>894</v>
+      </c>
+      <c r="AD1" s="41" t="s">
+        <v>895</v>
+      </c>
+      <c r="AE1" s="41" t="s">
+        <v>896</v>
+      </c>
+      <c r="AF1" s="41" t="s">
+        <v>897</v>
+      </c>
+      <c r="AG1" s="41" t="s">
+        <v>898</v>
+      </c>
+      <c r="AH1" s="41" t="s">
+        <v>899</v>
+      </c>
+      <c r="AI1" s="42" t="s">
+        <v>900</v>
+      </c>
+      <c r="AJ1" t="s">
         <v>43</v>
       </c>
-      <c r="AA1" s="36" t="s">
+      <c r="AK1" t="s">
         <v>44</v>
       </c>
-      <c r="AB1" s="37" t="s">
+      <c r="AL1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>217</v>
       </c>
@@ -4357,23 +4407,27 @@
       <c r="U2" s="38"/>
       <c r="V2" s="38"/>
       <c r="W2" s="38"/>
-      <c r="X2" s="33" t="s">
+      <c r="AA2" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="Y2" s="33">
+      <c r="AB2" s="33">
         <v>24</v>
       </c>
-      <c r="Z2" s="33" t="s">
+      <c r="AI2">
+        <f>SUM(AB2,AD2,AF2,AH2)</f>
+        <v>24</v>
+      </c>
+      <c r="AJ2" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="AA2" s="39" t="s">
+      <c r="AK2" s="39" t="s">
         <v>519</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AL2" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
         <v>217</v>
       </c>
@@ -4425,23 +4479,27 @@
       <c r="U3" s="38"/>
       <c r="V3" s="38"/>
       <c r="W3" s="38"/>
-      <c r="X3" s="35" t="s">
+      <c r="AA3" s="35" t="s">
         <v>156</v>
       </c>
-      <c r="Y3" s="35">
+      <c r="AB3" s="35">
         <v>24</v>
       </c>
-      <c r="Z3" s="35" t="s">
+      <c r="AI3">
+        <f t="shared" ref="AI3:AI6" si="0">SUM(AB3,AD3,AF3,AH3)</f>
+        <v>24</v>
+      </c>
+      <c r="AJ3" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="AA3" s="40" t="s">
+      <c r="AK3" s="40" t="s">
         <v>519</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AL3" t="s">
         <v>891</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
         <v>224</v>
       </c>
@@ -4493,23 +4551,24 @@
       <c r="U4" s="38"/>
       <c r="V4" s="38"/>
       <c r="W4" s="38"/>
-      <c r="X4" s="33" t="s">
+      <c r="AA4" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="Y4" s="33">
+      <c r="AB4" s="33">
         <v>24</v>
       </c>
-      <c r="Z4" s="33" t="s">
+      <c r="AI4">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AJ4" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="AA4" s="39" t="s">
+      <c r="AK4" s="39" t="s">
         <v>519</v>
       </c>
-      <c r="AB4" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
         <v>217</v>
       </c>
@@ -4561,23 +4620,24 @@
       <c r="U5" s="38"/>
       <c r="V5" s="38"/>
       <c r="W5" s="38"/>
-      <c r="X5" s="35" t="s">
+      <c r="AA5" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="Y5" s="35">
+      <c r="AB5" s="35">
         <v>24</v>
       </c>
-      <c r="Z5" s="35" t="s">
+      <c r="AI5">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AJ5" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="AA5" s="40" t="s">
+      <c r="AK5" s="40" t="s">
         <v>519</v>
       </c>
-      <c r="AB5" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
         <v>217</v>
       </c>
@@ -4629,20 +4689,21 @@
       <c r="U6" s="38"/>
       <c r="V6" s="38"/>
       <c r="W6" s="38"/>
-      <c r="X6" s="33" t="s">
+      <c r="AA6" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="Y6" s="33">
+      <c r="AB6" s="33">
         <v>24</v>
       </c>
-      <c r="Z6" s="33" t="s">
+      <c r="AI6">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AJ6" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="AA6" s="39" t="s">
+      <c r="AK6" s="39" t="s">
         <v>519</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>894</v>
       </c>
     </row>
   </sheetData>

--- a/Excels/MG.xlsx
+++ b/Excels/MG.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" firstSheet="11" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <sheet name="Ticket State" sheetId="10" r:id="rId12"/>
     <sheet name="UserManagement" sheetId="13" r:id="rId13"/>
     <sheet name="TemplateManagement" sheetId="14" r:id="rId14"/>
+    <sheet name="State Queue Mapping" sheetId="15" r:id="rId15"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'FTRTickets-Reg'!$A$1:$F$126</definedName>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2796" uniqueCount="901">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2819" uniqueCount="912">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -2744,6 +2745,39 @@
   </si>
   <si>
     <t>Total Committed SLA</t>
+  </si>
+  <si>
+    <t>Queue Name</t>
+  </si>
+  <si>
+    <t>State name1</t>
+  </si>
+  <si>
+    <t>State name2</t>
+  </si>
+  <si>
+    <t>State name3</t>
+  </si>
+  <si>
+    <t>State name4</t>
+  </si>
+  <si>
+    <t>State name5</t>
+  </si>
+  <si>
+    <t>State name6</t>
+  </si>
+  <si>
+    <t>State name7</t>
+  </si>
+  <si>
+    <t>State name8</t>
+  </si>
+  <si>
+    <t>State name9</t>
+  </si>
+  <si>
+    <t>State name10</t>
   </si>
 </sst>
 </file>
@@ -3005,7 +3039,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1"/>
@@ -3059,6 +3093,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3405,7 +3440,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -3699,7 +3734,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3940,6 +3975,124 @@
       <c r="A7" s="1" t="s">
         <v>152</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>901</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>902</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>903</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>904</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>905</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>906</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>907</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>908</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>909</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>910</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14147,7 +14300,7 @@
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A20"/>
+      <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Excels/MG.xlsx
+++ b/Excels/MG.xlsx
@@ -3986,7 +3986,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4033,7 +4033,7 @@
     </row>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>69</v>
+        <v>160</v>
       </c>
       <c r="B2" s="20" t="s">
         <v>57</v>
@@ -4054,7 +4054,7 @@
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>70</v>
+        <v>155</v>
       </c>
       <c r="B3" s="20" t="s">
         <v>57</v>
@@ -4075,7 +4075,7 @@
     </row>
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>71</v>
+        <v>159</v>
       </c>
       <c r="B4" s="20" t="s">
         <v>57</v>
@@ -4096,6 +4096,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Excels/MG.xlsx
+++ b/Excels/MG.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2810" uniqueCount="931">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2820" uniqueCount="931">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -2939,7 +2939,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -2960,17 +2960,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -3064,17 +3053,17 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -3095,16 +3084,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -3456,7 +3444,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -3773,16 +3761,16 @@
     <col min="1" max="1" width="13.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="22.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="36" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" style="36" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" style="36" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="36" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="36" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="36" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" style="36" customWidth="1"/>
-    <col min="11" max="11" width="12" style="36" customWidth="1"/>
-    <col min="12" max="12" width="13.28515625" style="36" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" style="36" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="35" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="35" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" style="35" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="35" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="35" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="35" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" style="35" customWidth="1"/>
+    <col min="11" max="11" width="12" style="35" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" style="35" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" style="35" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -3796,34 +3784,34 @@
       <c r="C1" s="1" t="s">
         <v>902</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="35" t="s">
         <v>903</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="35" t="s">
         <v>904</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="35" t="s">
         <v>905</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="35" t="s">
         <v>906</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="35" t="s">
         <v>907</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="35" t="s">
         <v>908</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="J1" s="35" t="s">
         <v>909</v>
       </c>
-      <c r="K1" s="36" t="s">
+      <c r="K1" s="35" t="s">
         <v>910</v>
       </c>
-      <c r="L1" s="36" t="s">
+      <c r="L1" s="35" t="s">
         <v>911</v>
       </c>
-      <c r="M1" s="36" t="s">
+      <c r="M1" s="35" t="s">
         <v>912</v>
       </c>
     </row>
@@ -3837,22 +3825,22 @@
       <c r="C2" s="1">
         <v>3</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="35" t="s">
         <v>915</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="35" t="s">
         <v>916</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="35" t="s">
         <v>917</v>
       </c>
-      <c r="G2" s="36" t="s">
+      <c r="G2" s="35" t="s">
         <v>918</v>
       </c>
-      <c r="H2" s="36" t="s">
+      <c r="H2" s="35" t="s">
         <v>919</v>
       </c>
-      <c r="I2" s="36" t="s">
+      <c r="I2" s="35" t="s">
         <v>920</v>
       </c>
     </row>
@@ -3976,10 +3964,10 @@
       <c r="B2" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="34" t="s">
         <v>60</v>
       </c>
       <c r="E2" s="12"/>
@@ -3997,10 +3985,10 @@
       <c r="B3" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="34" t="s">
         <v>60</v>
       </c>
       <c r="E3" s="12"/>
@@ -4018,10 +4006,10 @@
       <c r="B4" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="34" t="s">
         <v>60</v>
       </c>
       <c r="E4" s="12"/>
@@ -4325,8 +4313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL6"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AH6" sqref="AH6"/>
+    <sheetView topLeftCell="AG1" workbookViewId="0">
+      <selection activeCell="AI2" sqref="AI2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4416,25 +4404,25 @@
       <c r="AB1" t="s">
         <v>42</v>
       </c>
-      <c r="AC1" s="33" t="s">
+      <c r="AC1" s="32" t="s">
         <v>877</v>
       </c>
-      <c r="AD1" s="33" t="s">
+      <c r="AD1" s="32" t="s">
         <v>878</v>
       </c>
-      <c r="AE1" s="33" t="s">
+      <c r="AE1" s="32" t="s">
         <v>879</v>
       </c>
-      <c r="AF1" s="33" t="s">
+      <c r="AF1" s="32" t="s">
         <v>880</v>
       </c>
-      <c r="AG1" s="33" t="s">
+      <c r="AG1" s="32" t="s">
         <v>881</v>
       </c>
-      <c r="AH1" s="33" t="s">
+      <c r="AH1" s="32" t="s">
         <v>882</v>
       </c>
-      <c r="AI1" s="34" t="s">
+      <c r="AI1" s="33" t="s">
         <v>883</v>
       </c>
       <c r="AJ1" t="s">
@@ -4490,15 +4478,15 @@
       <c r="N2" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30"/>
-      <c r="U2" s="30"/>
-      <c r="V2" s="30"/>
-      <c r="W2" s="30"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="29"/>
+      <c r="V2" s="29"/>
+      <c r="W2" s="29"/>
       <c r="AA2" s="25" t="s">
         <v>138</v>
       </c>
@@ -4512,7 +4500,7 @@
       <c r="AJ2" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="AK2" s="31" t="s">
+      <c r="AK2" s="30" t="s">
         <v>502</v>
       </c>
       <c r="AL2" t="s">
@@ -4562,15 +4550,15 @@
       <c r="N3" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="30"/>
-      <c r="U3" s="30"/>
-      <c r="V3" s="30"/>
-      <c r="W3" s="30"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="29"/>
+      <c r="W3" s="29"/>
       <c r="AA3" s="27" t="s">
         <v>139</v>
       </c>
@@ -4584,7 +4572,7 @@
       <c r="AJ3" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="AK3" s="32" t="s">
+      <c r="AK3" s="31" t="s">
         <v>502</v>
       </c>
       <c r="AL3" t="s">
@@ -4634,15 +4622,15 @@
       <c r="N4" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="30"/>
-      <c r="S4" s="30"/>
-      <c r="T4" s="30"/>
-      <c r="U4" s="30"/>
-      <c r="V4" s="30"/>
-      <c r="W4" s="30"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="29"/>
+      <c r="V4" s="29"/>
+      <c r="W4" s="29"/>
       <c r="AA4" s="25" t="s">
         <v>139</v>
       </c>
@@ -4656,7 +4644,7 @@
       <c r="AJ4" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="AK4" s="31" t="s">
+      <c r="AK4" s="30" t="s">
         <v>502</v>
       </c>
     </row>
@@ -4703,15 +4691,15 @@
       <c r="N5" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="O5" s="30"/>
-      <c r="P5" s="30"/>
-      <c r="Q5" s="30"/>
-      <c r="R5" s="30"/>
-      <c r="S5" s="30"/>
-      <c r="T5" s="30"/>
-      <c r="U5" s="30"/>
-      <c r="V5" s="30"/>
-      <c r="W5" s="30"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="29"/>
+      <c r="T5" s="29"/>
+      <c r="U5" s="29"/>
+      <c r="V5" s="29"/>
+      <c r="W5" s="29"/>
       <c r="AA5" s="27" t="s">
         <v>137</v>
       </c>
@@ -4725,7 +4713,7 @@
       <c r="AJ5" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="AK5" s="32" t="s">
+      <c r="AK5" s="31" t="s">
         <v>502</v>
       </c>
     </row>
@@ -4772,15 +4760,15 @@
       <c r="N6" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="30"/>
-      <c r="S6" s="30"/>
-      <c r="T6" s="30"/>
-      <c r="U6" s="30"/>
-      <c r="V6" s="30"/>
-      <c r="W6" s="30"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="29"/>
+      <c r="T6" s="29"/>
+      <c r="U6" s="29"/>
+      <c r="V6" s="29"/>
+      <c r="W6" s="29"/>
       <c r="AA6" s="25" t="s">
         <v>139</v>
       </c>
@@ -4794,7 +4782,7 @@
       <c r="AJ6" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="AK6" s="31" t="s">
+      <c r="AK6" s="30" t="s">
         <v>502</v>
       </c>
     </row>
@@ -4805,10 +4793,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB111"/>
+  <dimension ref="A1:AL111"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AG107" sqref="AG107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4822,7 +4810,7 @@
     <col min="12" max="12" width="18.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>25</v>
       </c>
@@ -4892,23 +4880,53 @@
       <c r="W1" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="X1" s="28" t="s">
+      <c r="X1" t="s">
+        <v>875</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>876</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA1" t="s">
         <v>41</v>
       </c>
-      <c r="Y1" s="28" t="s">
+      <c r="AB1" t="s">
         <v>42</v>
       </c>
-      <c r="Z1" s="28" t="s">
+      <c r="AC1" s="32" t="s">
+        <v>877</v>
+      </c>
+      <c r="AD1" s="32" t="s">
+        <v>878</v>
+      </c>
+      <c r="AE1" s="32" t="s">
+        <v>879</v>
+      </c>
+      <c r="AF1" s="32" t="s">
+        <v>880</v>
+      </c>
+      <c r="AG1" s="32" t="s">
+        <v>881</v>
+      </c>
+      <c r="AH1" s="32" t="s">
+        <v>882</v>
+      </c>
+      <c r="AI1" s="33" t="s">
+        <v>883</v>
+      </c>
+      <c r="AJ1" t="s">
         <v>43</v>
       </c>
-      <c r="AA1" s="28" t="s">
+      <c r="AK1" t="s">
         <v>44</v>
       </c>
-      <c r="AB1" s="29" t="s">
+      <c r="AL1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>157</v>
       </c>
@@ -4924,14 +4942,18 @@
       <c r="E2" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30"/>
-      <c r="U2" s="30"/>
-      <c r="V2" s="30"/>
-      <c r="W2" s="30"/>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="29"/>
+      <c r="V2" s="29"/>
+      <c r="W2" s="29"/>
+      <c r="AI2">
+        <f>SUM(AB2,AD2,AF2,AH2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>157</v>
       </c>
@@ -4947,14 +4969,18 @@
       <c r="E3" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="30"/>
-      <c r="U3" s="30"/>
-      <c r="V3" s="30"/>
-      <c r="W3" s="30"/>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="R3" s="29"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="29"/>
+      <c r="W3" s="29"/>
+      <c r="AI3">
+        <f t="shared" ref="AI3:AI66" si="0">SUM(AB3,AD3,AF3,AH3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
         <v>157</v>
       </c>
@@ -4970,14 +4996,18 @@
       <c r="E4" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="R4" s="30"/>
-      <c r="S4" s="30"/>
-      <c r="T4" s="30"/>
-      <c r="U4" s="30"/>
-      <c r="V4" s="30"/>
-      <c r="W4" s="30"/>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="R4" s="29"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="29"/>
+      <c r="V4" s="29"/>
+      <c r="W4" s="29"/>
+      <c r="AI4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>157</v>
       </c>
@@ -4993,14 +5023,18 @@
       <c r="E5" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="R5" s="30"/>
-      <c r="S5" s="30"/>
-      <c r="T5" s="30"/>
-      <c r="U5" s="30"/>
-      <c r="V5" s="30"/>
-      <c r="W5" s="30"/>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="R5" s="29"/>
+      <c r="S5" s="29"/>
+      <c r="T5" s="29"/>
+      <c r="U5" s="29"/>
+      <c r="V5" s="29"/>
+      <c r="W5" s="29"/>
+      <c r="AI5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
         <v>157</v>
       </c>
@@ -5016,14 +5050,18 @@
       <c r="E6" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="R6" s="30"/>
-      <c r="S6" s="30"/>
-      <c r="T6" s="30"/>
-      <c r="U6" s="30"/>
-      <c r="V6" s="30"/>
-      <c r="W6" s="30"/>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="R6" s="29"/>
+      <c r="S6" s="29"/>
+      <c r="T6" s="29"/>
+      <c r="U6" s="29"/>
+      <c r="V6" s="29"/>
+      <c r="W6" s="29"/>
+      <c r="AI6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>157</v>
       </c>
@@ -5039,14 +5077,18 @@
       <c r="E7" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="R7" s="30"/>
-      <c r="S7" s="30"/>
-      <c r="T7" s="30"/>
-      <c r="U7" s="30"/>
-      <c r="V7" s="30"/>
-      <c r="W7" s="30"/>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="R7" s="29"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="29"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="29"/>
+      <c r="W7" s="29"/>
+      <c r="AI7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
         <v>157</v>
       </c>
@@ -5062,14 +5104,18 @@
       <c r="E8" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="R8" s="30"/>
-      <c r="S8" s="30"/>
-      <c r="T8" s="30"/>
-      <c r="U8" s="30"/>
-      <c r="V8" s="30"/>
-      <c r="W8" s="30"/>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="R8" s="29"/>
+      <c r="S8" s="29"/>
+      <c r="T8" s="29"/>
+      <c r="U8" s="29"/>
+      <c r="V8" s="29"/>
+      <c r="W8" s="29"/>
+      <c r="AI8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>157</v>
       </c>
@@ -5085,14 +5131,18 @@
       <c r="E9" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="R9" s="30"/>
-      <c r="S9" s="30"/>
-      <c r="T9" s="30"/>
-      <c r="U9" s="30"/>
-      <c r="V9" s="30"/>
-      <c r="W9" s="30"/>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="R9" s="29"/>
+      <c r="S9" s="29"/>
+      <c r="T9" s="29"/>
+      <c r="U9" s="29"/>
+      <c r="V9" s="29"/>
+      <c r="W9" s="29"/>
+      <c r="AI9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
         <v>157</v>
       </c>
@@ -5108,14 +5158,18 @@
       <c r="E10" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="R10" s="30"/>
-      <c r="S10" s="30"/>
-      <c r="T10" s="30"/>
-      <c r="U10" s="30"/>
-      <c r="V10" s="30"/>
-      <c r="W10" s="30"/>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="R10" s="29"/>
+      <c r="S10" s="29"/>
+      <c r="T10" s="29"/>
+      <c r="U10" s="29"/>
+      <c r="V10" s="29"/>
+      <c r="W10" s="29"/>
+      <c r="AI10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
         <v>157</v>
       </c>
@@ -5131,14 +5185,18 @@
       <c r="E11" s="27" t="s">
         <v>187</v>
       </c>
-      <c r="R11" s="30"/>
-      <c r="S11" s="30"/>
-      <c r="T11" s="30"/>
-      <c r="U11" s="30"/>
-      <c r="V11" s="30"/>
-      <c r="W11" s="30"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="R11" s="29"/>
+      <c r="S11" s="29"/>
+      <c r="T11" s="29"/>
+      <c r="U11" s="29"/>
+      <c r="V11" s="29"/>
+      <c r="W11" s="29"/>
+      <c r="AI11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
         <v>157</v>
       </c>
@@ -5154,14 +5212,18 @@
       <c r="E12" s="25" t="s">
         <v>190</v>
       </c>
-      <c r="R12" s="30"/>
-      <c r="S12" s="30"/>
-      <c r="T12" s="30"/>
-      <c r="U12" s="30"/>
-      <c r="V12" s="30"/>
-      <c r="W12" s="30"/>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="R12" s="29"/>
+      <c r="S12" s="29"/>
+      <c r="T12" s="29"/>
+      <c r="U12" s="29"/>
+      <c r="V12" s="29"/>
+      <c r="W12" s="29"/>
+      <c r="AI12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
         <v>157</v>
       </c>
@@ -5177,14 +5239,18 @@
       <c r="E13" s="27" t="s">
         <v>193</v>
       </c>
-      <c r="R13" s="30"/>
-      <c r="S13" s="30"/>
-      <c r="T13" s="30"/>
-      <c r="U13" s="30"/>
-      <c r="V13" s="30"/>
-      <c r="W13" s="30"/>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="R13" s="29"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="29"/>
+      <c r="U13" s="29"/>
+      <c r="V13" s="29"/>
+      <c r="W13" s="29"/>
+      <c r="AI13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
         <v>157</v>
       </c>
@@ -5200,14 +5266,18 @@
       <c r="E14" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="R14" s="30"/>
-      <c r="S14" s="30"/>
-      <c r="T14" s="30"/>
-      <c r="U14" s="30"/>
-      <c r="V14" s="30"/>
-      <c r="W14" s="30"/>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="R14" s="29"/>
+      <c r="S14" s="29"/>
+      <c r="T14" s="29"/>
+      <c r="U14" s="29"/>
+      <c r="V14" s="29"/>
+      <c r="W14" s="29"/>
+      <c r="AI14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
         <v>157</v>
       </c>
@@ -5223,14 +5293,18 @@
       <c r="E15" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="R15" s="30"/>
-      <c r="S15" s="30"/>
-      <c r="T15" s="30"/>
-      <c r="U15" s="30"/>
-      <c r="V15" s="30"/>
-      <c r="W15" s="30"/>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="R15" s="29"/>
+      <c r="S15" s="29"/>
+      <c r="T15" s="29"/>
+      <c r="U15" s="29"/>
+      <c r="V15" s="29"/>
+      <c r="W15" s="29"/>
+      <c r="AI15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
         <v>200</v>
       </c>
@@ -5273,29 +5347,33 @@
       <c r="N16" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="O16" s="30"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="30"/>
-      <c r="R16" s="30"/>
-      <c r="S16" s="30"/>
-      <c r="T16" s="30"/>
-      <c r="U16" s="30"/>
-      <c r="V16" s="30"/>
-      <c r="W16" s="30"/>
-      <c r="X16" s="25" t="s">
+      <c r="O16" s="29"/>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="29"/>
+      <c r="R16" s="29"/>
+      <c r="S16" s="29"/>
+      <c r="T16" s="29"/>
+      <c r="U16" s="29"/>
+      <c r="V16" s="29"/>
+      <c r="W16" s="29"/>
+      <c r="AA16" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="Y16" s="25">
-        <v>24</v>
-      </c>
-      <c r="Z16" s="25" t="s">
+      <c r="AB16" s="25">
+        <v>24</v>
+      </c>
+      <c r="AI16">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AJ16" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="AA16" s="31" t="s">
+      <c r="AK16" s="30" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
         <v>200</v>
       </c>
@@ -5338,29 +5416,33 @@
       <c r="N17" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="O17" s="30"/>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="30"/>
-      <c r="R17" s="30"/>
-      <c r="S17" s="30"/>
-      <c r="T17" s="30"/>
-      <c r="U17" s="30"/>
-      <c r="V17" s="30"/>
-      <c r="W17" s="30"/>
-      <c r="X17" s="27" t="s">
+      <c r="O17" s="29"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="29"/>
+      <c r="S17" s="29"/>
+      <c r="T17" s="29"/>
+      <c r="U17" s="29"/>
+      <c r="V17" s="29"/>
+      <c r="W17" s="29"/>
+      <c r="AA17" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="Y17" s="27">
-        <v>24</v>
-      </c>
-      <c r="Z17" s="27" t="s">
+      <c r="AB17" s="27">
+        <v>24</v>
+      </c>
+      <c r="AI17">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AJ17" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="AA17" s="32" t="s">
+      <c r="AK17" s="31" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
         <v>207</v>
       </c>
@@ -5403,29 +5485,33 @@
       <c r="N18" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="O18" s="30"/>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="30"/>
-      <c r="R18" s="30"/>
-      <c r="S18" s="30"/>
-      <c r="T18" s="30"/>
-      <c r="U18" s="30"/>
-      <c r="V18" s="30"/>
-      <c r="W18" s="30"/>
-      <c r="X18" s="25" t="s">
+      <c r="O18" s="29"/>
+      <c r="P18" s="29"/>
+      <c r="Q18" s="29"/>
+      <c r="R18" s="29"/>
+      <c r="S18" s="29"/>
+      <c r="T18" s="29"/>
+      <c r="U18" s="29"/>
+      <c r="V18" s="29"/>
+      <c r="W18" s="29"/>
+      <c r="AA18" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="Y18" s="25">
-        <v>24</v>
-      </c>
-      <c r="Z18" s="25" t="s">
+      <c r="AB18" s="25">
+        <v>24</v>
+      </c>
+      <c r="AI18">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AJ18" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="AA18" s="31" t="s">
+      <c r="AK18" s="30" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
         <v>200</v>
       </c>
@@ -5468,29 +5554,33 @@
       <c r="N19" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="O19" s="30"/>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="30"/>
-      <c r="R19" s="30"/>
-      <c r="S19" s="30"/>
-      <c r="T19" s="30"/>
-      <c r="U19" s="30"/>
-      <c r="V19" s="30"/>
-      <c r="W19" s="30"/>
-      <c r="X19" s="27" t="s">
+      <c r="O19" s="29"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="29"/>
+      <c r="S19" s="29"/>
+      <c r="T19" s="29"/>
+      <c r="U19" s="29"/>
+      <c r="V19" s="29"/>
+      <c r="W19" s="29"/>
+      <c r="AA19" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="Y19" s="27">
-        <v>24</v>
-      </c>
-      <c r="Z19" s="27" t="s">
+      <c r="AB19" s="27">
+        <v>24</v>
+      </c>
+      <c r="AI19">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AJ19" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="AA19" s="32" t="s">
+      <c r="AK19" s="31" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
         <v>200</v>
       </c>
@@ -5533,29 +5623,33 @@
       <c r="N20" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="O20" s="30"/>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="30"/>
-      <c r="R20" s="30"/>
-      <c r="S20" s="30"/>
-      <c r="T20" s="30"/>
-      <c r="U20" s="30"/>
-      <c r="V20" s="30"/>
-      <c r="W20" s="30"/>
-      <c r="X20" s="25" t="s">
+      <c r="O20" s="29"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="29"/>
+      <c r="R20" s="29"/>
+      <c r="S20" s="29"/>
+      <c r="T20" s="29"/>
+      <c r="U20" s="29"/>
+      <c r="V20" s="29"/>
+      <c r="W20" s="29"/>
+      <c r="AA20" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="Y20" s="25">
-        <v>24</v>
-      </c>
-      <c r="Z20" s="25" t="s">
+      <c r="AB20" s="25">
+        <v>24</v>
+      </c>
+      <c r="AI20">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AJ20" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="AA20" s="31" t="s">
+      <c r="AK20" s="30" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21" s="26" t="s">
         <v>207</v>
       </c>
@@ -5598,29 +5692,33 @@
       <c r="N21" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="O21" s="30"/>
-      <c r="P21" s="30"/>
-      <c r="Q21" s="30"/>
-      <c r="R21" s="30"/>
-      <c r="S21" s="30"/>
-      <c r="T21" s="30"/>
-      <c r="U21" s="30"/>
-      <c r="V21" s="30"/>
-      <c r="W21" s="30"/>
-      <c r="X21" s="27" t="s">
+      <c r="O21" s="29"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="29"/>
+      <c r="R21" s="29"/>
+      <c r="S21" s="29"/>
+      <c r="T21" s="29"/>
+      <c r="U21" s="29"/>
+      <c r="V21" s="29"/>
+      <c r="W21" s="29"/>
+      <c r="AA21" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="Y21" s="27">
-        <v>24</v>
-      </c>
-      <c r="Z21" s="27" t="s">
+      <c r="AB21" s="27">
+        <v>24</v>
+      </c>
+      <c r="AI21">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AJ21" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="AA21" s="32" t="s">
+      <c r="AK21" s="31" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22" s="24" t="s">
         <v>200</v>
       </c>
@@ -5663,29 +5761,33 @@
       <c r="N22" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="O22" s="30"/>
-      <c r="P22" s="30"/>
-      <c r="Q22" s="30"/>
-      <c r="R22" s="30"/>
-      <c r="S22" s="30"/>
-      <c r="T22" s="30"/>
-      <c r="U22" s="30"/>
-      <c r="V22" s="30"/>
-      <c r="W22" s="30"/>
-      <c r="X22" s="25" t="s">
+      <c r="O22" s="29"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="29"/>
+      <c r="R22" s="29"/>
+      <c r="S22" s="29"/>
+      <c r="T22" s="29"/>
+      <c r="U22" s="29"/>
+      <c r="V22" s="29"/>
+      <c r="W22" s="29"/>
+      <c r="AA22" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="Y22" s="25">
-        <v>24</v>
-      </c>
-      <c r="Z22" s="25" t="s">
+      <c r="AB22" s="25">
+        <v>24</v>
+      </c>
+      <c r="AI22">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AJ22" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="AA22" s="31" t="s">
+      <c r="AK22" s="30" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23" s="26" t="s">
         <v>200</v>
       </c>
@@ -5728,29 +5830,33 @@
       <c r="N23" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="O23" s="30"/>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="30"/>
-      <c r="R23" s="30"/>
-      <c r="S23" s="30"/>
-      <c r="T23" s="30"/>
-      <c r="U23" s="30"/>
-      <c r="V23" s="30"/>
-      <c r="W23" s="30"/>
-      <c r="X23" s="27" t="s">
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="29"/>
+      <c r="S23" s="29"/>
+      <c r="T23" s="29"/>
+      <c r="U23" s="29"/>
+      <c r="V23" s="29"/>
+      <c r="W23" s="29"/>
+      <c r="AA23" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="Y23" s="27">
-        <v>24</v>
-      </c>
-      <c r="Z23" s="27" t="s">
+      <c r="AB23" s="27">
+        <v>24</v>
+      </c>
+      <c r="AI23">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AJ23" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="AA23" s="32" t="s">
+      <c r="AK23" s="31" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24" s="24" t="s">
         <v>207</v>
       </c>
@@ -5793,29 +5899,33 @@
       <c r="N24" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="O24" s="30"/>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="30"/>
-      <c r="R24" s="30"/>
-      <c r="S24" s="30"/>
-      <c r="T24" s="30"/>
-      <c r="U24" s="30"/>
-      <c r="V24" s="30"/>
-      <c r="W24" s="30"/>
-      <c r="X24" s="25" t="s">
+      <c r="O24" s="29"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="29"/>
+      <c r="R24" s="29"/>
+      <c r="S24" s="29"/>
+      <c r="T24" s="29"/>
+      <c r="U24" s="29"/>
+      <c r="V24" s="29"/>
+      <c r="W24" s="29"/>
+      <c r="AA24" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="Y24" s="25">
-        <v>24</v>
-      </c>
-      <c r="Z24" s="25" t="s">
+      <c r="AB24" s="25">
+        <v>24</v>
+      </c>
+      <c r="AI24">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AJ24" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="AA24" s="31" t="s">
+      <c r="AK24" s="30" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25" s="26" t="s">
         <v>200</v>
       </c>
@@ -5858,29 +5968,33 @@
       <c r="N25" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="O25" s="30"/>
-      <c r="P25" s="30"/>
-      <c r="Q25" s="30"/>
-      <c r="R25" s="30"/>
-      <c r="S25" s="30"/>
-      <c r="T25" s="30"/>
-      <c r="U25" s="30"/>
-      <c r="V25" s="30"/>
-      <c r="W25" s="30"/>
-      <c r="X25" s="27" t="s">
+      <c r="O25" s="29"/>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="29"/>
+      <c r="R25" s="29"/>
+      <c r="S25" s="29"/>
+      <c r="T25" s="29"/>
+      <c r="U25" s="29"/>
+      <c r="V25" s="29"/>
+      <c r="W25" s="29"/>
+      <c r="AA25" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="Y25" s="27">
-        <v>24</v>
-      </c>
-      <c r="Z25" s="27" t="s">
+      <c r="AB25" s="27">
+        <v>24</v>
+      </c>
+      <c r="AI25">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AJ25" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="AA25" s="32" t="s">
+      <c r="AK25" s="31" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" s="24" t="s">
         <v>200</v>
       </c>
@@ -5923,29 +6037,33 @@
       <c r="N26" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="O26" s="30"/>
-      <c r="P26" s="30"/>
-      <c r="Q26" s="30"/>
-      <c r="R26" s="30"/>
-      <c r="S26" s="30"/>
-      <c r="T26" s="30"/>
-      <c r="U26" s="30"/>
-      <c r="V26" s="30"/>
-      <c r="W26" s="30"/>
-      <c r="X26" s="25" t="s">
+      <c r="O26" s="29"/>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="29"/>
+      <c r="R26" s="29"/>
+      <c r="S26" s="29"/>
+      <c r="T26" s="29"/>
+      <c r="U26" s="29"/>
+      <c r="V26" s="29"/>
+      <c r="W26" s="29"/>
+      <c r="AA26" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="Y26" s="25">
-        <v>24</v>
-      </c>
-      <c r="Z26" s="25" t="s">
+      <c r="AB26" s="25">
+        <v>24</v>
+      </c>
+      <c r="AI26">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AJ26" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="AA26" s="31" t="s">
+      <c r="AK26" s="30" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27" s="26" t="s">
         <v>207</v>
       </c>
@@ -5988,29 +6106,33 @@
       <c r="N27" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="O27" s="30"/>
-      <c r="P27" s="30"/>
-      <c r="Q27" s="30"/>
-      <c r="R27" s="30"/>
-      <c r="S27" s="30"/>
-      <c r="T27" s="30"/>
-      <c r="U27" s="30"/>
-      <c r="V27" s="30"/>
-      <c r="W27" s="30"/>
-      <c r="X27" s="27" t="s">
+      <c r="O27" s="29"/>
+      <c r="P27" s="29"/>
+      <c r="Q27" s="29"/>
+      <c r="R27" s="29"/>
+      <c r="S27" s="29"/>
+      <c r="T27" s="29"/>
+      <c r="U27" s="29"/>
+      <c r="V27" s="29"/>
+      <c r="W27" s="29"/>
+      <c r="AA27" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="Y27" s="27">
-        <v>24</v>
-      </c>
-      <c r="Z27" s="27" t="s">
+      <c r="AB27" s="27">
+        <v>24</v>
+      </c>
+      <c r="AI27">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AJ27" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="AA27" s="32" t="s">
+      <c r="AK27" s="31" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28" s="24" t="s">
         <v>200</v>
       </c>
@@ -6071,23 +6193,27 @@
       <c r="T28" s="25" t="s">
         <v>496</v>
       </c>
-      <c r="U28" s="30"/>
-      <c r="V28" s="30"/>
-      <c r="W28" s="30"/>
-      <c r="X28" s="25" t="s">
+      <c r="U28" s="29"/>
+      <c r="V28" s="29"/>
+      <c r="W28" s="29"/>
+      <c r="AA28" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="Y28" s="25">
-        <v>24</v>
-      </c>
-      <c r="Z28" s="25" t="s">
+      <c r="AB28" s="25">
+        <v>24</v>
+      </c>
+      <c r="AI28">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AJ28" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="AA28" s="31" t="s">
+      <c r="AK28" s="30" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29" s="26" t="s">
         <v>200</v>
       </c>
@@ -6130,29 +6256,33 @@
       <c r="N29" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="O29" s="30"/>
-      <c r="P29" s="30"/>
-      <c r="Q29" s="30"/>
-      <c r="R29" s="30"/>
-      <c r="S29" s="30"/>
-      <c r="T29" s="30"/>
-      <c r="U29" s="30"/>
-      <c r="V29" s="30"/>
-      <c r="W29" s="30"/>
-      <c r="X29" s="27" t="s">
+      <c r="O29" s="29"/>
+      <c r="P29" s="29"/>
+      <c r="Q29" s="29"/>
+      <c r="R29" s="29"/>
+      <c r="S29" s="29"/>
+      <c r="T29" s="29"/>
+      <c r="U29" s="29"/>
+      <c r="V29" s="29"/>
+      <c r="W29" s="29"/>
+      <c r="AA29" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="Y29" s="27">
-        <v>24</v>
-      </c>
-      <c r="Z29" s="27" t="s">
+      <c r="AB29" s="27">
+        <v>24</v>
+      </c>
+      <c r="AI29">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AJ29" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="AA29" s="32" t="s">
+      <c r="AK29" s="31" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30" s="24" t="s">
         <v>200</v>
       </c>
@@ -6195,29 +6325,33 @@
       <c r="N30" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="O30" s="30"/>
-      <c r="P30" s="30"/>
-      <c r="Q30" s="30"/>
-      <c r="R30" s="30"/>
-      <c r="S30" s="30"/>
-      <c r="T30" s="30"/>
-      <c r="U30" s="30"/>
-      <c r="V30" s="30"/>
-      <c r="W30" s="30"/>
-      <c r="X30" s="25" t="s">
+      <c r="O30" s="29"/>
+      <c r="P30" s="29"/>
+      <c r="Q30" s="29"/>
+      <c r="R30" s="29"/>
+      <c r="S30" s="29"/>
+      <c r="T30" s="29"/>
+      <c r="U30" s="29"/>
+      <c r="V30" s="29"/>
+      <c r="W30" s="29"/>
+      <c r="AA30" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="Y30" s="25">
-        <v>24</v>
-      </c>
-      <c r="Z30" s="25" t="s">
+      <c r="AB30" s="25">
+        <v>24</v>
+      </c>
+      <c r="AI30">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AJ30" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="AA30" s="31" t="s">
+      <c r="AK30" s="30" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31" s="26" t="s">
         <v>200</v>
       </c>
@@ -6272,23 +6406,27 @@
       <c r="R31" s="27"/>
       <c r="S31" s="27"/>
       <c r="T31" s="27"/>
-      <c r="U31" s="30"/>
-      <c r="V31" s="30"/>
-      <c r="W31" s="30"/>
-      <c r="X31" s="27" t="s">
+      <c r="U31" s="29"/>
+      <c r="V31" s="29"/>
+      <c r="W31" s="29"/>
+      <c r="AA31" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="Y31" s="27">
-        <v>24</v>
-      </c>
-      <c r="Z31" s="27" t="s">
+      <c r="AB31" s="27">
+        <v>24</v>
+      </c>
+      <c r="AI31">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AJ31" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="AA31" s="32" t="s">
+      <c r="AK31" s="31" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32" s="24" t="s">
         <v>200</v>
       </c>
@@ -6331,29 +6469,33 @@
       <c r="N32" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="O32" s="30"/>
-      <c r="P32" s="30"/>
-      <c r="Q32" s="30"/>
-      <c r="R32" s="30"/>
-      <c r="S32" s="30"/>
-      <c r="T32" s="30"/>
-      <c r="U32" s="30"/>
-      <c r="V32" s="30"/>
-      <c r="W32" s="30"/>
-      <c r="X32" s="25" t="s">
+      <c r="O32" s="29"/>
+      <c r="P32" s="29"/>
+      <c r="Q32" s="29"/>
+      <c r="R32" s="29"/>
+      <c r="S32" s="29"/>
+      <c r="T32" s="29"/>
+      <c r="U32" s="29"/>
+      <c r="V32" s="29"/>
+      <c r="W32" s="29"/>
+      <c r="AA32" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="Y32" s="25">
-        <v>24</v>
-      </c>
-      <c r="Z32" s="25" t="s">
+      <c r="AB32" s="25">
+        <v>24</v>
+      </c>
+      <c r="AI32">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AJ32" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="AA32" s="31" t="s">
+      <c r="AK32" s="30" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A33" s="26" t="s">
         <v>207</v>
       </c>
@@ -6396,29 +6538,33 @@
       <c r="N33" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="O33" s="30"/>
-      <c r="P33" s="30"/>
-      <c r="Q33" s="30"/>
-      <c r="R33" s="30"/>
-      <c r="S33" s="30"/>
-      <c r="T33" s="30"/>
-      <c r="U33" s="30"/>
-      <c r="V33" s="30"/>
-      <c r="W33" s="30"/>
-      <c r="X33" s="27" t="s">
+      <c r="O33" s="29"/>
+      <c r="P33" s="29"/>
+      <c r="Q33" s="29"/>
+      <c r="R33" s="29"/>
+      <c r="S33" s="29"/>
+      <c r="T33" s="29"/>
+      <c r="U33" s="29"/>
+      <c r="V33" s="29"/>
+      <c r="W33" s="29"/>
+      <c r="AA33" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="Y33" s="27">
-        <v>24</v>
-      </c>
-      <c r="Z33" s="27" t="s">
+      <c r="AB33" s="27">
+        <v>24</v>
+      </c>
+      <c r="AI33">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AJ33" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="AA33" s="32" t="s">
+      <c r="AK33" s="31" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A34" s="24" t="s">
         <v>207</v>
       </c>
@@ -6461,29 +6607,33 @@
       <c r="N34" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="O34" s="30"/>
-      <c r="P34" s="30"/>
-      <c r="Q34" s="30"/>
-      <c r="R34" s="30"/>
-      <c r="S34" s="30"/>
-      <c r="T34" s="30"/>
-      <c r="U34" s="30"/>
-      <c r="V34" s="30"/>
-      <c r="W34" s="30"/>
-      <c r="X34" s="25" t="s">
+      <c r="O34" s="29"/>
+      <c r="P34" s="29"/>
+      <c r="Q34" s="29"/>
+      <c r="R34" s="29"/>
+      <c r="S34" s="29"/>
+      <c r="T34" s="29"/>
+      <c r="U34" s="29"/>
+      <c r="V34" s="29"/>
+      <c r="W34" s="29"/>
+      <c r="AA34" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="Y34" s="25">
-        <v>24</v>
-      </c>
-      <c r="Z34" s="25" t="s">
+      <c r="AB34" s="25">
+        <v>24</v>
+      </c>
+      <c r="AI34">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AJ34" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="AA34" s="31" t="s">
+      <c r="AK34" s="30" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A35" s="26" t="s">
         <v>200</v>
       </c>
@@ -6526,29 +6676,33 @@
       <c r="N35" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="O35" s="30"/>
-      <c r="P35" s="30"/>
-      <c r="Q35" s="30"/>
-      <c r="R35" s="30"/>
-      <c r="S35" s="30"/>
-      <c r="T35" s="30"/>
-      <c r="U35" s="30"/>
-      <c r="V35" s="30"/>
-      <c r="W35" s="30"/>
-      <c r="X35" s="27" t="s">
+      <c r="O35" s="29"/>
+      <c r="P35" s="29"/>
+      <c r="Q35" s="29"/>
+      <c r="R35" s="29"/>
+      <c r="S35" s="29"/>
+      <c r="T35" s="29"/>
+      <c r="U35" s="29"/>
+      <c r="V35" s="29"/>
+      <c r="W35" s="29"/>
+      <c r="AA35" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="Y35" s="27">
-        <v>24</v>
-      </c>
-      <c r="Z35" s="27" t="s">
+      <c r="AB35" s="27">
+        <v>24</v>
+      </c>
+      <c r="AI35">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AJ35" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="AA35" s="32" t="s">
+      <c r="AK35" s="31" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A36" s="24" t="s">
         <v>207</v>
       </c>
@@ -6591,29 +6745,33 @@
       <c r="N36" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="O36" s="30"/>
-      <c r="P36" s="30"/>
-      <c r="Q36" s="30"/>
-      <c r="R36" s="30"/>
-      <c r="S36" s="30"/>
-      <c r="T36" s="30"/>
-      <c r="U36" s="30"/>
-      <c r="V36" s="30"/>
-      <c r="W36" s="30"/>
-      <c r="X36" s="25" t="s">
+      <c r="O36" s="29"/>
+      <c r="P36" s="29"/>
+      <c r="Q36" s="29"/>
+      <c r="R36" s="29"/>
+      <c r="S36" s="29"/>
+      <c r="T36" s="29"/>
+      <c r="U36" s="29"/>
+      <c r="V36" s="29"/>
+      <c r="W36" s="29"/>
+      <c r="AA36" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="Y36" s="25">
-        <v>24</v>
-      </c>
-      <c r="Z36" s="25" t="s">
+      <c r="AB36" s="25">
+        <v>24</v>
+      </c>
+      <c r="AI36">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AJ36" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="AA36" s="31" t="s">
+      <c r="AK36" s="30" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A37" s="26" t="s">
         <v>200</v>
       </c>
@@ -6665,26 +6823,30 @@
       <c r="Q37" s="27" t="s">
         <v>496</v>
       </c>
-      <c r="R37" s="30"/>
-      <c r="S37" s="30"/>
-      <c r="T37" s="30"/>
-      <c r="U37" s="30"/>
-      <c r="V37" s="30"/>
-      <c r="W37" s="30"/>
-      <c r="X37" s="27" t="s">
+      <c r="R37" s="29"/>
+      <c r="S37" s="29"/>
+      <c r="T37" s="29"/>
+      <c r="U37" s="29"/>
+      <c r="V37" s="29"/>
+      <c r="W37" s="29"/>
+      <c r="AA37" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="Y37" s="27">
-        <v>24</v>
-      </c>
-      <c r="Z37" s="27" t="s">
+      <c r="AB37" s="27">
+        <v>24</v>
+      </c>
+      <c r="AI37">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AJ37" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="AA37" s="32" t="s">
+      <c r="AK37" s="31" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A38" s="24" t="s">
         <v>200</v>
       </c>
@@ -6718,29 +6880,33 @@
       <c r="K38" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="O38" s="30"/>
-      <c r="P38" s="30"/>
-      <c r="Q38" s="30"/>
-      <c r="R38" s="30"/>
-      <c r="S38" s="30"/>
-      <c r="T38" s="30"/>
-      <c r="U38" s="30"/>
-      <c r="V38" s="30"/>
-      <c r="W38" s="30"/>
-      <c r="X38" s="25" t="s">
+      <c r="O38" s="29"/>
+      <c r="P38" s="29"/>
+      <c r="Q38" s="29"/>
+      <c r="R38" s="29"/>
+      <c r="S38" s="29"/>
+      <c r="T38" s="29"/>
+      <c r="U38" s="29"/>
+      <c r="V38" s="29"/>
+      <c r="W38" s="29"/>
+      <c r="AA38" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="Y38" s="25">
-        <v>24</v>
-      </c>
-      <c r="Z38" s="25" t="s">
+      <c r="AB38" s="25">
+        <v>24</v>
+      </c>
+      <c r="AI38">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AJ38" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="AA38" s="31" t="s">
+      <c r="AK38" s="30" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A39" s="26" t="s">
         <v>200</v>
       </c>
@@ -6783,29 +6949,33 @@
       <c r="N39" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="O39" s="30"/>
-      <c r="P39" s="30"/>
-      <c r="Q39" s="30"/>
-      <c r="R39" s="30"/>
-      <c r="S39" s="30"/>
-      <c r="T39" s="30"/>
-      <c r="U39" s="30"/>
-      <c r="V39" s="30"/>
-      <c r="W39" s="30"/>
-      <c r="X39" s="27" t="s">
+      <c r="O39" s="29"/>
+      <c r="P39" s="29"/>
+      <c r="Q39" s="29"/>
+      <c r="R39" s="29"/>
+      <c r="S39" s="29"/>
+      <c r="T39" s="29"/>
+      <c r="U39" s="29"/>
+      <c r="V39" s="29"/>
+      <c r="W39" s="29"/>
+      <c r="AA39" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="Y39" s="27">
-        <v>24</v>
-      </c>
-      <c r="Z39" s="27" t="s">
+      <c r="AB39" s="27">
+        <v>24</v>
+      </c>
+      <c r="AI39">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AJ39" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="AA39" s="32" t="s">
+      <c r="AK39" s="31" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A40" s="24" t="s">
         <v>200</v>
       </c>
@@ -6830,29 +7000,33 @@
       <c r="H40" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="O40" s="30"/>
-      <c r="P40" s="30"/>
-      <c r="Q40" s="30"/>
-      <c r="R40" s="30"/>
-      <c r="S40" s="30"/>
-      <c r="T40" s="30"/>
-      <c r="U40" s="30"/>
-      <c r="V40" s="30"/>
-      <c r="W40" s="30"/>
-      <c r="X40" s="25" t="s">
+      <c r="O40" s="29"/>
+      <c r="P40" s="29"/>
+      <c r="Q40" s="29"/>
+      <c r="R40" s="29"/>
+      <c r="S40" s="29"/>
+      <c r="T40" s="29"/>
+      <c r="U40" s="29"/>
+      <c r="V40" s="29"/>
+      <c r="W40" s="29"/>
+      <c r="AA40" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="Y40" s="25">
-        <v>24</v>
-      </c>
-      <c r="Z40" s="25" t="s">
+      <c r="AB40" s="25">
+        <v>24</v>
+      </c>
+      <c r="AI40">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AJ40" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="AA40" s="31" t="s">
+      <c r="AK40" s="30" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A41" s="26" t="s">
         <v>200</v>
       </c>
@@ -6895,29 +7069,33 @@
       <c r="N41" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="O41" s="30"/>
-      <c r="P41" s="30"/>
-      <c r="Q41" s="30"/>
-      <c r="R41" s="30"/>
-      <c r="S41" s="30"/>
-      <c r="T41" s="30"/>
-      <c r="U41" s="30"/>
-      <c r="V41" s="30"/>
-      <c r="W41" s="30"/>
-      <c r="X41" s="27" t="s">
+      <c r="O41" s="29"/>
+      <c r="P41" s="29"/>
+      <c r="Q41" s="29"/>
+      <c r="R41" s="29"/>
+      <c r="S41" s="29"/>
+      <c r="T41" s="29"/>
+      <c r="U41" s="29"/>
+      <c r="V41" s="29"/>
+      <c r="W41" s="29"/>
+      <c r="AA41" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="Y41" s="27">
-        <v>24</v>
-      </c>
-      <c r="Z41" s="27" t="s">
+      <c r="AB41" s="27">
+        <v>24</v>
+      </c>
+      <c r="AI41">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AJ41" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="AA41" s="32" t="s">
+      <c r="AK41" s="31" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A42" s="24" t="s">
         <v>200</v>
       </c>
@@ -6960,29 +7138,33 @@
       <c r="N42" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="O42" s="30"/>
-      <c r="P42" s="30"/>
-      <c r="Q42" s="30"/>
-      <c r="R42" s="30"/>
-      <c r="S42" s="30"/>
-      <c r="T42" s="30"/>
-      <c r="U42" s="30"/>
-      <c r="V42" s="30"/>
-      <c r="W42" s="30"/>
-      <c r="X42" s="25" t="s">
+      <c r="O42" s="29"/>
+      <c r="P42" s="29"/>
+      <c r="Q42" s="29"/>
+      <c r="R42" s="29"/>
+      <c r="S42" s="29"/>
+      <c r="T42" s="29"/>
+      <c r="U42" s="29"/>
+      <c r="V42" s="29"/>
+      <c r="W42" s="29"/>
+      <c r="AA42" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="Y42" s="25">
-        <v>24</v>
-      </c>
-      <c r="Z42" s="25" t="s">
+      <c r="AB42" s="25">
+        <v>24</v>
+      </c>
+      <c r="AI42">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AJ42" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="AA42" s="31" t="s">
+      <c r="AK42" s="30" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A43" s="26" t="s">
         <v>207</v>
       </c>
@@ -7025,29 +7207,33 @@
       <c r="N43" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="O43" s="30"/>
-      <c r="P43" s="30"/>
-      <c r="Q43" s="30"/>
-      <c r="R43" s="30"/>
-      <c r="S43" s="30"/>
-      <c r="T43" s="30"/>
-      <c r="U43" s="30"/>
-      <c r="V43" s="30"/>
-      <c r="W43" s="30"/>
-      <c r="X43" s="27" t="s">
+      <c r="O43" s="29"/>
+      <c r="P43" s="29"/>
+      <c r="Q43" s="29"/>
+      <c r="R43" s="29"/>
+      <c r="S43" s="29"/>
+      <c r="T43" s="29"/>
+      <c r="U43" s="29"/>
+      <c r="V43" s="29"/>
+      <c r="W43" s="29"/>
+      <c r="AA43" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="Y43" s="27">
-        <v>24</v>
-      </c>
-      <c r="Z43" s="27" t="s">
+      <c r="AB43" s="27">
+        <v>24</v>
+      </c>
+      <c r="AI43">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AJ43" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="AA43" s="32" t="s">
+      <c r="AK43" s="31" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A44" s="24" t="s">
         <v>207</v>
       </c>
@@ -7090,29 +7276,33 @@
       <c r="N44" s="25" t="s">
         <v>488</v>
       </c>
-      <c r="O44" s="30"/>
-      <c r="P44" s="30"/>
-      <c r="Q44" s="30"/>
-      <c r="R44" s="30"/>
-      <c r="S44" s="30"/>
-      <c r="T44" s="30"/>
-      <c r="U44" s="30"/>
-      <c r="V44" s="30"/>
-      <c r="W44" s="30"/>
-      <c r="X44" s="25" t="s">
+      <c r="O44" s="29"/>
+      <c r="P44" s="29"/>
+      <c r="Q44" s="29"/>
+      <c r="R44" s="29"/>
+      <c r="S44" s="29"/>
+      <c r="T44" s="29"/>
+      <c r="U44" s="29"/>
+      <c r="V44" s="29"/>
+      <c r="W44" s="29"/>
+      <c r="AA44" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="Y44" s="25">
-        <v>24</v>
-      </c>
-      <c r="Z44" s="25" t="s">
+      <c r="AB44" s="25">
+        <v>24</v>
+      </c>
+      <c r="AI44">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AJ44" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="AA44" s="31" t="s">
+      <c r="AK44" s="30" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A45" s="26" t="s">
         <v>200</v>
       </c>
@@ -7155,29 +7345,33 @@
       <c r="N45" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="O45" s="30"/>
-      <c r="P45" s="30"/>
-      <c r="Q45" s="30"/>
-      <c r="R45" s="30"/>
-      <c r="S45" s="30"/>
-      <c r="T45" s="30"/>
-      <c r="U45" s="30"/>
-      <c r="V45" s="30"/>
-      <c r="W45" s="30"/>
-      <c r="X45" s="27" t="s">
+      <c r="O45" s="29"/>
+      <c r="P45" s="29"/>
+      <c r="Q45" s="29"/>
+      <c r="R45" s="29"/>
+      <c r="S45" s="29"/>
+      <c r="T45" s="29"/>
+      <c r="U45" s="29"/>
+      <c r="V45" s="29"/>
+      <c r="W45" s="29"/>
+      <c r="AA45" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="Y45" s="27">
-        <v>24</v>
-      </c>
-      <c r="Z45" s="27" t="s">
+      <c r="AB45" s="27">
+        <v>24</v>
+      </c>
+      <c r="AI45">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AJ45" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="AA45" s="32" t="s">
+      <c r="AK45" s="31" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A46" s="24" t="s">
         <v>200</v>
       </c>
@@ -7220,29 +7414,33 @@
       <c r="N46" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="O46" s="30"/>
-      <c r="P46" s="30"/>
-      <c r="Q46" s="30"/>
-      <c r="R46" s="30"/>
-      <c r="S46" s="30"/>
-      <c r="T46" s="30"/>
-      <c r="U46" s="30"/>
-      <c r="V46" s="30"/>
-      <c r="W46" s="30"/>
-      <c r="X46" s="25" t="s">
+      <c r="O46" s="29"/>
+      <c r="P46" s="29"/>
+      <c r="Q46" s="29"/>
+      <c r="R46" s="29"/>
+      <c r="S46" s="29"/>
+      <c r="T46" s="29"/>
+      <c r="U46" s="29"/>
+      <c r="V46" s="29"/>
+      <c r="W46" s="29"/>
+      <c r="AA46" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="Y46" s="25">
-        <v>24</v>
-      </c>
-      <c r="Z46" s="25" t="s">
+      <c r="AB46" s="25">
+        <v>24</v>
+      </c>
+      <c r="AI46">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AJ46" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="AA46" s="31" t="s">
+      <c r="AK46" s="30" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A47" s="26" t="s">
         <v>200</v>
       </c>
@@ -7285,29 +7483,33 @@
       <c r="N47" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="O47" s="30"/>
-      <c r="P47" s="30"/>
-      <c r="Q47" s="30"/>
-      <c r="R47" s="30"/>
-      <c r="S47" s="30"/>
-      <c r="T47" s="30"/>
-      <c r="U47" s="30"/>
-      <c r="V47" s="30"/>
-      <c r="W47" s="30"/>
-      <c r="X47" s="27" t="s">
+      <c r="O47" s="29"/>
+      <c r="P47" s="29"/>
+      <c r="Q47" s="29"/>
+      <c r="R47" s="29"/>
+      <c r="S47" s="29"/>
+      <c r="T47" s="29"/>
+      <c r="U47" s="29"/>
+      <c r="V47" s="29"/>
+      <c r="W47" s="29"/>
+      <c r="AA47" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="Y47" s="27">
-        <v>24</v>
-      </c>
-      <c r="Z47" s="27" t="s">
+      <c r="AB47" s="27">
+        <v>24</v>
+      </c>
+      <c r="AI47">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AJ47" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="AA47" s="32" t="s">
+      <c r="AK47" s="31" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A48" s="24" t="s">
         <v>200</v>
       </c>
@@ -7350,29 +7552,33 @@
       <c r="N48" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="O48" s="30"/>
-      <c r="P48" s="30"/>
-      <c r="Q48" s="30"/>
-      <c r="R48" s="30"/>
-      <c r="S48" s="30"/>
-      <c r="T48" s="30"/>
-      <c r="U48" s="30"/>
-      <c r="V48" s="30"/>
-      <c r="W48" s="30"/>
-      <c r="X48" s="25" t="s">
+      <c r="O48" s="29"/>
+      <c r="P48" s="29"/>
+      <c r="Q48" s="29"/>
+      <c r="R48" s="29"/>
+      <c r="S48" s="29"/>
+      <c r="T48" s="29"/>
+      <c r="U48" s="29"/>
+      <c r="V48" s="29"/>
+      <c r="W48" s="29"/>
+      <c r="AA48" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="Y48" s="25">
-        <v>24</v>
-      </c>
-      <c r="Z48" s="25" t="s">
+      <c r="AB48" s="25">
+        <v>24</v>
+      </c>
+      <c r="AI48">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AJ48" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="AA48" s="31" t="s">
+      <c r="AK48" s="30" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A49" s="26" t="s">
         <v>200</v>
       </c>
@@ -7415,29 +7621,33 @@
       <c r="N49" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="O49" s="30"/>
-      <c r="P49" s="30"/>
-      <c r="Q49" s="30"/>
-      <c r="R49" s="30"/>
-      <c r="S49" s="30"/>
-      <c r="T49" s="30"/>
-      <c r="U49" s="30"/>
-      <c r="V49" s="30"/>
-      <c r="W49" s="30"/>
-      <c r="X49" s="27" t="s">
+      <c r="O49" s="29"/>
+      <c r="P49" s="29"/>
+      <c r="Q49" s="29"/>
+      <c r="R49" s="29"/>
+      <c r="S49" s="29"/>
+      <c r="T49" s="29"/>
+      <c r="U49" s="29"/>
+      <c r="V49" s="29"/>
+      <c r="W49" s="29"/>
+      <c r="AA49" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="Y49" s="27">
-        <v>24</v>
-      </c>
-      <c r="Z49" s="27" t="s">
+      <c r="AB49" s="27">
+        <v>24</v>
+      </c>
+      <c r="AI49">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AJ49" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="AA49" s="32" t="s">
+      <c r="AK49" s="31" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A50" s="24" t="s">
         <v>200</v>
       </c>
@@ -7480,29 +7690,33 @@
       <c r="N50" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="O50" s="30"/>
-      <c r="P50" s="30"/>
-      <c r="Q50" s="30"/>
-      <c r="R50" s="30"/>
-      <c r="S50" s="30"/>
-      <c r="T50" s="30"/>
-      <c r="U50" s="30"/>
-      <c r="V50" s="30"/>
-      <c r="W50" s="30"/>
-      <c r="X50" s="25" t="s">
+      <c r="O50" s="29"/>
+      <c r="P50" s="29"/>
+      <c r="Q50" s="29"/>
+      <c r="R50" s="29"/>
+      <c r="S50" s="29"/>
+      <c r="T50" s="29"/>
+      <c r="U50" s="29"/>
+      <c r="V50" s="29"/>
+      <c r="W50" s="29"/>
+      <c r="AA50" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="Y50" s="25">
-        <v>24</v>
-      </c>
-      <c r="Z50" s="25" t="s">
+      <c r="AB50" s="25">
+        <v>24</v>
+      </c>
+      <c r="AI50">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AJ50" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="AA50" s="31" t="s">
+      <c r="AK50" s="30" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A51" s="26" t="s">
         <v>200</v>
       </c>
@@ -7545,29 +7759,33 @@
       <c r="N51" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="O51" s="30"/>
-      <c r="P51" s="30"/>
-      <c r="Q51" s="30"/>
-      <c r="R51" s="30"/>
-      <c r="S51" s="30"/>
-      <c r="T51" s="30"/>
-      <c r="U51" s="30"/>
-      <c r="V51" s="30"/>
-      <c r="W51" s="30"/>
-      <c r="X51" s="27" t="s">
+      <c r="O51" s="29"/>
+      <c r="P51" s="29"/>
+      <c r="Q51" s="29"/>
+      <c r="R51" s="29"/>
+      <c r="S51" s="29"/>
+      <c r="T51" s="29"/>
+      <c r="U51" s="29"/>
+      <c r="V51" s="29"/>
+      <c r="W51" s="29"/>
+      <c r="AA51" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="Y51" s="27">
-        <v>24</v>
-      </c>
-      <c r="Z51" s="27" t="s">
+      <c r="AB51" s="27">
+        <v>24</v>
+      </c>
+      <c r="AI51">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AJ51" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="AA51" s="32" t="s">
+      <c r="AK51" s="31" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A52" s="24" t="s">
         <v>200</v>
       </c>
@@ -7610,29 +7828,33 @@
       <c r="N52" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="O52" s="30"/>
-      <c r="P52" s="30"/>
-      <c r="Q52" s="30"/>
-      <c r="R52" s="30"/>
-      <c r="S52" s="30"/>
-      <c r="T52" s="30"/>
-      <c r="U52" s="30"/>
-      <c r="V52" s="30"/>
-      <c r="W52" s="30"/>
-      <c r="X52" s="25" t="s">
+      <c r="O52" s="29"/>
+      <c r="P52" s="29"/>
+      <c r="Q52" s="29"/>
+      <c r="R52" s="29"/>
+      <c r="S52" s="29"/>
+      <c r="T52" s="29"/>
+      <c r="U52" s="29"/>
+      <c r="V52" s="29"/>
+      <c r="W52" s="29"/>
+      <c r="AA52" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="Y52" s="25">
-        <v>24</v>
-      </c>
-      <c r="Z52" s="25" t="s">
+      <c r="AB52" s="25">
+        <v>24</v>
+      </c>
+      <c r="AI52">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AJ52" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="AA52" s="31" t="s">
+      <c r="AK52" s="30" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A53" s="26" t="s">
         <v>200</v>
       </c>
@@ -7675,29 +7897,33 @@
       <c r="N53" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="O53" s="30"/>
-      <c r="P53" s="30"/>
-      <c r="Q53" s="30"/>
-      <c r="R53" s="30"/>
-      <c r="S53" s="30"/>
-      <c r="T53" s="30"/>
-      <c r="U53" s="30"/>
-      <c r="V53" s="30"/>
-      <c r="W53" s="30"/>
-      <c r="X53" s="27" t="s">
+      <c r="O53" s="29"/>
+      <c r="P53" s="29"/>
+      <c r="Q53" s="29"/>
+      <c r="R53" s="29"/>
+      <c r="S53" s="29"/>
+      <c r="T53" s="29"/>
+      <c r="U53" s="29"/>
+      <c r="V53" s="29"/>
+      <c r="W53" s="29"/>
+      <c r="AA53" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="Y53" s="27">
-        <v>24</v>
-      </c>
-      <c r="Z53" s="27" t="s">
+      <c r="AB53" s="27">
+        <v>24</v>
+      </c>
+      <c r="AI53">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AJ53" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="AA53" s="32" t="s">
+      <c r="AK53" s="31" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A54" s="24" t="s">
         <v>207</v>
       </c>
@@ -7740,29 +7966,33 @@
       <c r="N54" s="25" t="s">
         <v>488</v>
       </c>
-      <c r="O54" s="30"/>
-      <c r="P54" s="30"/>
-      <c r="Q54" s="30"/>
-      <c r="R54" s="30"/>
-      <c r="S54" s="30"/>
-      <c r="T54" s="30"/>
-      <c r="U54" s="30"/>
-      <c r="V54" s="30"/>
-      <c r="W54" s="30"/>
-      <c r="X54" s="25" t="s">
+      <c r="O54" s="29"/>
+      <c r="P54" s="29"/>
+      <c r="Q54" s="29"/>
+      <c r="R54" s="29"/>
+      <c r="S54" s="29"/>
+      <c r="T54" s="29"/>
+      <c r="U54" s="29"/>
+      <c r="V54" s="29"/>
+      <c r="W54" s="29"/>
+      <c r="AA54" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="Y54" s="25">
-        <v>24</v>
-      </c>
-      <c r="Z54" s="25" t="s">
+      <c r="AB54" s="25">
+        <v>24</v>
+      </c>
+      <c r="AI54">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AJ54" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="AA54" s="31" t="s">
+      <c r="AK54" s="30" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A55" s="26" t="s">
         <v>207</v>
       </c>
@@ -7805,29 +8035,33 @@
       <c r="N55" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="O55" s="30"/>
-      <c r="P55" s="30"/>
-      <c r="Q55" s="30"/>
-      <c r="R55" s="30"/>
-      <c r="S55" s="30"/>
-      <c r="T55" s="30"/>
-      <c r="U55" s="30"/>
-      <c r="V55" s="30"/>
-      <c r="W55" s="30"/>
-      <c r="X55" s="27" t="s">
+      <c r="O55" s="29"/>
+      <c r="P55" s="29"/>
+      <c r="Q55" s="29"/>
+      <c r="R55" s="29"/>
+      <c r="S55" s="29"/>
+      <c r="T55" s="29"/>
+      <c r="U55" s="29"/>
+      <c r="V55" s="29"/>
+      <c r="W55" s="29"/>
+      <c r="AA55" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="Y55" s="27">
-        <v>24</v>
-      </c>
-      <c r="Z55" s="27" t="s">
+      <c r="AB55" s="27">
+        <v>24</v>
+      </c>
+      <c r="AI55">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AJ55" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="AA55" s="32" t="s">
+      <c r="AK55" s="31" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A56" s="24" t="s">
         <v>207</v>
       </c>
@@ -7879,26 +8113,30 @@
       <c r="Q56" s="25" t="s">
         <v>496</v>
       </c>
-      <c r="R56" s="30"/>
-      <c r="S56" s="30"/>
-      <c r="T56" s="30"/>
-      <c r="U56" s="30"/>
-      <c r="V56" s="30"/>
-      <c r="W56" s="30"/>
-      <c r="X56" s="25" t="s">
+      <c r="R56" s="29"/>
+      <c r="S56" s="29"/>
+      <c r="T56" s="29"/>
+      <c r="U56" s="29"/>
+      <c r="V56" s="29"/>
+      <c r="W56" s="29"/>
+      <c r="AA56" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="Y56" s="25">
-        <v>24</v>
-      </c>
-      <c r="Z56" s="25" t="s">
+      <c r="AB56" s="25">
+        <v>24</v>
+      </c>
+      <c r="AI56">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AJ56" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="AA56" s="31" t="s">
+      <c r="AK56" s="30" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A57" s="26" t="s">
         <v>207</v>
       </c>
@@ -7941,29 +8179,33 @@
       <c r="N57" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="O57" s="30"/>
-      <c r="P57" s="30"/>
-      <c r="Q57" s="30"/>
-      <c r="R57" s="30"/>
-      <c r="S57" s="30"/>
-      <c r="T57" s="30"/>
-      <c r="U57" s="30"/>
-      <c r="V57" s="30"/>
-      <c r="W57" s="30"/>
-      <c r="X57" s="27" t="s">
+      <c r="O57" s="29"/>
+      <c r="P57" s="29"/>
+      <c r="Q57" s="29"/>
+      <c r="R57" s="29"/>
+      <c r="S57" s="29"/>
+      <c r="T57" s="29"/>
+      <c r="U57" s="29"/>
+      <c r="V57" s="29"/>
+      <c r="W57" s="29"/>
+      <c r="AA57" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="Y57" s="27">
-        <v>24</v>
-      </c>
-      <c r="Z57" s="27" t="s">
+      <c r="AB57" s="27">
+        <v>24</v>
+      </c>
+      <c r="AI57">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AJ57" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="AA57" s="32" t="s">
+      <c r="AK57" s="31" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A58" s="24" t="s">
         <v>207</v>
       </c>
@@ -8006,29 +8248,33 @@
       <c r="N58" s="25" t="s">
         <v>488</v>
       </c>
-      <c r="O58" s="30"/>
-      <c r="P58" s="30"/>
-      <c r="Q58" s="30"/>
-      <c r="R58" s="30"/>
-      <c r="S58" s="30"/>
-      <c r="T58" s="30"/>
-      <c r="U58" s="30"/>
-      <c r="V58" s="30"/>
-      <c r="W58" s="30"/>
-      <c r="X58" s="25" t="s">
+      <c r="O58" s="29"/>
+      <c r="P58" s="29"/>
+      <c r="Q58" s="29"/>
+      <c r="R58" s="29"/>
+      <c r="S58" s="29"/>
+      <c r="T58" s="29"/>
+      <c r="U58" s="29"/>
+      <c r="V58" s="29"/>
+      <c r="W58" s="29"/>
+      <c r="AA58" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="Y58" s="25">
-        <v>24</v>
-      </c>
-      <c r="Z58" s="25" t="s">
+      <c r="AB58" s="25">
+        <v>24</v>
+      </c>
+      <c r="AI58">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AJ58" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="AA58" s="31" t="s">
+      <c r="AK58" s="30" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A59" s="26" t="s">
         <v>207</v>
       </c>
@@ -8071,29 +8317,33 @@
       <c r="N59" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="O59" s="30"/>
-      <c r="P59" s="30"/>
-      <c r="Q59" s="30"/>
-      <c r="R59" s="30"/>
-      <c r="S59" s="30"/>
-      <c r="T59" s="30"/>
-      <c r="U59" s="30"/>
-      <c r="V59" s="30"/>
-      <c r="W59" s="30"/>
-      <c r="X59" s="27" t="s">
+      <c r="O59" s="29"/>
+      <c r="P59" s="29"/>
+      <c r="Q59" s="29"/>
+      <c r="R59" s="29"/>
+      <c r="S59" s="29"/>
+      <c r="T59" s="29"/>
+      <c r="U59" s="29"/>
+      <c r="V59" s="29"/>
+      <c r="W59" s="29"/>
+      <c r="AA59" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="Y59" s="27">
-        <v>24</v>
-      </c>
-      <c r="Z59" s="27" t="s">
+      <c r="AB59" s="27">
+        <v>24</v>
+      </c>
+      <c r="AI59">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AJ59" s="27" t="s">
         <v>503</v>
       </c>
-      <c r="AA59" s="32" t="s">
+      <c r="AK59" s="31" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A60" s="24" t="s">
         <v>207</v>
       </c>
@@ -8136,29 +8386,33 @@
       <c r="N60" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="O60" s="30"/>
-      <c r="P60" s="30"/>
-      <c r="Q60" s="30"/>
-      <c r="R60" s="30"/>
-      <c r="S60" s="30"/>
-      <c r="T60" s="30"/>
-      <c r="U60" s="30"/>
-      <c r="V60" s="30"/>
-      <c r="W60" s="30"/>
-      <c r="X60" s="25" t="s">
+      <c r="O60" s="29"/>
+      <c r="P60" s="29"/>
+      <c r="Q60" s="29"/>
+      <c r="R60" s="29"/>
+      <c r="S60" s="29"/>
+      <c r="T60" s="29"/>
+      <c r="U60" s="29"/>
+      <c r="V60" s="29"/>
+      <c r="W60" s="29"/>
+      <c r="AA60" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="Y60" s="25">
-        <v>24</v>
-      </c>
-      <c r="Z60" s="25" t="s">
+      <c r="AB60" s="25">
+        <v>24</v>
+      </c>
+      <c r="AI60">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AJ60" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="AA60" s="31" t="s">
+      <c r="AK60" s="30" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A61" s="26" t="s">
         <v>207</v>
       </c>
@@ -8201,29 +8455,33 @@
       <c r="N61" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="O61" s="30"/>
-      <c r="P61" s="30"/>
-      <c r="Q61" s="30"/>
-      <c r="R61" s="30"/>
-      <c r="S61" s="30"/>
-      <c r="T61" s="30"/>
-      <c r="U61" s="30"/>
-      <c r="V61" s="30"/>
-      <c r="W61" s="30"/>
-      <c r="X61" s="27" t="s">
+      <c r="O61" s="29"/>
+      <c r="P61" s="29"/>
+      <c r="Q61" s="29"/>
+      <c r="R61" s="29"/>
+      <c r="S61" s="29"/>
+      <c r="T61" s="29"/>
+      <c r="U61" s="29"/>
+      <c r="V61" s="29"/>
+      <c r="W61" s="29"/>
+      <c r="AA61" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="Y61" s="27">
-        <v>24</v>
-      </c>
-      <c r="Z61" s="27" t="s">
+      <c r="AB61" s="27">
+        <v>24</v>
+      </c>
+      <c r="AI61">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AJ61" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="AA61" s="32" t="s">
+      <c r="AK61" s="31" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A62" s="24" t="s">
         <v>207</v>
       </c>
@@ -8266,29 +8524,33 @@
       <c r="N62" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="O62" s="30"/>
-      <c r="P62" s="30"/>
-      <c r="Q62" s="30"/>
-      <c r="R62" s="30"/>
-      <c r="S62" s="30"/>
-      <c r="T62" s="30"/>
-      <c r="U62" s="30"/>
-      <c r="V62" s="30"/>
-      <c r="W62" s="30"/>
-      <c r="X62" s="25" t="s">
+      <c r="O62" s="29"/>
+      <c r="P62" s="29"/>
+      <c r="Q62" s="29"/>
+      <c r="R62" s="29"/>
+      <c r="S62" s="29"/>
+      <c r="T62" s="29"/>
+      <c r="U62" s="29"/>
+      <c r="V62" s="29"/>
+      <c r="W62" s="29"/>
+      <c r="AA62" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="Y62" s="25">
-        <v>24</v>
-      </c>
-      <c r="Z62" s="25" t="s">
+      <c r="AB62" s="25">
+        <v>24</v>
+      </c>
+      <c r="AI62">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AJ62" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="AA62" s="31" t="s">
+      <c r="AK62" s="30" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A63" s="26" t="s">
         <v>207</v>
       </c>
@@ -8331,29 +8593,33 @@
       <c r="N63" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="O63" s="30"/>
-      <c r="P63" s="30"/>
-      <c r="Q63" s="30"/>
-      <c r="R63" s="30"/>
-      <c r="S63" s="30"/>
-      <c r="T63" s="30"/>
-      <c r="U63" s="30"/>
-      <c r="V63" s="30"/>
-      <c r="W63" s="30"/>
-      <c r="X63" s="27" t="s">
+      <c r="O63" s="29"/>
+      <c r="P63" s="29"/>
+      <c r="Q63" s="29"/>
+      <c r="R63" s="29"/>
+      <c r="S63" s="29"/>
+      <c r="T63" s="29"/>
+      <c r="U63" s="29"/>
+      <c r="V63" s="29"/>
+      <c r="W63" s="29"/>
+      <c r="AA63" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="Y63" s="27">
-        <v>24</v>
-      </c>
-      <c r="Z63" s="27" t="s">
+      <c r="AB63" s="27">
+        <v>24</v>
+      </c>
+      <c r="AI63">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AJ63" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="AA63" s="32" t="s">
+      <c r="AK63" s="31" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A64" s="24" t="s">
         <v>207</v>
       </c>
@@ -8396,29 +8662,33 @@
       <c r="N64" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="O64" s="30"/>
-      <c r="P64" s="30"/>
-      <c r="Q64" s="30"/>
-      <c r="R64" s="30"/>
-      <c r="S64" s="30"/>
-      <c r="T64" s="30"/>
-      <c r="U64" s="30"/>
-      <c r="V64" s="30"/>
-      <c r="W64" s="30"/>
-      <c r="X64" s="25" t="s">
+      <c r="O64" s="29"/>
+      <c r="P64" s="29"/>
+      <c r="Q64" s="29"/>
+      <c r="R64" s="29"/>
+      <c r="S64" s="29"/>
+      <c r="T64" s="29"/>
+      <c r="U64" s="29"/>
+      <c r="V64" s="29"/>
+      <c r="W64" s="29"/>
+      <c r="AA64" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="Y64" s="25">
-        <v>24</v>
-      </c>
-      <c r="Z64" s="25" t="s">
+      <c r="AB64" s="25">
+        <v>24</v>
+      </c>
+      <c r="AI64">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AJ64" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="AA64" s="31" t="s">
+      <c r="AK64" s="30" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A65" s="26" t="s">
         <v>207</v>
       </c>
@@ -8461,29 +8731,33 @@
       <c r="N65" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="O65" s="30"/>
-      <c r="P65" s="30"/>
-      <c r="Q65" s="30"/>
-      <c r="R65" s="30"/>
-      <c r="S65" s="30"/>
-      <c r="T65" s="30"/>
-      <c r="U65" s="30"/>
-      <c r="V65" s="30"/>
-      <c r="W65" s="30"/>
-      <c r="X65" s="27" t="s">
+      <c r="O65" s="29"/>
+      <c r="P65" s="29"/>
+      <c r="Q65" s="29"/>
+      <c r="R65" s="29"/>
+      <c r="S65" s="29"/>
+      <c r="T65" s="29"/>
+      <c r="U65" s="29"/>
+      <c r="V65" s="29"/>
+      <c r="W65" s="29"/>
+      <c r="AA65" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="Y65" s="27">
-        <v>24</v>
-      </c>
-      <c r="Z65" s="27" t="s">
+      <c r="AB65" s="27">
+        <v>24</v>
+      </c>
+      <c r="AI65">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AJ65" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="AA65" s="32" t="s">
+      <c r="AK65" s="31" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A66" s="24" t="s">
         <v>207</v>
       </c>
@@ -8526,29 +8800,33 @@
       <c r="N66" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="O66" s="30"/>
-      <c r="P66" s="30"/>
-      <c r="Q66" s="30"/>
-      <c r="R66" s="30"/>
-      <c r="S66" s="30"/>
-      <c r="T66" s="30"/>
-      <c r="U66" s="30"/>
-      <c r="V66" s="30"/>
-      <c r="W66" s="30"/>
-      <c r="X66" s="25" t="s">
+      <c r="O66" s="29"/>
+      <c r="P66" s="29"/>
+      <c r="Q66" s="29"/>
+      <c r="R66" s="29"/>
+      <c r="S66" s="29"/>
+      <c r="T66" s="29"/>
+      <c r="U66" s="29"/>
+      <c r="V66" s="29"/>
+      <c r="W66" s="29"/>
+      <c r="AA66" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="Y66" s="25">
-        <v>24</v>
-      </c>
-      <c r="Z66" s="25" t="s">
+      <c r="AB66" s="25">
+        <v>24</v>
+      </c>
+      <c r="AI66">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AJ66" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="AA66" s="31" t="s">
+      <c r="AK66" s="30" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A67" s="26" t="s">
         <v>207</v>
       </c>
@@ -8591,29 +8869,33 @@
       <c r="N67" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="O67" s="30"/>
-      <c r="P67" s="30"/>
-      <c r="Q67" s="30"/>
-      <c r="R67" s="30"/>
-      <c r="S67" s="30"/>
-      <c r="T67" s="30"/>
-      <c r="U67" s="30"/>
-      <c r="V67" s="30"/>
-      <c r="W67" s="30"/>
-      <c r="X67" s="27" t="s">
+      <c r="O67" s="29"/>
+      <c r="P67" s="29"/>
+      <c r="Q67" s="29"/>
+      <c r="R67" s="29"/>
+      <c r="S67" s="29"/>
+      <c r="T67" s="29"/>
+      <c r="U67" s="29"/>
+      <c r="V67" s="29"/>
+      <c r="W67" s="29"/>
+      <c r="AA67" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="Y67" s="27">
-        <v>24</v>
-      </c>
-      <c r="Z67" s="27" t="s">
+      <c r="AB67" s="27">
+        <v>24</v>
+      </c>
+      <c r="AI67">
+        <f t="shared" ref="AI67:AI111" si="1">SUM(AB67,AD67,AF67,AH67)</f>
+        <v>24</v>
+      </c>
+      <c r="AJ67" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="AA67" s="32" t="s">
+      <c r="AK67" s="31" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A68" s="24" t="s">
         <v>207</v>
       </c>
@@ -8656,29 +8938,33 @@
       <c r="N68" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="O68" s="30"/>
-      <c r="P68" s="30"/>
-      <c r="Q68" s="30"/>
-      <c r="R68" s="30"/>
-      <c r="S68" s="30"/>
-      <c r="T68" s="30"/>
-      <c r="U68" s="30"/>
-      <c r="V68" s="30"/>
-      <c r="W68" s="30"/>
-      <c r="X68" s="25" t="s">
+      <c r="O68" s="29"/>
+      <c r="P68" s="29"/>
+      <c r="Q68" s="29"/>
+      <c r="R68" s="29"/>
+      <c r="S68" s="29"/>
+      <c r="T68" s="29"/>
+      <c r="U68" s="29"/>
+      <c r="V68" s="29"/>
+      <c r="W68" s="29"/>
+      <c r="AA68" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="Y68" s="25">
-        <v>24</v>
-      </c>
-      <c r="Z68" s="25" t="s">
+      <c r="AB68" s="25">
+        <v>24</v>
+      </c>
+      <c r="AI68">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="AJ68" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="AA68" s="31" t="s">
+      <c r="AK68" s="30" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A69" s="26" t="s">
         <v>207</v>
       </c>
@@ -8721,29 +9007,33 @@
       <c r="N69" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="O69" s="30"/>
-      <c r="P69" s="30"/>
-      <c r="Q69" s="30"/>
-      <c r="R69" s="30"/>
-      <c r="S69" s="30"/>
-      <c r="T69" s="30"/>
-      <c r="U69" s="30"/>
-      <c r="V69" s="30"/>
-      <c r="W69" s="30"/>
-      <c r="X69" s="27" t="s">
+      <c r="O69" s="29"/>
+      <c r="P69" s="29"/>
+      <c r="Q69" s="29"/>
+      <c r="R69" s="29"/>
+      <c r="S69" s="29"/>
+      <c r="T69" s="29"/>
+      <c r="U69" s="29"/>
+      <c r="V69" s="29"/>
+      <c r="W69" s="29"/>
+      <c r="AA69" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="Y69" s="27">
-        <v>24</v>
-      </c>
-      <c r="Z69" s="27" t="s">
+      <c r="AB69" s="27">
+        <v>24</v>
+      </c>
+      <c r="AI69">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="AJ69" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="AA69" s="32" t="s">
+      <c r="AK69" s="31" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A70" s="24" t="s">
         <v>207</v>
       </c>
@@ -8786,29 +9076,33 @@
       <c r="N70" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="O70" s="30"/>
-      <c r="P70" s="30"/>
-      <c r="Q70" s="30"/>
-      <c r="R70" s="30"/>
-      <c r="S70" s="30"/>
-      <c r="T70" s="30"/>
-      <c r="U70" s="30"/>
-      <c r="V70" s="30"/>
-      <c r="W70" s="30"/>
-      <c r="X70" s="25" t="s">
+      <c r="O70" s="29"/>
+      <c r="P70" s="29"/>
+      <c r="Q70" s="29"/>
+      <c r="R70" s="29"/>
+      <c r="S70" s="29"/>
+      <c r="T70" s="29"/>
+      <c r="U70" s="29"/>
+      <c r="V70" s="29"/>
+      <c r="W70" s="29"/>
+      <c r="AA70" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="Y70" s="25">
-        <v>24</v>
-      </c>
-      <c r="Z70" s="25" t="s">
+      <c r="AB70" s="25">
+        <v>24</v>
+      </c>
+      <c r="AI70">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="AJ70" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="AA70" s="31" t="s">
+      <c r="AK70" s="30" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A71" s="26" t="s">
         <v>207</v>
       </c>
@@ -8851,29 +9145,33 @@
       <c r="N71" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="O71" s="30"/>
-      <c r="P71" s="30"/>
-      <c r="Q71" s="30"/>
-      <c r="R71" s="30"/>
-      <c r="S71" s="30"/>
-      <c r="T71" s="30"/>
-      <c r="U71" s="30"/>
-      <c r="V71" s="30"/>
-      <c r="W71" s="30"/>
-      <c r="X71" s="27" t="s">
+      <c r="O71" s="29"/>
+      <c r="P71" s="29"/>
+      <c r="Q71" s="29"/>
+      <c r="R71" s="29"/>
+      <c r="S71" s="29"/>
+      <c r="T71" s="29"/>
+      <c r="U71" s="29"/>
+      <c r="V71" s="29"/>
+      <c r="W71" s="29"/>
+      <c r="AA71" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="Y71" s="27">
-        <v>24</v>
-      </c>
-      <c r="Z71" s="27" t="s">
+      <c r="AB71" s="27">
+        <v>24</v>
+      </c>
+      <c r="AI71">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="AJ71" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="AA71" s="32" t="s">
+      <c r="AK71" s="31" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A72" s="24" t="s">
         <v>207</v>
       </c>
@@ -8916,29 +9214,33 @@
       <c r="N72" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="O72" s="30"/>
-      <c r="P72" s="30"/>
-      <c r="Q72" s="30"/>
-      <c r="R72" s="30"/>
-      <c r="S72" s="30"/>
-      <c r="T72" s="30"/>
-      <c r="U72" s="30"/>
-      <c r="V72" s="30"/>
-      <c r="W72" s="30"/>
-      <c r="X72" s="25" t="s">
+      <c r="O72" s="29"/>
+      <c r="P72" s="29"/>
+      <c r="Q72" s="29"/>
+      <c r="R72" s="29"/>
+      <c r="S72" s="29"/>
+      <c r="T72" s="29"/>
+      <c r="U72" s="29"/>
+      <c r="V72" s="29"/>
+      <c r="W72" s="29"/>
+      <c r="AA72" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="Y72" s="25">
-        <v>24</v>
-      </c>
-      <c r="Z72" s="25" t="s">
+      <c r="AB72" s="25">
+        <v>24</v>
+      </c>
+      <c r="AI72">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="AJ72" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="AA72" s="31" t="s">
+      <c r="AK72" s="30" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A73" s="26" t="s">
         <v>207</v>
       </c>
@@ -8981,29 +9283,33 @@
       <c r="N73" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="O73" s="30"/>
-      <c r="P73" s="30"/>
-      <c r="Q73" s="30"/>
-      <c r="R73" s="30"/>
-      <c r="S73" s="30"/>
-      <c r="T73" s="30"/>
-      <c r="U73" s="30"/>
-      <c r="V73" s="30"/>
-      <c r="W73" s="30"/>
-      <c r="X73" s="27" t="s">
+      <c r="O73" s="29"/>
+      <c r="P73" s="29"/>
+      <c r="Q73" s="29"/>
+      <c r="R73" s="29"/>
+      <c r="S73" s="29"/>
+      <c r="T73" s="29"/>
+      <c r="U73" s="29"/>
+      <c r="V73" s="29"/>
+      <c r="W73" s="29"/>
+      <c r="AA73" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="Y73" s="27">
-        <v>24</v>
-      </c>
-      <c r="Z73" s="27" t="s">
+      <c r="AB73" s="27">
+        <v>24</v>
+      </c>
+      <c r="AI73">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="AJ73" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="AA73" s="32" t="s">
+      <c r="AK73" s="31" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A74" s="24" t="s">
         <v>207</v>
       </c>
@@ -9046,29 +9352,33 @@
       <c r="N74" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="O74" s="30"/>
-      <c r="P74" s="30"/>
-      <c r="Q74" s="30"/>
-      <c r="R74" s="30"/>
-      <c r="S74" s="30"/>
-      <c r="T74" s="30"/>
-      <c r="U74" s="30"/>
-      <c r="V74" s="30"/>
-      <c r="W74" s="30"/>
-      <c r="X74" s="25" t="s">
+      <c r="O74" s="29"/>
+      <c r="P74" s="29"/>
+      <c r="Q74" s="29"/>
+      <c r="R74" s="29"/>
+      <c r="S74" s="29"/>
+      <c r="T74" s="29"/>
+      <c r="U74" s="29"/>
+      <c r="V74" s="29"/>
+      <c r="W74" s="29"/>
+      <c r="AA74" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="Y74" s="25">
-        <v>24</v>
-      </c>
-      <c r="Z74" s="25" t="s">
+      <c r="AB74" s="25">
+        <v>24</v>
+      </c>
+      <c r="AI74">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="AJ74" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="AA74" s="31" t="s">
+      <c r="AK74" s="30" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A75" s="26" t="s">
         <v>207</v>
       </c>
@@ -9111,29 +9421,33 @@
       <c r="N75" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="O75" s="30"/>
-      <c r="P75" s="30"/>
-      <c r="Q75" s="30"/>
-      <c r="R75" s="30"/>
-      <c r="S75" s="30"/>
-      <c r="T75" s="30"/>
-      <c r="U75" s="30"/>
-      <c r="V75" s="30"/>
-      <c r="W75" s="30"/>
-      <c r="X75" s="27" t="s">
+      <c r="O75" s="29"/>
+      <c r="P75" s="29"/>
+      <c r="Q75" s="29"/>
+      <c r="R75" s="29"/>
+      <c r="S75" s="29"/>
+      <c r="T75" s="29"/>
+      <c r="U75" s="29"/>
+      <c r="V75" s="29"/>
+      <c r="W75" s="29"/>
+      <c r="AA75" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="Y75" s="27">
-        <v>24</v>
-      </c>
-      <c r="Z75" s="27" t="s">
+      <c r="AB75" s="27">
+        <v>24</v>
+      </c>
+      <c r="AI75">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="AJ75" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="AA75" s="32" t="s">
+      <c r="AK75" s="31" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A76" s="24" t="s">
         <v>207</v>
       </c>
@@ -9176,29 +9490,33 @@
       <c r="N76" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="O76" s="30"/>
-      <c r="P76" s="30"/>
-      <c r="Q76" s="30"/>
-      <c r="R76" s="30"/>
-      <c r="S76" s="30"/>
-      <c r="T76" s="30"/>
-      <c r="U76" s="30"/>
-      <c r="V76" s="30"/>
-      <c r="W76" s="30"/>
-      <c r="X76" s="25" t="s">
+      <c r="O76" s="29"/>
+      <c r="P76" s="29"/>
+      <c r="Q76" s="29"/>
+      <c r="R76" s="29"/>
+      <c r="S76" s="29"/>
+      <c r="T76" s="29"/>
+      <c r="U76" s="29"/>
+      <c r="V76" s="29"/>
+      <c r="W76" s="29"/>
+      <c r="AA76" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="Y76" s="25">
-        <v>24</v>
-      </c>
-      <c r="Z76" s="25" t="s">
+      <c r="AB76" s="25">
+        <v>24</v>
+      </c>
+      <c r="AI76">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="AJ76" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="AA76" s="31" t="s">
+      <c r="AK76" s="30" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A77" s="26" t="s">
         <v>207</v>
       </c>
@@ -9241,29 +9559,33 @@
       <c r="N77" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="O77" s="30"/>
-      <c r="P77" s="30"/>
-      <c r="Q77" s="30"/>
-      <c r="R77" s="30"/>
-      <c r="S77" s="30"/>
-      <c r="T77" s="30"/>
-      <c r="U77" s="30"/>
-      <c r="V77" s="30"/>
-      <c r="W77" s="30"/>
-      <c r="X77" s="27" t="s">
+      <c r="O77" s="29"/>
+      <c r="P77" s="29"/>
+      <c r="Q77" s="29"/>
+      <c r="R77" s="29"/>
+      <c r="S77" s="29"/>
+      <c r="T77" s="29"/>
+      <c r="U77" s="29"/>
+      <c r="V77" s="29"/>
+      <c r="W77" s="29"/>
+      <c r="AA77" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="Y77" s="27">
-        <v>24</v>
-      </c>
-      <c r="Z77" s="27" t="s">
+      <c r="AB77" s="27">
+        <v>24</v>
+      </c>
+      <c r="AI77">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="AJ77" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="AA77" s="32" t="s">
+      <c r="AK77" s="31" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A78" s="24" t="s">
         <v>207</v>
       </c>
@@ -9306,29 +9628,33 @@
       <c r="N78" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="O78" s="30"/>
-      <c r="P78" s="30"/>
-      <c r="Q78" s="30"/>
-      <c r="R78" s="30"/>
-      <c r="S78" s="30"/>
-      <c r="T78" s="30"/>
-      <c r="U78" s="30"/>
-      <c r="V78" s="30"/>
-      <c r="W78" s="30"/>
-      <c r="X78" s="25" t="s">
+      <c r="O78" s="29"/>
+      <c r="P78" s="29"/>
+      <c r="Q78" s="29"/>
+      <c r="R78" s="29"/>
+      <c r="S78" s="29"/>
+      <c r="T78" s="29"/>
+      <c r="U78" s="29"/>
+      <c r="V78" s="29"/>
+      <c r="W78" s="29"/>
+      <c r="AA78" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="Y78" s="25">
-        <v>24</v>
-      </c>
-      <c r="Z78" s="25" t="s">
+      <c r="AB78" s="25">
+        <v>24</v>
+      </c>
+      <c r="AI78">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="AJ78" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="AA78" s="31" t="s">
+      <c r="AK78" s="30" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A79" s="26" t="s">
         <v>207</v>
       </c>
@@ -9371,29 +9697,33 @@
       <c r="N79" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="O79" s="30"/>
-      <c r="P79" s="30"/>
-      <c r="Q79" s="30"/>
-      <c r="R79" s="30"/>
-      <c r="S79" s="30"/>
-      <c r="T79" s="30"/>
-      <c r="U79" s="30"/>
-      <c r="V79" s="30"/>
-      <c r="W79" s="30"/>
-      <c r="X79" s="27" t="s">
+      <c r="O79" s="29"/>
+      <c r="P79" s="29"/>
+      <c r="Q79" s="29"/>
+      <c r="R79" s="29"/>
+      <c r="S79" s="29"/>
+      <c r="T79" s="29"/>
+      <c r="U79" s="29"/>
+      <c r="V79" s="29"/>
+      <c r="W79" s="29"/>
+      <c r="AA79" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="Y79" s="27">
-        <v>24</v>
-      </c>
-      <c r="Z79" s="27" t="s">
+      <c r="AB79" s="27">
+        <v>24</v>
+      </c>
+      <c r="AI79">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="AJ79" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="AA79" s="32" t="s">
+      <c r="AK79" s="31" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A80" s="24" t="s">
         <v>200</v>
       </c>
@@ -9436,29 +9766,33 @@
       <c r="N80" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="O80" s="30"/>
-      <c r="P80" s="30"/>
-      <c r="Q80" s="30"/>
-      <c r="R80" s="30"/>
-      <c r="S80" s="30"/>
-      <c r="T80" s="30"/>
-      <c r="U80" s="30"/>
-      <c r="V80" s="30"/>
-      <c r="W80" s="30"/>
-      <c r="X80" s="25" t="s">
+      <c r="O80" s="29"/>
+      <c r="P80" s="29"/>
+      <c r="Q80" s="29"/>
+      <c r="R80" s="29"/>
+      <c r="S80" s="29"/>
+      <c r="T80" s="29"/>
+      <c r="U80" s="29"/>
+      <c r="V80" s="29"/>
+      <c r="W80" s="29"/>
+      <c r="AA80" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="Y80" s="25">
-        <v>24</v>
-      </c>
-      <c r="Z80" s="25" t="s">
+      <c r="AB80" s="25">
+        <v>24</v>
+      </c>
+      <c r="AI80">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="AJ80" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="AA80" s="31" t="s">
+      <c r="AK80" s="30" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A81" s="26" t="s">
         <v>207</v>
       </c>
@@ -9501,29 +9835,33 @@
       <c r="N81" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="O81" s="30"/>
-      <c r="P81" s="30"/>
-      <c r="Q81" s="30"/>
-      <c r="R81" s="30"/>
-      <c r="S81" s="30"/>
-      <c r="T81" s="30"/>
-      <c r="U81" s="30"/>
-      <c r="V81" s="30"/>
-      <c r="W81" s="30"/>
-      <c r="X81" s="27" t="s">
+      <c r="O81" s="29"/>
+      <c r="P81" s="29"/>
+      <c r="Q81" s="29"/>
+      <c r="R81" s="29"/>
+      <c r="S81" s="29"/>
+      <c r="T81" s="29"/>
+      <c r="U81" s="29"/>
+      <c r="V81" s="29"/>
+      <c r="W81" s="29"/>
+      <c r="AA81" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="Y81" s="27">
-        <v>24</v>
-      </c>
-      <c r="Z81" s="27" t="s">
+      <c r="AB81" s="27">
+        <v>24</v>
+      </c>
+      <c r="AI81">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="AJ81" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="AA81" s="32" t="s">
+      <c r="AK81" s="31" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A82" s="24" t="s">
         <v>207</v>
       </c>
@@ -9566,29 +9904,33 @@
       <c r="N82" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="O82" s="30"/>
-      <c r="P82" s="30"/>
-      <c r="Q82" s="30"/>
-      <c r="R82" s="30"/>
-      <c r="S82" s="30"/>
-      <c r="T82" s="30"/>
-      <c r="U82" s="30"/>
-      <c r="V82" s="30"/>
-      <c r="W82" s="30"/>
-      <c r="X82" s="25" t="s">
+      <c r="O82" s="29"/>
+      <c r="P82" s="29"/>
+      <c r="Q82" s="29"/>
+      <c r="R82" s="29"/>
+      <c r="S82" s="29"/>
+      <c r="T82" s="29"/>
+      <c r="U82" s="29"/>
+      <c r="V82" s="29"/>
+      <c r="W82" s="29"/>
+      <c r="AA82" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="Y82" s="25">
-        <v>24</v>
-      </c>
-      <c r="Z82" s="25" t="s">
+      <c r="AB82" s="25">
+        <v>24</v>
+      </c>
+      <c r="AI82">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="AJ82" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="AA82" s="31" t="s">
+      <c r="AK82" s="30" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A83" s="26" t="s">
         <v>207</v>
       </c>
@@ -9631,29 +9973,33 @@
       <c r="N83" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="O83" s="30"/>
-      <c r="P83" s="30"/>
-      <c r="Q83" s="30"/>
-      <c r="R83" s="30"/>
-      <c r="S83" s="30"/>
-      <c r="T83" s="30"/>
-      <c r="U83" s="30"/>
-      <c r="V83" s="30"/>
-      <c r="W83" s="30"/>
-      <c r="X83" s="27" t="s">
+      <c r="O83" s="29"/>
+      <c r="P83" s="29"/>
+      <c r="Q83" s="29"/>
+      <c r="R83" s="29"/>
+      <c r="S83" s="29"/>
+      <c r="T83" s="29"/>
+      <c r="U83" s="29"/>
+      <c r="V83" s="29"/>
+      <c r="W83" s="29"/>
+      <c r="AA83" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="Y83" s="27">
-        <v>24</v>
-      </c>
-      <c r="Z83" s="27" t="s">
+      <c r="AB83" s="27">
+        <v>24</v>
+      </c>
+      <c r="AI83">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="AJ83" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="AA83" s="32" t="s">
+      <c r="AK83" s="31" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A84" s="24" t="s">
         <v>207</v>
       </c>
@@ -9696,29 +10042,33 @@
       <c r="N84" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="O84" s="30"/>
-      <c r="P84" s="30"/>
-      <c r="Q84" s="30"/>
-      <c r="R84" s="30"/>
-      <c r="S84" s="30"/>
-      <c r="T84" s="30"/>
-      <c r="U84" s="30"/>
-      <c r="V84" s="30"/>
-      <c r="W84" s="30"/>
-      <c r="X84" s="25" t="s">
+      <c r="O84" s="29"/>
+      <c r="P84" s="29"/>
+      <c r="Q84" s="29"/>
+      <c r="R84" s="29"/>
+      <c r="S84" s="29"/>
+      <c r="T84" s="29"/>
+      <c r="U84" s="29"/>
+      <c r="V84" s="29"/>
+      <c r="W84" s="29"/>
+      <c r="AA84" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="Y84" s="25">
-        <v>24</v>
-      </c>
-      <c r="Z84" s="25" t="s">
+      <c r="AB84" s="25">
+        <v>24</v>
+      </c>
+      <c r="AI84">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="AJ84" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="AA84" s="31" t="s">
+      <c r="AK84" s="30" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A85" s="26" t="s">
         <v>200</v>
       </c>
@@ -9761,29 +10111,33 @@
       <c r="N85" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="O85" s="30"/>
-      <c r="P85" s="30"/>
-      <c r="Q85" s="30"/>
-      <c r="R85" s="30"/>
-      <c r="S85" s="30"/>
-      <c r="T85" s="30"/>
-      <c r="U85" s="30"/>
-      <c r="V85" s="30"/>
-      <c r="W85" s="30"/>
-      <c r="X85" s="27" t="s">
+      <c r="O85" s="29"/>
+      <c r="P85" s="29"/>
+      <c r="Q85" s="29"/>
+      <c r="R85" s="29"/>
+      <c r="S85" s="29"/>
+      <c r="T85" s="29"/>
+      <c r="U85" s="29"/>
+      <c r="V85" s="29"/>
+      <c r="W85" s="29"/>
+      <c r="AA85" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="Y85" s="27">
-        <v>24</v>
-      </c>
-      <c r="Z85" s="27" t="s">
+      <c r="AB85" s="27">
+        <v>24</v>
+      </c>
+      <c r="AI85">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="AJ85" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="AA85" s="32" t="s">
+      <c r="AK85" s="31" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A86" s="24" t="s">
         <v>207</v>
       </c>
@@ -9826,29 +10180,33 @@
       <c r="N86" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="O86" s="30"/>
-      <c r="P86" s="30"/>
-      <c r="Q86" s="30"/>
-      <c r="R86" s="30"/>
-      <c r="S86" s="30"/>
-      <c r="T86" s="30"/>
-      <c r="U86" s="30"/>
-      <c r="V86" s="30"/>
-      <c r="W86" s="30"/>
-      <c r="X86" s="25" t="s">
+      <c r="O86" s="29"/>
+      <c r="P86" s="29"/>
+      <c r="Q86" s="29"/>
+      <c r="R86" s="29"/>
+      <c r="S86" s="29"/>
+      <c r="T86" s="29"/>
+      <c r="U86" s="29"/>
+      <c r="V86" s="29"/>
+      <c r="W86" s="29"/>
+      <c r="AA86" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="Y86" s="25">
-        <v>24</v>
-      </c>
-      <c r="Z86" s="25" t="s">
+      <c r="AB86" s="25">
+        <v>24</v>
+      </c>
+      <c r="AI86">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="AJ86" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="AA86" s="31" t="s">
+      <c r="AK86" s="30" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A87" s="26" t="s">
         <v>200</v>
       </c>
@@ -9891,29 +10249,33 @@
       <c r="N87" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="O87" s="30"/>
-      <c r="P87" s="30"/>
-      <c r="Q87" s="30"/>
-      <c r="R87" s="30"/>
-      <c r="S87" s="30"/>
-      <c r="T87" s="30"/>
-      <c r="U87" s="30"/>
-      <c r="V87" s="30"/>
-      <c r="W87" s="30"/>
-      <c r="X87" s="27" t="s">
+      <c r="O87" s="29"/>
+      <c r="P87" s="29"/>
+      <c r="Q87" s="29"/>
+      <c r="R87" s="29"/>
+      <c r="S87" s="29"/>
+      <c r="T87" s="29"/>
+      <c r="U87" s="29"/>
+      <c r="V87" s="29"/>
+      <c r="W87" s="29"/>
+      <c r="AA87" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="Y87" s="27">
-        <v>24</v>
-      </c>
-      <c r="Z87" s="27" t="s">
+      <c r="AB87" s="27">
+        <v>24</v>
+      </c>
+      <c r="AI87">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="AJ87" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="AA87" s="32" t="s">
+      <c r="AK87" s="31" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A88" s="24" t="s">
         <v>200</v>
       </c>
@@ -9956,29 +10318,33 @@
       <c r="N88" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="O88" s="30"/>
-      <c r="P88" s="30"/>
-      <c r="Q88" s="30"/>
-      <c r="R88" s="30"/>
-      <c r="S88" s="30"/>
-      <c r="T88" s="30"/>
-      <c r="U88" s="30"/>
-      <c r="V88" s="30"/>
-      <c r="W88" s="30"/>
-      <c r="X88" s="25" t="s">
+      <c r="O88" s="29"/>
+      <c r="P88" s="29"/>
+      <c r="Q88" s="29"/>
+      <c r="R88" s="29"/>
+      <c r="S88" s="29"/>
+      <c r="T88" s="29"/>
+      <c r="U88" s="29"/>
+      <c r="V88" s="29"/>
+      <c r="W88" s="29"/>
+      <c r="AA88" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="Y88" s="25">
-        <v>24</v>
-      </c>
-      <c r="Z88" s="25" t="s">
+      <c r="AB88" s="25">
+        <v>24</v>
+      </c>
+      <c r="AI88">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="AJ88" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="AA88" s="31" t="s">
+      <c r="AK88" s="30" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A89" s="26" t="s">
         <v>200</v>
       </c>
@@ -10021,29 +10387,33 @@
       <c r="N89" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="O89" s="30"/>
-      <c r="P89" s="30"/>
-      <c r="Q89" s="30"/>
-      <c r="R89" s="30"/>
-      <c r="S89" s="30"/>
-      <c r="T89" s="30"/>
-      <c r="U89" s="30"/>
-      <c r="V89" s="30"/>
-      <c r="W89" s="30"/>
-      <c r="X89" s="27" t="s">
+      <c r="O89" s="29"/>
+      <c r="P89" s="29"/>
+      <c r="Q89" s="29"/>
+      <c r="R89" s="29"/>
+      <c r="S89" s="29"/>
+      <c r="T89" s="29"/>
+      <c r="U89" s="29"/>
+      <c r="V89" s="29"/>
+      <c r="W89" s="29"/>
+      <c r="AA89" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="Y89" s="27">
-        <v>24</v>
-      </c>
-      <c r="Z89" s="27" t="s">
+      <c r="AB89" s="27">
+        <v>24</v>
+      </c>
+      <c r="AI89">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="AJ89" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="AA89" s="32" t="s">
+      <c r="AK89" s="31" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A90" s="24" t="s">
         <v>207</v>
       </c>
@@ -10086,29 +10456,33 @@
       <c r="N90" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="O90" s="30"/>
-      <c r="P90" s="30"/>
-      <c r="Q90" s="30"/>
-      <c r="R90" s="30"/>
-      <c r="S90" s="30"/>
-      <c r="T90" s="30"/>
-      <c r="U90" s="30"/>
-      <c r="V90" s="30"/>
-      <c r="W90" s="30"/>
-      <c r="X90" s="25" t="s">
+      <c r="O90" s="29"/>
+      <c r="P90" s="29"/>
+      <c r="Q90" s="29"/>
+      <c r="R90" s="29"/>
+      <c r="S90" s="29"/>
+      <c r="T90" s="29"/>
+      <c r="U90" s="29"/>
+      <c r="V90" s="29"/>
+      <c r="W90" s="29"/>
+      <c r="AA90" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="Y90" s="25">
-        <v>24</v>
-      </c>
-      <c r="Z90" s="25" t="s">
+      <c r="AB90" s="25">
+        <v>24</v>
+      </c>
+      <c r="AI90">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="AJ90" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="AA90" s="31" t="s">
+      <c r="AK90" s="30" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A91" s="26" t="s">
         <v>207</v>
       </c>
@@ -10151,29 +10525,33 @@
       <c r="N91" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="O91" s="30"/>
-      <c r="P91" s="30"/>
-      <c r="Q91" s="30"/>
-      <c r="R91" s="30"/>
-      <c r="S91" s="30"/>
-      <c r="T91" s="30"/>
-      <c r="U91" s="30"/>
-      <c r="V91" s="30"/>
-      <c r="W91" s="30"/>
-      <c r="X91" s="27" t="s">
+      <c r="O91" s="29"/>
+      <c r="P91" s="29"/>
+      <c r="Q91" s="29"/>
+      <c r="R91" s="29"/>
+      <c r="S91" s="29"/>
+      <c r="T91" s="29"/>
+      <c r="U91" s="29"/>
+      <c r="V91" s="29"/>
+      <c r="W91" s="29"/>
+      <c r="AA91" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="Y91" s="27">
-        <v>24</v>
-      </c>
-      <c r="Z91" s="27" t="s">
+      <c r="AB91" s="27">
+        <v>24</v>
+      </c>
+      <c r="AI91">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="AJ91" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="AA91" s="32" t="s">
+      <c r="AK91" s="31" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A92" s="24" t="s">
         <v>207</v>
       </c>
@@ -10216,29 +10594,33 @@
       <c r="N92" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="O92" s="30"/>
-      <c r="P92" s="30"/>
-      <c r="Q92" s="30"/>
-      <c r="R92" s="30"/>
-      <c r="S92" s="30"/>
-      <c r="T92" s="30"/>
-      <c r="U92" s="30"/>
-      <c r="V92" s="30"/>
-      <c r="W92" s="30"/>
-      <c r="X92" s="25" t="s">
+      <c r="O92" s="29"/>
+      <c r="P92" s="29"/>
+      <c r="Q92" s="29"/>
+      <c r="R92" s="29"/>
+      <c r="S92" s="29"/>
+      <c r="T92" s="29"/>
+      <c r="U92" s="29"/>
+      <c r="V92" s="29"/>
+      <c r="W92" s="29"/>
+      <c r="AA92" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="Y92" s="25">
-        <v>24</v>
-      </c>
-      <c r="Z92" s="25" t="s">
+      <c r="AB92" s="25">
+        <v>24</v>
+      </c>
+      <c r="AI92">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="AJ92" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="AA92" s="31" t="s">
+      <c r="AK92" s="30" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A93" s="26" t="s">
         <v>207</v>
       </c>
@@ -10281,29 +10663,33 @@
       <c r="N93" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="O93" s="30"/>
-      <c r="P93" s="30"/>
-      <c r="Q93" s="30"/>
-      <c r="R93" s="30"/>
-      <c r="S93" s="30"/>
-      <c r="T93" s="30"/>
-      <c r="U93" s="30"/>
-      <c r="V93" s="30"/>
-      <c r="W93" s="30"/>
-      <c r="X93" s="27" t="s">
+      <c r="O93" s="29"/>
+      <c r="P93" s="29"/>
+      <c r="Q93" s="29"/>
+      <c r="R93" s="29"/>
+      <c r="S93" s="29"/>
+      <c r="T93" s="29"/>
+      <c r="U93" s="29"/>
+      <c r="V93" s="29"/>
+      <c r="W93" s="29"/>
+      <c r="AA93" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="Y93" s="27">
-        <v>24</v>
-      </c>
-      <c r="Z93" s="27" t="s">
+      <c r="AB93" s="27">
+        <v>24</v>
+      </c>
+      <c r="AI93">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="AJ93" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="AA93" s="32" t="s">
+      <c r="AK93" s="31" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A94" s="24" t="s">
         <v>200</v>
       </c>
@@ -10346,29 +10732,33 @@
       <c r="N94" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="O94" s="30"/>
-      <c r="P94" s="30"/>
-      <c r="Q94" s="30"/>
-      <c r="R94" s="30"/>
-      <c r="S94" s="30"/>
-      <c r="T94" s="30"/>
-      <c r="U94" s="30"/>
-      <c r="V94" s="30"/>
-      <c r="W94" s="30"/>
-      <c r="X94" s="25" t="s">
+      <c r="O94" s="29"/>
+      <c r="P94" s="29"/>
+      <c r="Q94" s="29"/>
+      <c r="R94" s="29"/>
+      <c r="S94" s="29"/>
+      <c r="T94" s="29"/>
+      <c r="U94" s="29"/>
+      <c r="V94" s="29"/>
+      <c r="W94" s="29"/>
+      <c r="AA94" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="Y94" s="25">
-        <v>24</v>
-      </c>
-      <c r="Z94" s="25" t="s">
+      <c r="AB94" s="25">
+        <v>24</v>
+      </c>
+      <c r="AI94">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="AJ94" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="AA94" s="31" t="s">
+      <c r="AK94" s="30" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A95" s="26" t="s">
         <v>207</v>
       </c>
@@ -10411,29 +10801,33 @@
       <c r="N95" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="O95" s="30"/>
-      <c r="P95" s="30"/>
-      <c r="Q95" s="30"/>
-      <c r="R95" s="30"/>
-      <c r="S95" s="30"/>
-      <c r="T95" s="30"/>
-      <c r="U95" s="30"/>
-      <c r="V95" s="30"/>
-      <c r="W95" s="30"/>
-      <c r="X95" s="27" t="s">
+      <c r="O95" s="29"/>
+      <c r="P95" s="29"/>
+      <c r="Q95" s="29"/>
+      <c r="R95" s="29"/>
+      <c r="S95" s="29"/>
+      <c r="T95" s="29"/>
+      <c r="U95" s="29"/>
+      <c r="V95" s="29"/>
+      <c r="W95" s="29"/>
+      <c r="AA95" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="Y95" s="27">
+      <c r="AB95" s="27">
         <v>72</v>
       </c>
-      <c r="Z95" s="27" t="s">
+      <c r="AI95">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="AJ95" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="AA95" s="32" t="s">
+      <c r="AK95" s="31" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="96" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A96" s="24" t="s">
         <v>207</v>
       </c>
@@ -10476,29 +10870,33 @@
       <c r="N96" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="O96" s="30"/>
-      <c r="P96" s="30"/>
-      <c r="Q96" s="30"/>
-      <c r="R96" s="30"/>
-      <c r="S96" s="30"/>
-      <c r="T96" s="30"/>
-      <c r="U96" s="30"/>
-      <c r="V96" s="30"/>
-      <c r="W96" s="30"/>
-      <c r="X96" s="25" t="s">
+      <c r="O96" s="29"/>
+      <c r="P96" s="29"/>
+      <c r="Q96" s="29"/>
+      <c r="R96" s="29"/>
+      <c r="S96" s="29"/>
+      <c r="T96" s="29"/>
+      <c r="U96" s="29"/>
+      <c r="V96" s="29"/>
+      <c r="W96" s="29"/>
+      <c r="AA96" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="Y96" s="25">
-        <v>24</v>
-      </c>
-      <c r="Z96" s="25" t="s">
+      <c r="AB96" s="25">
+        <v>24</v>
+      </c>
+      <c r="AI96">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="AJ96" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="AA96" s="31" t="s">
+      <c r="AK96" s="30" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="97" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A97" s="26" t="s">
         <v>200</v>
       </c>
@@ -10541,29 +10939,33 @@
       <c r="N97" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="O97" s="30"/>
-      <c r="P97" s="30"/>
-      <c r="Q97" s="30"/>
-      <c r="R97" s="30"/>
-      <c r="S97" s="30"/>
-      <c r="T97" s="30"/>
-      <c r="U97" s="30"/>
-      <c r="V97" s="30"/>
-      <c r="W97" s="30"/>
-      <c r="X97" s="27" t="s">
+      <c r="O97" s="29"/>
+      <c r="P97" s="29"/>
+      <c r="Q97" s="29"/>
+      <c r="R97" s="29"/>
+      <c r="S97" s="29"/>
+      <c r="T97" s="29"/>
+      <c r="U97" s="29"/>
+      <c r="V97" s="29"/>
+      <c r="W97" s="29"/>
+      <c r="AA97" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="Y97" s="27">
-        <v>24</v>
-      </c>
-      <c r="Z97" s="27" t="s">
+      <c r="AB97" s="27">
+        <v>24</v>
+      </c>
+      <c r="AI97">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="AJ97" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="AA97" s="32" t="s">
+      <c r="AK97" s="31" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="98" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A98" s="24" t="s">
         <v>207</v>
       </c>
@@ -10606,29 +11008,33 @@
       <c r="N98" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="O98" s="30"/>
-      <c r="P98" s="30"/>
-      <c r="Q98" s="30"/>
-      <c r="R98" s="30"/>
-      <c r="S98" s="30"/>
-      <c r="T98" s="30"/>
-      <c r="U98" s="30"/>
-      <c r="V98" s="30"/>
-      <c r="W98" s="30"/>
-      <c r="X98" s="25" t="s">
+      <c r="O98" s="29"/>
+      <c r="P98" s="29"/>
+      <c r="Q98" s="29"/>
+      <c r="R98" s="29"/>
+      <c r="S98" s="29"/>
+      <c r="T98" s="29"/>
+      <c r="U98" s="29"/>
+      <c r="V98" s="29"/>
+      <c r="W98" s="29"/>
+      <c r="AA98" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="Y98" s="25">
-        <v>24</v>
-      </c>
-      <c r="Z98" s="25" t="s">
+      <c r="AB98" s="25">
+        <v>24</v>
+      </c>
+      <c r="AI98">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="AJ98" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="AA98" s="31" t="s">
+      <c r="AK98" s="30" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="99" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A99" s="26" t="s">
         <v>200</v>
       </c>
@@ -10671,29 +11077,33 @@
       <c r="N99" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="O99" s="30"/>
-      <c r="P99" s="30"/>
-      <c r="Q99" s="30"/>
-      <c r="R99" s="30"/>
-      <c r="S99" s="30"/>
-      <c r="T99" s="30"/>
-      <c r="U99" s="30"/>
-      <c r="V99" s="30"/>
-      <c r="W99" s="30"/>
-      <c r="X99" s="27" t="s">
+      <c r="O99" s="29"/>
+      <c r="P99" s="29"/>
+      <c r="Q99" s="29"/>
+      <c r="R99" s="29"/>
+      <c r="S99" s="29"/>
+      <c r="T99" s="29"/>
+      <c r="U99" s="29"/>
+      <c r="V99" s="29"/>
+      <c r="W99" s="29"/>
+      <c r="AA99" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="Y99" s="27">
-        <v>24</v>
-      </c>
-      <c r="Z99" s="27" t="s">
+      <c r="AB99" s="27">
+        <v>24</v>
+      </c>
+      <c r="AI99">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="AJ99" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="AA99" s="32" t="s">
+      <c r="AK99" s="31" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="100" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A100" s="24" t="s">
         <v>207</v>
       </c>
@@ -10736,29 +11146,33 @@
       <c r="N100" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="O100" s="30"/>
-      <c r="P100" s="30"/>
-      <c r="Q100" s="30"/>
-      <c r="R100" s="30"/>
-      <c r="S100" s="30"/>
-      <c r="T100" s="30"/>
-      <c r="U100" s="30"/>
-      <c r="V100" s="30"/>
-      <c r="W100" s="30"/>
-      <c r="X100" s="25" t="s">
+      <c r="O100" s="29"/>
+      <c r="P100" s="29"/>
+      <c r="Q100" s="29"/>
+      <c r="R100" s="29"/>
+      <c r="S100" s="29"/>
+      <c r="T100" s="29"/>
+      <c r="U100" s="29"/>
+      <c r="V100" s="29"/>
+      <c r="W100" s="29"/>
+      <c r="AA100" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="Y100" s="25">
-        <v>24</v>
-      </c>
-      <c r="Z100" s="25" t="s">
+      <c r="AB100" s="25">
+        <v>24</v>
+      </c>
+      <c r="AI100">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="AJ100" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="AA100" s="31" t="s">
+      <c r="AK100" s="30" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="101" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A101" s="26" t="s">
         <v>207</v>
       </c>
@@ -10801,29 +11215,33 @@
       <c r="N101" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="O101" s="30"/>
-      <c r="P101" s="30"/>
-      <c r="Q101" s="30"/>
-      <c r="R101" s="30"/>
-      <c r="S101" s="30"/>
-      <c r="T101" s="30"/>
-      <c r="U101" s="30"/>
-      <c r="V101" s="30"/>
-      <c r="W101" s="30"/>
-      <c r="X101" s="27" t="s">
+      <c r="O101" s="29"/>
+      <c r="P101" s="29"/>
+      <c r="Q101" s="29"/>
+      <c r="R101" s="29"/>
+      <c r="S101" s="29"/>
+      <c r="T101" s="29"/>
+      <c r="U101" s="29"/>
+      <c r="V101" s="29"/>
+      <c r="W101" s="29"/>
+      <c r="AA101" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="Y101" s="27">
-        <v>24</v>
-      </c>
-      <c r="Z101" s="27" t="s">
+      <c r="AB101" s="27">
+        <v>24</v>
+      </c>
+      <c r="AI101">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="AJ101" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="AA101" s="32" t="s">
+      <c r="AK101" s="31" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="102" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A102" s="24" t="s">
         <v>207</v>
       </c>
@@ -10866,29 +11284,33 @@
       <c r="N102" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="O102" s="30"/>
-      <c r="P102" s="30"/>
-      <c r="Q102" s="30"/>
-      <c r="R102" s="30"/>
-      <c r="S102" s="30"/>
-      <c r="T102" s="30"/>
-      <c r="U102" s="30"/>
-      <c r="V102" s="30"/>
-      <c r="W102" s="30"/>
-      <c r="X102" s="25" t="s">
+      <c r="O102" s="29"/>
+      <c r="P102" s="29"/>
+      <c r="Q102" s="29"/>
+      <c r="R102" s="29"/>
+      <c r="S102" s="29"/>
+      <c r="T102" s="29"/>
+      <c r="U102" s="29"/>
+      <c r="V102" s="29"/>
+      <c r="W102" s="29"/>
+      <c r="AA102" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="Y102" s="25">
-        <v>24</v>
-      </c>
-      <c r="Z102" s="25" t="s">
+      <c r="AB102" s="25">
+        <v>24</v>
+      </c>
+      <c r="AI102">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="AJ102" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="AA102" s="31" t="s">
+      <c r="AK102" s="30" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="103" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A103" s="26" t="s">
         <v>207</v>
       </c>
@@ -10931,29 +11353,33 @@
       <c r="N103" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="O103" s="30"/>
-      <c r="P103" s="30"/>
-      <c r="Q103" s="30"/>
-      <c r="R103" s="30"/>
-      <c r="S103" s="30"/>
-      <c r="T103" s="30"/>
-      <c r="U103" s="30"/>
-      <c r="V103" s="30"/>
-      <c r="W103" s="30"/>
-      <c r="X103" s="27" t="s">
+      <c r="O103" s="29"/>
+      <c r="P103" s="29"/>
+      <c r="Q103" s="29"/>
+      <c r="R103" s="29"/>
+      <c r="S103" s="29"/>
+      <c r="T103" s="29"/>
+      <c r="U103" s="29"/>
+      <c r="V103" s="29"/>
+      <c r="W103" s="29"/>
+      <c r="AA103" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="Y103" s="27">
-        <v>24</v>
-      </c>
-      <c r="Z103" s="27" t="s">
+      <c r="AB103" s="27">
+        <v>24</v>
+      </c>
+      <c r="AI103">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="AJ103" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="AA103" s="32" t="s">
+      <c r="AK103" s="31" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="104" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A104" s="24" t="s">
         <v>207</v>
       </c>
@@ -10996,29 +11422,33 @@
       <c r="N104" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="O104" s="30"/>
-      <c r="P104" s="30"/>
-      <c r="Q104" s="30"/>
-      <c r="R104" s="30"/>
-      <c r="S104" s="30"/>
-      <c r="T104" s="30"/>
-      <c r="U104" s="30"/>
-      <c r="V104" s="30"/>
-      <c r="W104" s="30"/>
-      <c r="X104" s="25" t="s">
+      <c r="O104" s="29"/>
+      <c r="P104" s="29"/>
+      <c r="Q104" s="29"/>
+      <c r="R104" s="29"/>
+      <c r="S104" s="29"/>
+      <c r="T104" s="29"/>
+      <c r="U104" s="29"/>
+      <c r="V104" s="29"/>
+      <c r="W104" s="29"/>
+      <c r="AA104" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="Y104" s="25">
-        <v>24</v>
-      </c>
-      <c r="Z104" s="25" t="s">
+      <c r="AB104" s="25">
+        <v>24</v>
+      </c>
+      <c r="AI104">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="AJ104" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="AA104" s="31" t="s">
+      <c r="AK104" s="30" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="105" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A105" s="26" t="s">
         <v>207</v>
       </c>
@@ -11061,29 +11491,33 @@
       <c r="N105" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="O105" s="30"/>
-      <c r="P105" s="30"/>
-      <c r="Q105" s="30"/>
-      <c r="R105" s="30"/>
-      <c r="S105" s="30"/>
-      <c r="T105" s="30"/>
-      <c r="U105" s="30"/>
-      <c r="V105" s="30"/>
-      <c r="W105" s="30"/>
-      <c r="X105" s="27" t="s">
+      <c r="O105" s="29"/>
+      <c r="P105" s="29"/>
+      <c r="Q105" s="29"/>
+      <c r="R105" s="29"/>
+      <c r="S105" s="29"/>
+      <c r="T105" s="29"/>
+      <c r="U105" s="29"/>
+      <c r="V105" s="29"/>
+      <c r="W105" s="29"/>
+      <c r="AA105" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="Y105" s="27">
-        <v>24</v>
-      </c>
-      <c r="Z105" s="27" t="s">
+      <c r="AB105" s="27">
+        <v>24</v>
+      </c>
+      <c r="AI105">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="AJ105" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="AA105" s="32" t="s">
+      <c r="AK105" s="31" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="106" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A106" s="24" t="s">
         <v>207</v>
       </c>
@@ -11126,29 +11560,33 @@
       <c r="N106" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="O106" s="30"/>
-      <c r="P106" s="30"/>
-      <c r="Q106" s="30"/>
-      <c r="R106" s="30"/>
-      <c r="S106" s="30"/>
-      <c r="T106" s="30"/>
-      <c r="U106" s="30"/>
-      <c r="V106" s="30"/>
-      <c r="W106" s="30"/>
-      <c r="X106" s="25" t="s">
+      <c r="O106" s="29"/>
+      <c r="P106" s="29"/>
+      <c r="Q106" s="29"/>
+      <c r="R106" s="29"/>
+      <c r="S106" s="29"/>
+      <c r="T106" s="29"/>
+      <c r="U106" s="29"/>
+      <c r="V106" s="29"/>
+      <c r="W106" s="29"/>
+      <c r="AA106" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="Y106" s="25">
-        <v>24</v>
-      </c>
-      <c r="Z106" s="25" t="s">
+      <c r="AB106" s="25">
+        <v>24</v>
+      </c>
+      <c r="AI106">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="AJ106" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="AA106" s="31" t="s">
+      <c r="AK106" s="30" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="107" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A107" s="26" t="s">
         <v>207</v>
       </c>
@@ -11191,29 +11629,33 @@
       <c r="N107" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="O107" s="30"/>
-      <c r="P107" s="30"/>
-      <c r="Q107" s="30"/>
-      <c r="R107" s="30"/>
-      <c r="S107" s="30"/>
-      <c r="T107" s="30"/>
-      <c r="U107" s="30"/>
-      <c r="V107" s="30"/>
-      <c r="W107" s="30"/>
-      <c r="X107" s="27" t="s">
+      <c r="O107" s="29"/>
+      <c r="P107" s="29"/>
+      <c r="Q107" s="29"/>
+      <c r="R107" s="29"/>
+      <c r="S107" s="29"/>
+      <c r="T107" s="29"/>
+      <c r="U107" s="29"/>
+      <c r="V107" s="29"/>
+      <c r="W107" s="29"/>
+      <c r="AA107" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="Y107" s="27">
-        <v>24</v>
-      </c>
-      <c r="Z107" s="27" t="s">
+      <c r="AB107" s="27">
+        <v>24</v>
+      </c>
+      <c r="AI107">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="AJ107" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="AA107" s="32" t="s">
+      <c r="AK107" s="31" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="108" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A108" s="24" t="s">
         <v>207</v>
       </c>
@@ -11256,29 +11698,33 @@
       <c r="N108" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="O108" s="30"/>
-      <c r="P108" s="30"/>
-      <c r="Q108" s="30"/>
-      <c r="R108" s="30"/>
-      <c r="S108" s="30"/>
-      <c r="T108" s="30"/>
-      <c r="U108" s="30"/>
-      <c r="V108" s="30"/>
-      <c r="W108" s="30"/>
-      <c r="X108" s="25" t="s">
+      <c r="O108" s="29"/>
+      <c r="P108" s="29"/>
+      <c r="Q108" s="29"/>
+      <c r="R108" s="29"/>
+      <c r="S108" s="29"/>
+      <c r="T108" s="29"/>
+      <c r="U108" s="29"/>
+      <c r="V108" s="29"/>
+      <c r="W108" s="29"/>
+      <c r="AA108" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="Y108" s="25">
-        <v>24</v>
-      </c>
-      <c r="Z108" s="25" t="s">
+      <c r="AB108" s="25">
+        <v>24</v>
+      </c>
+      <c r="AI108">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="AJ108" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="AA108" s="31" t="s">
+      <c r="AK108" s="30" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="109" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A109" s="26" t="s">
         <v>207</v>
       </c>
@@ -11321,29 +11767,33 @@
       <c r="N109" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="O109" s="30"/>
-      <c r="P109" s="30"/>
-      <c r="Q109" s="30"/>
-      <c r="R109" s="30"/>
-      <c r="S109" s="30"/>
-      <c r="T109" s="30"/>
-      <c r="U109" s="30"/>
-      <c r="V109" s="30"/>
-      <c r="W109" s="30"/>
-      <c r="X109" s="27" t="s">
+      <c r="O109" s="29"/>
+      <c r="P109" s="29"/>
+      <c r="Q109" s="29"/>
+      <c r="R109" s="29"/>
+      <c r="S109" s="29"/>
+      <c r="T109" s="29"/>
+      <c r="U109" s="29"/>
+      <c r="V109" s="29"/>
+      <c r="W109" s="29"/>
+      <c r="AA109" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="Y109" s="27">
-        <v>24</v>
-      </c>
-      <c r="Z109" s="27" t="s">
+      <c r="AB109" s="27">
+        <v>24</v>
+      </c>
+      <c r="AI109">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="AJ109" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="AA109" s="32" t="s">
+      <c r="AK109" s="31" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="110" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A110" s="24" t="s">
         <v>207</v>
       </c>
@@ -11386,29 +11836,33 @@
       <c r="N110" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="O110" s="30"/>
-      <c r="P110" s="30"/>
-      <c r="Q110" s="30"/>
-      <c r="R110" s="30"/>
-      <c r="S110" s="30"/>
-      <c r="T110" s="30"/>
-      <c r="U110" s="30"/>
-      <c r="V110" s="30"/>
-      <c r="W110" s="30"/>
-      <c r="X110" s="25" t="s">
+      <c r="O110" s="29"/>
+      <c r="P110" s="29"/>
+      <c r="Q110" s="29"/>
+      <c r="R110" s="29"/>
+      <c r="S110" s="29"/>
+      <c r="T110" s="29"/>
+      <c r="U110" s="29"/>
+      <c r="V110" s="29"/>
+      <c r="W110" s="29"/>
+      <c r="AA110" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="Y110" s="25">
-        <v>24</v>
-      </c>
-      <c r="Z110" s="25" t="s">
+      <c r="AB110" s="25">
+        <v>24</v>
+      </c>
+      <c r="AI110">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="AJ110" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="AA110" s="31" t="s">
+      <c r="AK110" s="30" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="111" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A111" s="26" t="s">
         <v>207</v>
       </c>
@@ -11451,25 +11905,29 @@
       <c r="N111" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="O111" s="30"/>
-      <c r="P111" s="30"/>
-      <c r="Q111" s="30"/>
-      <c r="R111" s="30"/>
-      <c r="S111" s="30"/>
-      <c r="T111" s="30"/>
-      <c r="U111" s="30"/>
-      <c r="V111" s="30"/>
-      <c r="W111" s="30"/>
-      <c r="X111" s="27" t="s">
+      <c r="O111" s="29"/>
+      <c r="P111" s="29"/>
+      <c r="Q111" s="29"/>
+      <c r="R111" s="29"/>
+      <c r="S111" s="29"/>
+      <c r="T111" s="29"/>
+      <c r="U111" s="29"/>
+      <c r="V111" s="29"/>
+      <c r="W111" s="29"/>
+      <c r="AA111" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="Y111" s="27">
-        <v>24</v>
-      </c>
-      <c r="Z111" s="27" t="s">
+      <c r="AB111" s="27">
+        <v>24</v>
+      </c>
+      <c r="AI111">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="AJ111" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="AA111" s="32" t="s">
+      <c r="AK111" s="31" t="s">
         <v>502</v>
       </c>
     </row>

--- a/Excels/MG.xlsx
+++ b/Excels/MG.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2820" uniqueCount="931">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2861" uniqueCount="938">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -2663,12 +2663,6 @@
     <t>REQ820</t>
   </si>
   <si>
-    <t>040920000009</t>
-  </si>
-  <si>
-    <t>040920000010</t>
-  </si>
-  <si>
     <t>Issue Field 7 - Label</t>
   </si>
   <si>
@@ -2835,6 +2829,33 @@
   </si>
   <si>
     <t>SIM Broken</t>
+  </si>
+  <si>
+    <t>Ticket Field 1 - Label</t>
+  </si>
+  <si>
+    <t>Ticket 1 Type</t>
+  </si>
+  <si>
+    <t>Ticket Field 2 - Label</t>
+  </si>
+  <si>
+    <t>Ticket Field 3 - Label</t>
+  </si>
+  <si>
+    <t>Ticket Field 4 - Label</t>
+  </si>
+  <si>
+    <t>Ticket Field 5 - Label</t>
+  </si>
+  <si>
+    <t>Ticket Field 6 - Label</t>
+  </si>
+  <si>
+    <t>Ticket Field 7 - Label</t>
+  </si>
+  <si>
+    <t>101020000020</t>
   </si>
 </sst>
 </file>
@@ -3053,7 +3074,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1"/>
@@ -3098,6 +3119,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3728,19 +3750,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
+        <v>893</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>894</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>895</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="D1" s="12" t="s">
         <v>896</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="E1" s="12" t="s">
         <v>897</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>898</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>899</v>
       </c>
     </row>
   </sheetData>
@@ -3776,72 +3798,72 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>900</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="35" t="s">
         <v>901</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="35" t="s">
         <v>902</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="F1" s="35" t="s">
         <v>903</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="G1" s="35" t="s">
         <v>904</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="H1" s="35" t="s">
         <v>905</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="I1" s="35" t="s">
         <v>906</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="J1" s="35" t="s">
         <v>907</v>
       </c>
-      <c r="I1" s="35" t="s">
+      <c r="K1" s="35" t="s">
         <v>908</v>
       </c>
-      <c r="J1" s="35" t="s">
+      <c r="L1" s="35" t="s">
         <v>909</v>
       </c>
-      <c r="K1" s="35" t="s">
+      <c r="M1" s="35" t="s">
         <v>910</v>
-      </c>
-      <c r="L1" s="35" t="s">
-        <v>911</v>
-      </c>
-      <c r="M1" s="35" t="s">
-        <v>912</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="C2" s="1">
         <v>3</v>
       </c>
       <c r="D2" s="35" t="s">
+        <v>913</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>914</v>
+      </c>
+      <c r="F2" s="35" t="s">
         <v>915</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="G2" s="35" t="s">
         <v>916</v>
       </c>
-      <c r="F2" s="35" t="s">
+      <c r="H2" s="35" t="s">
         <v>917</v>
       </c>
-      <c r="G2" s="35" t="s">
+      <c r="I2" s="35" t="s">
         <v>918</v>
-      </c>
-      <c r="H2" s="35" t="s">
-        <v>919</v>
-      </c>
-      <c r="I2" s="35" t="s">
-        <v>920</v>
       </c>
     </row>
   </sheetData>
@@ -3869,36 +3891,36 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>921</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>922</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>923</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>924</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>925</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>926</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>927</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>928</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>929</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>930</v>
       </c>
     </row>
   </sheetData>
@@ -3924,37 +3946,37 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
+        <v>882</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>883</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>884</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="D1" s="12" t="s">
         <v>885</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="E1" s="12" t="s">
         <v>886</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>887</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="G1" s="12" t="s">
         <v>888</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="H1" s="12" t="s">
         <v>889</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>890</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>891</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>892</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>893</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>894</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -4311,15 +4333,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL6"/>
+  <dimension ref="A1:BG6"/>
   <sheetViews>
-    <sheetView topLeftCell="AG1" workbookViewId="0">
-      <selection activeCell="AI2" sqref="AI2"/>
+    <sheetView tabSelected="1" topLeftCell="AO1" workbookViewId="0">
+      <selection activeCell="BG3" sqref="BG3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:38" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:59" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>25</v>
       </c>
@@ -4390,52 +4412,115 @@
         <v>32</v>
       </c>
       <c r="X1" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="Y1" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="Z1" t="s">
         <v>32</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" s="28" t="s">
+        <v>929</v>
+      </c>
+      <c r="AB1" s="28" t="s">
+        <v>930</v>
+      </c>
+      <c r="AC1" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD1" s="28" t="s">
+        <v>931</v>
+      </c>
+      <c r="AE1" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF1" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG1" s="28" t="s">
+        <v>932</v>
+      </c>
+      <c r="AH1" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI1" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ1" s="28" t="s">
+        <v>933</v>
+      </c>
+      <c r="AK1" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL1" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM1" s="28" t="s">
+        <v>934</v>
+      </c>
+      <c r="AN1" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO1" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP1" s="28" t="s">
+        <v>935</v>
+      </c>
+      <c r="AQ1" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="AR1" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>936</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>874</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AV1" t="s">
         <v>41</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AW1" t="s">
         <v>42</v>
       </c>
-      <c r="AC1" s="32" t="s">
+      <c r="AX1" s="32" t="s">
+        <v>875</v>
+      </c>
+      <c r="AY1" s="32" t="s">
+        <v>876</v>
+      </c>
+      <c r="AZ1" s="32" t="s">
         <v>877</v>
       </c>
-      <c r="AD1" s="32" t="s">
+      <c r="BA1" s="32" t="s">
         <v>878</v>
       </c>
-      <c r="AE1" s="32" t="s">
+      <c r="BB1" s="32" t="s">
         <v>879</v>
       </c>
-      <c r="AF1" s="32" t="s">
+      <c r="BC1" s="32" t="s">
         <v>880</v>
       </c>
-      <c r="AG1" s="32" t="s">
+      <c r="BD1" s="33" t="s">
         <v>881</v>
       </c>
-      <c r="AH1" s="32" t="s">
-        <v>882</v>
-      </c>
-      <c r="AI1" s="33" t="s">
-        <v>883</v>
-      </c>
-      <c r="AJ1" t="s">
+      <c r="BE1" t="s">
         <v>43</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="BF1" t="s">
         <v>44</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="BG1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>200</v>
       </c>
@@ -4487,27 +4572,27 @@
       <c r="U2" s="29"/>
       <c r="V2" s="29"/>
       <c r="W2" s="29"/>
-      <c r="AA2" s="25" t="s">
+      <c r="AV2" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="AB2" s="25">
-        <v>24</v>
-      </c>
-      <c r="AI2">
-        <f>SUM(AB2,AD2,AF2,AH2)</f>
-        <v>24</v>
-      </c>
-      <c r="AJ2" s="25" t="s">
+      <c r="AW2" s="25">
+        <v>24</v>
+      </c>
+      <c r="BD2">
+        <f>SUM(AW2,AD2,AF2,AH2)</f>
+        <v>24</v>
+      </c>
+      <c r="BE2" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="AK2" s="30" t="s">
+      <c r="BF2" s="30" t="s">
         <v>502</v>
       </c>
-      <c r="AL2" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="BG2" s="36" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="3" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>200</v>
       </c>
@@ -4559,27 +4644,24 @@
       <c r="U3" s="29"/>
       <c r="V3" s="29"/>
       <c r="W3" s="29"/>
-      <c r="AA3" s="27" t="s">
+      <c r="AV3" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="AB3" s="27">
-        <v>24</v>
-      </c>
-      <c r="AI3">
-        <f t="shared" ref="AI3:AI6" si="0">SUM(AB3,AD3,AF3,AH3)</f>
-        <v>24</v>
-      </c>
-      <c r="AJ3" s="27" t="s">
+      <c r="AW3" s="27">
+        <v>24</v>
+      </c>
+      <c r="BD3">
+        <f>SUM(AW3,AD3,AF3,AH3)</f>
+        <v>24</v>
+      </c>
+      <c r="BE3" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="AK3" s="31" t="s">
+      <c r="BF3" s="31" t="s">
         <v>502</v>
       </c>
-      <c r="AL3" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
         <v>207</v>
       </c>
@@ -4631,24 +4713,24 @@
       <c r="U4" s="29"/>
       <c r="V4" s="29"/>
       <c r="W4" s="29"/>
-      <c r="AA4" s="25" t="s">
+      <c r="AV4" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="AB4" s="25">
-        <v>24</v>
-      </c>
-      <c r="AI4">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="AJ4" s="25" t="s">
+      <c r="AW4" s="25">
+        <v>24</v>
+      </c>
+      <c r="BD4">
+        <f>SUM(AW4,AD4,AF4,AH4)</f>
+        <v>24</v>
+      </c>
+      <c r="BE4" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="AK4" s="30" t="s">
+      <c r="BF4" s="30" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>200</v>
       </c>
@@ -4700,24 +4782,24 @@
       <c r="U5" s="29"/>
       <c r="V5" s="29"/>
       <c r="W5" s="29"/>
-      <c r="AA5" s="27" t="s">
+      <c r="AV5" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="AB5" s="27">
-        <v>24</v>
-      </c>
-      <c r="AI5">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="AJ5" s="27" t="s">
+      <c r="AW5" s="27">
+        <v>24</v>
+      </c>
+      <c r="BD5">
+        <f>SUM(AW5,AD5,AF5,AH5)</f>
+        <v>24</v>
+      </c>
+      <c r="BE5" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="AK5" s="31" t="s">
+      <c r="BF5" s="31" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
         <v>200</v>
       </c>
@@ -4769,34 +4851,35 @@
       <c r="U6" s="29"/>
       <c r="V6" s="29"/>
       <c r="W6" s="29"/>
-      <c r="AA6" s="25" t="s">
+      <c r="AV6" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="AB6" s="25">
-        <v>24</v>
-      </c>
-      <c r="AI6">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="AJ6" s="25" t="s">
+      <c r="AW6" s="25">
+        <v>24</v>
+      </c>
+      <c r="BD6">
+        <f>SUM(AW6,AD6,AF6,AH6)</f>
+        <v>24</v>
+      </c>
+      <c r="BE6" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="AK6" s="30" t="s">
+      <c r="BF6" s="30" t="s">
         <v>502</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL111"/>
+  <dimension ref="A1:BG111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AG107" sqref="AG107"/>
+    <sheetView topLeftCell="AF1" workbookViewId="0">
+      <selection activeCell="AA1" sqref="AA1:AU1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4810,7 +4893,7 @@
     <col min="12" max="12" width="18.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:59" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>25</v>
       </c>
@@ -4881,52 +4964,115 @@
         <v>32</v>
       </c>
       <c r="X1" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="Y1" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="Z1" t="s">
         <v>32</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" s="28" t="s">
+        <v>929</v>
+      </c>
+      <c r="AB1" s="28" t="s">
+        <v>930</v>
+      </c>
+      <c r="AC1" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD1" s="28" t="s">
+        <v>931</v>
+      </c>
+      <c r="AE1" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF1" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG1" s="28" t="s">
+        <v>932</v>
+      </c>
+      <c r="AH1" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI1" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ1" s="28" t="s">
+        <v>933</v>
+      </c>
+      <c r="AK1" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL1" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM1" s="28" t="s">
+        <v>934</v>
+      </c>
+      <c r="AN1" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO1" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP1" s="28" t="s">
+        <v>935</v>
+      </c>
+      <c r="AQ1" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="AR1" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>936</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>874</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AV1" t="s">
         <v>41</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AW1" t="s">
         <v>42</v>
       </c>
-      <c r="AC1" s="32" t="s">
+      <c r="AX1" s="32" t="s">
+        <v>875</v>
+      </c>
+      <c r="AY1" s="32" t="s">
+        <v>876</v>
+      </c>
+      <c r="AZ1" s="32" t="s">
         <v>877</v>
       </c>
-      <c r="AD1" s="32" t="s">
+      <c r="BA1" s="32" t="s">
         <v>878</v>
       </c>
-      <c r="AE1" s="32" t="s">
+      <c r="BB1" s="32" t="s">
         <v>879</v>
       </c>
-      <c r="AF1" s="32" t="s">
+      <c r="BC1" s="32" t="s">
         <v>880</v>
       </c>
-      <c r="AG1" s="32" t="s">
+      <c r="BD1" s="33" t="s">
         <v>881</v>
       </c>
-      <c r="AH1" s="32" t="s">
-        <v>882</v>
-      </c>
-      <c r="AI1" s="33" t="s">
-        <v>883</v>
-      </c>
-      <c r="AJ1" t="s">
+      <c r="BE1" t="s">
         <v>43</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="BF1" t="s">
         <v>44</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="BG1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>157</v>
       </c>
@@ -4948,12 +5094,12 @@
       <c r="U2" s="29"/>
       <c r="V2" s="29"/>
       <c r="W2" s="29"/>
-      <c r="AI2">
-        <f>SUM(AB2,AD2,AF2,AH2)</f>
+      <c r="BD2">
+        <f>SUM(AW2,AD2,AF2,AH2)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>157</v>
       </c>
@@ -4975,12 +5121,12 @@
       <c r="U3" s="29"/>
       <c r="V3" s="29"/>
       <c r="W3" s="29"/>
-      <c r="AI3">
-        <f t="shared" ref="AI3:AI66" si="0">SUM(AB3,AD3,AF3,AH3)</f>
+      <c r="BD3">
+        <f>SUM(AW3,AD3,AF3,AH3)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
         <v>157</v>
       </c>
@@ -5002,12 +5148,12 @@
       <c r="U4" s="29"/>
       <c r="V4" s="29"/>
       <c r="W4" s="29"/>
-      <c r="AI4">
-        <f t="shared" si="0"/>
+      <c r="BD4">
+        <f>SUM(AW4,AD4,AF4,AH4)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>157</v>
       </c>
@@ -5029,12 +5175,12 @@
       <c r="U5" s="29"/>
       <c r="V5" s="29"/>
       <c r="W5" s="29"/>
-      <c r="AI5">
-        <f t="shared" si="0"/>
+      <c r="BD5">
+        <f>SUM(AW5,AD5,AF5,AH5)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
         <v>157</v>
       </c>
@@ -5056,12 +5202,12 @@
       <c r="U6" s="29"/>
       <c r="V6" s="29"/>
       <c r="W6" s="29"/>
-      <c r="AI6">
-        <f t="shared" si="0"/>
+      <c r="BD6">
+        <f>SUM(AW6,AD6,AF6,AH6)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>157</v>
       </c>
@@ -5083,12 +5229,12 @@
       <c r="U7" s="29"/>
       <c r="V7" s="29"/>
       <c r="W7" s="29"/>
-      <c r="AI7">
-        <f t="shared" si="0"/>
+      <c r="BD7">
+        <f>SUM(AW7,AD7,AF7,AH7)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
         <v>157</v>
       </c>
@@ -5110,12 +5256,12 @@
       <c r="U8" s="29"/>
       <c r="V8" s="29"/>
       <c r="W8" s="29"/>
-      <c r="AI8">
-        <f t="shared" si="0"/>
+      <c r="BD8">
+        <f>SUM(AW8,AD8,AF8,AH8)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>157</v>
       </c>
@@ -5137,12 +5283,12 @@
       <c r="U9" s="29"/>
       <c r="V9" s="29"/>
       <c r="W9" s="29"/>
-      <c r="AI9">
-        <f t="shared" si="0"/>
+      <c r="BD9">
+        <f>SUM(AW9,AD9,AF9,AH9)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
         <v>157</v>
       </c>
@@ -5164,12 +5310,12 @@
       <c r="U10" s="29"/>
       <c r="V10" s="29"/>
       <c r="W10" s="29"/>
-      <c r="AI10">
-        <f t="shared" si="0"/>
+      <c r="BD10">
+        <f>SUM(AW10,AD10,AF10,AH10)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
         <v>157</v>
       </c>
@@ -5191,12 +5337,12 @@
       <c r="U11" s="29"/>
       <c r="V11" s="29"/>
       <c r="W11" s="29"/>
-      <c r="AI11">
-        <f t="shared" si="0"/>
+      <c r="BD11">
+        <f>SUM(AW11,AD11,AF11,AH11)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
         <v>157</v>
       </c>
@@ -5218,12 +5364,12 @@
       <c r="U12" s="29"/>
       <c r="V12" s="29"/>
       <c r="W12" s="29"/>
-      <c r="AI12">
-        <f t="shared" si="0"/>
+      <c r="BD12">
+        <f>SUM(AW12,AD12,AF12,AH12)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
         <v>157</v>
       </c>
@@ -5245,12 +5391,12 @@
       <c r="U13" s="29"/>
       <c r="V13" s="29"/>
       <c r="W13" s="29"/>
-      <c r="AI13">
-        <f t="shared" si="0"/>
+      <c r="BD13">
+        <f>SUM(AW13,AD13,AF13,AH13)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
         <v>157</v>
       </c>
@@ -5272,12 +5418,12 @@
       <c r="U14" s="29"/>
       <c r="V14" s="29"/>
       <c r="W14" s="29"/>
-      <c r="AI14">
-        <f t="shared" si="0"/>
+      <c r="BD14">
+        <f>SUM(AW14,AD14,AF14,AH14)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
         <v>157</v>
       </c>
@@ -5299,12 +5445,12 @@
       <c r="U15" s="29"/>
       <c r="V15" s="29"/>
       <c r="W15" s="29"/>
-      <c r="AI15">
-        <f t="shared" si="0"/>
+      <c r="BD15">
+        <f>SUM(AW15,AD15,AF15,AH15)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
         <v>200</v>
       </c>
@@ -5356,24 +5502,24 @@
       <c r="U16" s="29"/>
       <c r="V16" s="29"/>
       <c r="W16" s="29"/>
-      <c r="AA16" s="25" t="s">
+      <c r="AV16" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="AB16" s="25">
-        <v>24</v>
-      </c>
-      <c r="AI16">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="AJ16" s="25" t="s">
+      <c r="AW16" s="25">
+        <v>24</v>
+      </c>
+      <c r="BD16">
+        <f>SUM(AW16,AD16,AF16,AH16)</f>
+        <v>24</v>
+      </c>
+      <c r="BE16" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="AK16" s="30" t="s">
+      <c r="BF16" s="30" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
         <v>200</v>
       </c>
@@ -5425,24 +5571,24 @@
       <c r="U17" s="29"/>
       <c r="V17" s="29"/>
       <c r="W17" s="29"/>
-      <c r="AA17" s="27" t="s">
+      <c r="AV17" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="AB17" s="27">
-        <v>24</v>
-      </c>
-      <c r="AI17">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="AJ17" s="27" t="s">
+      <c r="AW17" s="27">
+        <v>24</v>
+      </c>
+      <c r="BD17">
+        <f>SUM(AW17,AD17,AF17,AH17)</f>
+        <v>24</v>
+      </c>
+      <c r="BE17" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="AK17" s="31" t="s">
+      <c r="BF17" s="31" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
         <v>207</v>
       </c>
@@ -5494,24 +5640,24 @@
       <c r="U18" s="29"/>
       <c r="V18" s="29"/>
       <c r="W18" s="29"/>
-      <c r="AA18" s="25" t="s">
+      <c r="AV18" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="AB18" s="25">
-        <v>24</v>
-      </c>
-      <c r="AI18">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="AJ18" s="25" t="s">
+      <c r="AW18" s="25">
+        <v>24</v>
+      </c>
+      <c r="BD18">
+        <f>SUM(AW18,AD18,AF18,AH18)</f>
+        <v>24</v>
+      </c>
+      <c r="BE18" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="AK18" s="30" t="s">
+      <c r="BF18" s="30" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
         <v>200</v>
       </c>
@@ -5563,24 +5709,24 @@
       <c r="U19" s="29"/>
       <c r="V19" s="29"/>
       <c r="W19" s="29"/>
-      <c r="AA19" s="27" t="s">
+      <c r="AV19" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="AB19" s="27">
-        <v>24</v>
-      </c>
-      <c r="AI19">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="AJ19" s="27" t="s">
+      <c r="AW19" s="27">
+        <v>24</v>
+      </c>
+      <c r="BD19">
+        <f>SUM(AW19,AD19,AF19,AH19)</f>
+        <v>24</v>
+      </c>
+      <c r="BE19" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="AK19" s="31" t="s">
+      <c r="BF19" s="31" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
         <v>200</v>
       </c>
@@ -5632,24 +5778,24 @@
       <c r="U20" s="29"/>
       <c r="V20" s="29"/>
       <c r="W20" s="29"/>
-      <c r="AA20" s="25" t="s">
+      <c r="AV20" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="AB20" s="25">
-        <v>24</v>
-      </c>
-      <c r="AI20">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="AJ20" s="25" t="s">
+      <c r="AW20" s="25">
+        <v>24</v>
+      </c>
+      <c r="BD20">
+        <f>SUM(AW20,AD20,AF20,AH20)</f>
+        <v>24</v>
+      </c>
+      <c r="BE20" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="AK20" s="30" t="s">
+      <c r="BF20" s="30" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A21" s="26" t="s">
         <v>207</v>
       </c>
@@ -5701,24 +5847,24 @@
       <c r="U21" s="29"/>
       <c r="V21" s="29"/>
       <c r="W21" s="29"/>
-      <c r="AA21" s="27" t="s">
+      <c r="AV21" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="AB21" s="27">
-        <v>24</v>
-      </c>
-      <c r="AI21">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="AJ21" s="27" t="s">
+      <c r="AW21" s="27">
+        <v>24</v>
+      </c>
+      <c r="BD21">
+        <f>SUM(AW21,AD21,AF21,AH21)</f>
+        <v>24</v>
+      </c>
+      <c r="BE21" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="AK21" s="31" t="s">
+      <c r="BF21" s="31" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A22" s="24" t="s">
         <v>200</v>
       </c>
@@ -5770,24 +5916,24 @@
       <c r="U22" s="29"/>
       <c r="V22" s="29"/>
       <c r="W22" s="29"/>
-      <c r="AA22" s="25" t="s">
+      <c r="AV22" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="AB22" s="25">
-        <v>24</v>
-      </c>
-      <c r="AI22">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="AJ22" s="25" t="s">
+      <c r="AW22" s="25">
+        <v>24</v>
+      </c>
+      <c r="BD22">
+        <f>SUM(AW22,AD22,AF22,AH22)</f>
+        <v>24</v>
+      </c>
+      <c r="BE22" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="AK22" s="30" t="s">
+      <c r="BF22" s="30" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A23" s="26" t="s">
         <v>200</v>
       </c>
@@ -5839,24 +5985,24 @@
       <c r="U23" s="29"/>
       <c r="V23" s="29"/>
       <c r="W23" s="29"/>
-      <c r="AA23" s="27" t="s">
+      <c r="AV23" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="AB23" s="27">
-        <v>24</v>
-      </c>
-      <c r="AI23">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="AJ23" s="27" t="s">
+      <c r="AW23" s="27">
+        <v>24</v>
+      </c>
+      <c r="BD23">
+        <f>SUM(AW23,AD23,AF23,AH23)</f>
+        <v>24</v>
+      </c>
+      <c r="BE23" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="AK23" s="31" t="s">
+      <c r="BF23" s="31" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A24" s="24" t="s">
         <v>207</v>
       </c>
@@ -5908,24 +6054,24 @@
       <c r="U24" s="29"/>
       <c r="V24" s="29"/>
       <c r="W24" s="29"/>
-      <c r="AA24" s="25" t="s">
+      <c r="AV24" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="AB24" s="25">
-        <v>24</v>
-      </c>
-      <c r="AI24">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="AJ24" s="25" t="s">
+      <c r="AW24" s="25">
+        <v>24</v>
+      </c>
+      <c r="BD24">
+        <f>SUM(AW24,AD24,AF24,AH24)</f>
+        <v>24</v>
+      </c>
+      <c r="BE24" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="AK24" s="30" t="s">
+      <c r="BF24" s="30" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A25" s="26" t="s">
         <v>200</v>
       </c>
@@ -5977,24 +6123,24 @@
       <c r="U25" s="29"/>
       <c r="V25" s="29"/>
       <c r="W25" s="29"/>
-      <c r="AA25" s="27" t="s">
+      <c r="AV25" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="AB25" s="27">
-        <v>24</v>
-      </c>
-      <c r="AI25">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="AJ25" s="27" t="s">
+      <c r="AW25" s="27">
+        <v>24</v>
+      </c>
+      <c r="BD25">
+        <f>SUM(AW25,AD25,AF25,AH25)</f>
+        <v>24</v>
+      </c>
+      <c r="BE25" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="AK25" s="31" t="s">
+      <c r="BF25" s="31" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A26" s="24" t="s">
         <v>200</v>
       </c>
@@ -6046,24 +6192,24 @@
       <c r="U26" s="29"/>
       <c r="V26" s="29"/>
       <c r="W26" s="29"/>
-      <c r="AA26" s="25" t="s">
+      <c r="AV26" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="AB26" s="25">
-        <v>24</v>
-      </c>
-      <c r="AI26">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="AJ26" s="25" t="s">
+      <c r="AW26" s="25">
+        <v>24</v>
+      </c>
+      <c r="BD26">
+        <f>SUM(AW26,AD26,AF26,AH26)</f>
+        <v>24</v>
+      </c>
+      <c r="BE26" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="AK26" s="30" t="s">
+      <c r="BF26" s="30" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A27" s="26" t="s">
         <v>207</v>
       </c>
@@ -6115,24 +6261,24 @@
       <c r="U27" s="29"/>
       <c r="V27" s="29"/>
       <c r="W27" s="29"/>
-      <c r="AA27" s="27" t="s">
+      <c r="AV27" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="AB27" s="27">
-        <v>24</v>
-      </c>
-      <c r="AI27">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="AJ27" s="27" t="s">
+      <c r="AW27" s="27">
+        <v>24</v>
+      </c>
+      <c r="BD27">
+        <f>SUM(AW27,AD27,AF27,AH27)</f>
+        <v>24</v>
+      </c>
+      <c r="BE27" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="AK27" s="31" t="s">
+      <c r="BF27" s="31" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A28" s="24" t="s">
         <v>200</v>
       </c>
@@ -6196,24 +6342,24 @@
       <c r="U28" s="29"/>
       <c r="V28" s="29"/>
       <c r="W28" s="29"/>
-      <c r="AA28" s="25" t="s">
+      <c r="AV28" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="AB28" s="25">
-        <v>24</v>
-      </c>
-      <c r="AI28">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="AJ28" s="25" t="s">
+      <c r="AW28" s="25">
+        <v>24</v>
+      </c>
+      <c r="BD28">
+        <f>SUM(AW28,AD28,AF28,AH28)</f>
+        <v>24</v>
+      </c>
+      <c r="BE28" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="AK28" s="30" t="s">
+      <c r="BF28" s="30" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A29" s="26" t="s">
         <v>200</v>
       </c>
@@ -6265,24 +6411,24 @@
       <c r="U29" s="29"/>
       <c r="V29" s="29"/>
       <c r="W29" s="29"/>
-      <c r="AA29" s="27" t="s">
+      <c r="AV29" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="AB29" s="27">
-        <v>24</v>
-      </c>
-      <c r="AI29">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="AJ29" s="27" t="s">
+      <c r="AW29" s="27">
+        <v>24</v>
+      </c>
+      <c r="BD29">
+        <f>SUM(AW29,AD29,AF29,AH29)</f>
+        <v>24</v>
+      </c>
+      <c r="BE29" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="AK29" s="31" t="s">
+      <c r="BF29" s="31" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A30" s="24" t="s">
         <v>200</v>
       </c>
@@ -6334,24 +6480,24 @@
       <c r="U30" s="29"/>
       <c r="V30" s="29"/>
       <c r="W30" s="29"/>
-      <c r="AA30" s="25" t="s">
+      <c r="AV30" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="AB30" s="25">
-        <v>24</v>
-      </c>
-      <c r="AI30">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="AJ30" s="25" t="s">
+      <c r="AW30" s="25">
+        <v>24</v>
+      </c>
+      <c r="BD30">
+        <f>SUM(AW30,AD30,AF30,AH30)</f>
+        <v>24</v>
+      </c>
+      <c r="BE30" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="AK30" s="30" t="s">
+      <c r="BF30" s="30" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A31" s="26" t="s">
         <v>200</v>
       </c>
@@ -6409,24 +6555,24 @@
       <c r="U31" s="29"/>
       <c r="V31" s="29"/>
       <c r="W31" s="29"/>
-      <c r="AA31" s="27" t="s">
+      <c r="AV31" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="AB31" s="27">
-        <v>24</v>
-      </c>
-      <c r="AI31">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="AJ31" s="27" t="s">
+      <c r="AW31" s="27">
+        <v>24</v>
+      </c>
+      <c r="BD31">
+        <f>SUM(AW31,AD31,AF31,AH31)</f>
+        <v>24</v>
+      </c>
+      <c r="BE31" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="AK31" s="31" t="s">
+      <c r="BF31" s="31" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A32" s="24" t="s">
         <v>200</v>
       </c>
@@ -6478,24 +6624,24 @@
       <c r="U32" s="29"/>
       <c r="V32" s="29"/>
       <c r="W32" s="29"/>
-      <c r="AA32" s="25" t="s">
+      <c r="AV32" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="AB32" s="25">
-        <v>24</v>
-      </c>
-      <c r="AI32">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="AJ32" s="25" t="s">
+      <c r="AW32" s="25">
+        <v>24</v>
+      </c>
+      <c r="BD32">
+        <f>SUM(AW32,AD32,AF32,AH32)</f>
+        <v>24</v>
+      </c>
+      <c r="BE32" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="AK32" s="30" t="s">
+      <c r="BF32" s="30" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A33" s="26" t="s">
         <v>207</v>
       </c>
@@ -6547,24 +6693,24 @@
       <c r="U33" s="29"/>
       <c r="V33" s="29"/>
       <c r="W33" s="29"/>
-      <c r="AA33" s="27" t="s">
+      <c r="AV33" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="AB33" s="27">
-        <v>24</v>
-      </c>
-      <c r="AI33">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="AJ33" s="27" t="s">
+      <c r="AW33" s="27">
+        <v>24</v>
+      </c>
+      <c r="BD33">
+        <f>SUM(AW33,AD33,AF33,AH33)</f>
+        <v>24</v>
+      </c>
+      <c r="BE33" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="AK33" s="31" t="s">
+      <c r="BF33" s="31" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A34" s="24" t="s">
         <v>207</v>
       </c>
@@ -6616,24 +6762,24 @@
       <c r="U34" s="29"/>
       <c r="V34" s="29"/>
       <c r="W34" s="29"/>
-      <c r="AA34" s="25" t="s">
+      <c r="AV34" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="AB34" s="25">
-        <v>24</v>
-      </c>
-      <c r="AI34">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="AJ34" s="25" t="s">
+      <c r="AW34" s="25">
+        <v>24</v>
+      </c>
+      <c r="BD34">
+        <f>SUM(AW34,AD34,AF34,AH34)</f>
+        <v>24</v>
+      </c>
+      <c r="BE34" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="AK34" s="30" t="s">
+      <c r="BF34" s="30" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A35" s="26" t="s">
         <v>200</v>
       </c>
@@ -6685,24 +6831,24 @@
       <c r="U35" s="29"/>
       <c r="V35" s="29"/>
       <c r="W35" s="29"/>
-      <c r="AA35" s="27" t="s">
+      <c r="AV35" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="AB35" s="27">
-        <v>24</v>
-      </c>
-      <c r="AI35">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="AJ35" s="27" t="s">
+      <c r="AW35" s="27">
+        <v>24</v>
+      </c>
+      <c r="BD35">
+        <f>SUM(AW35,AD35,AF35,AH35)</f>
+        <v>24</v>
+      </c>
+      <c r="BE35" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="AK35" s="31" t="s">
+      <c r="BF35" s="31" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A36" s="24" t="s">
         <v>207</v>
       </c>
@@ -6754,24 +6900,24 @@
       <c r="U36" s="29"/>
       <c r="V36" s="29"/>
       <c r="W36" s="29"/>
-      <c r="AA36" s="25" t="s">
+      <c r="AV36" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="AB36" s="25">
-        <v>24</v>
-      </c>
-      <c r="AI36">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="AJ36" s="25" t="s">
+      <c r="AW36" s="25">
+        <v>24</v>
+      </c>
+      <c r="BD36">
+        <f>SUM(AW36,AD36,AF36,AH36)</f>
+        <v>24</v>
+      </c>
+      <c r="BE36" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="AK36" s="30" t="s">
+      <c r="BF36" s="30" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A37" s="26" t="s">
         <v>200</v>
       </c>
@@ -6829,24 +6975,24 @@
       <c r="U37" s="29"/>
       <c r="V37" s="29"/>
       <c r="W37" s="29"/>
-      <c r="AA37" s="27" t="s">
+      <c r="AV37" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="AB37" s="27">
-        <v>24</v>
-      </c>
-      <c r="AI37">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="AJ37" s="27" t="s">
+      <c r="AW37" s="27">
+        <v>24</v>
+      </c>
+      <c r="BD37">
+        <f>SUM(AW37,AD37,AF37,AH37)</f>
+        <v>24</v>
+      </c>
+      <c r="BE37" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="AK37" s="31" t="s">
+      <c r="BF37" s="31" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A38" s="24" t="s">
         <v>200</v>
       </c>
@@ -6889,24 +7035,24 @@
       <c r="U38" s="29"/>
       <c r="V38" s="29"/>
       <c r="W38" s="29"/>
-      <c r="AA38" s="25" t="s">
+      <c r="AV38" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="AB38" s="25">
-        <v>24</v>
-      </c>
-      <c r="AI38">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="AJ38" s="25" t="s">
+      <c r="AW38" s="25">
+        <v>24</v>
+      </c>
+      <c r="BD38">
+        <f>SUM(AW38,AD38,AF38,AH38)</f>
+        <v>24</v>
+      </c>
+      <c r="BE38" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="AK38" s="30" t="s">
+      <c r="BF38" s="30" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A39" s="26" t="s">
         <v>200</v>
       </c>
@@ -6958,24 +7104,24 @@
       <c r="U39" s="29"/>
       <c r="V39" s="29"/>
       <c r="W39" s="29"/>
-      <c r="AA39" s="27" t="s">
+      <c r="AV39" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="AB39" s="27">
-        <v>24</v>
-      </c>
-      <c r="AI39">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="AJ39" s="27" t="s">
+      <c r="AW39" s="27">
+        <v>24</v>
+      </c>
+      <c r="BD39">
+        <f>SUM(AW39,AD39,AF39,AH39)</f>
+        <v>24</v>
+      </c>
+      <c r="BE39" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="AK39" s="31" t="s">
+      <c r="BF39" s="31" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A40" s="24" t="s">
         <v>200</v>
       </c>
@@ -7009,24 +7155,24 @@
       <c r="U40" s="29"/>
       <c r="V40" s="29"/>
       <c r="W40" s="29"/>
-      <c r="AA40" s="25" t="s">
+      <c r="AV40" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="AB40" s="25">
-        <v>24</v>
-      </c>
-      <c r="AI40">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="AJ40" s="25" t="s">
+      <c r="AW40" s="25">
+        <v>24</v>
+      </c>
+      <c r="BD40">
+        <f>SUM(AW40,AD40,AF40,AH40)</f>
+        <v>24</v>
+      </c>
+      <c r="BE40" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="AK40" s="30" t="s">
+      <c r="BF40" s="30" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A41" s="26" t="s">
         <v>200</v>
       </c>
@@ -7078,24 +7224,24 @@
       <c r="U41" s="29"/>
       <c r="V41" s="29"/>
       <c r="W41" s="29"/>
-      <c r="AA41" s="27" t="s">
+      <c r="AV41" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="AB41" s="27">
-        <v>24</v>
-      </c>
-      <c r="AI41">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="AJ41" s="27" t="s">
+      <c r="AW41" s="27">
+        <v>24</v>
+      </c>
+      <c r="BD41">
+        <f>SUM(AW41,AD41,AF41,AH41)</f>
+        <v>24</v>
+      </c>
+      <c r="BE41" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="AK41" s="31" t="s">
+      <c r="BF41" s="31" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="42" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A42" s="24" t="s">
         <v>200</v>
       </c>
@@ -7147,24 +7293,24 @@
       <c r="U42" s="29"/>
       <c r="V42" s="29"/>
       <c r="W42" s="29"/>
-      <c r="AA42" s="25" t="s">
+      <c r="AV42" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="AB42" s="25">
-        <v>24</v>
-      </c>
-      <c r="AI42">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="AJ42" s="25" t="s">
+      <c r="AW42" s="25">
+        <v>24</v>
+      </c>
+      <c r="BD42">
+        <f>SUM(AW42,AD42,AF42,AH42)</f>
+        <v>24</v>
+      </c>
+      <c r="BE42" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="AK42" s="30" t="s">
+      <c r="BF42" s="30" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A43" s="26" t="s">
         <v>207</v>
       </c>
@@ -7216,24 +7362,24 @@
       <c r="U43" s="29"/>
       <c r="V43" s="29"/>
       <c r="W43" s="29"/>
-      <c r="AA43" s="27" t="s">
+      <c r="AV43" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="AB43" s="27">
-        <v>24</v>
-      </c>
-      <c r="AI43">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="AJ43" s="27" t="s">
+      <c r="AW43" s="27">
+        <v>24</v>
+      </c>
+      <c r="BD43">
+        <f>SUM(AW43,AD43,AF43,AH43)</f>
+        <v>24</v>
+      </c>
+      <c r="BE43" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="AK43" s="31" t="s">
+      <c r="BF43" s="31" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A44" s="24" t="s">
         <v>207</v>
       </c>
@@ -7285,24 +7431,24 @@
       <c r="U44" s="29"/>
       <c r="V44" s="29"/>
       <c r="W44" s="29"/>
-      <c r="AA44" s="25" t="s">
+      <c r="AV44" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="AB44" s="25">
-        <v>24</v>
-      </c>
-      <c r="AI44">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="AJ44" s="25" t="s">
+      <c r="AW44" s="25">
+        <v>24</v>
+      </c>
+      <c r="BD44">
+        <f>SUM(AW44,AD44,AF44,AH44)</f>
+        <v>24</v>
+      </c>
+      <c r="BE44" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="AK44" s="30" t="s">
+      <c r="BF44" s="30" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="45" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A45" s="26" t="s">
         <v>200</v>
       </c>
@@ -7354,24 +7500,24 @@
       <c r="U45" s="29"/>
       <c r="V45" s="29"/>
       <c r="W45" s="29"/>
-      <c r="AA45" s="27" t="s">
+      <c r="AV45" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="AB45" s="27">
-        <v>24</v>
-      </c>
-      <c r="AI45">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="AJ45" s="27" t="s">
+      <c r="AW45" s="27">
+        <v>24</v>
+      </c>
+      <c r="BD45">
+        <f>SUM(AW45,AD45,AF45,AH45)</f>
+        <v>24</v>
+      </c>
+      <c r="BE45" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="AK45" s="31" t="s">
+      <c r="BF45" s="31" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="46" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A46" s="24" t="s">
         <v>200</v>
       </c>
@@ -7423,24 +7569,24 @@
       <c r="U46" s="29"/>
       <c r="V46" s="29"/>
       <c r="W46" s="29"/>
-      <c r="AA46" s="25" t="s">
+      <c r="AV46" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="AB46" s="25">
-        <v>24</v>
-      </c>
-      <c r="AI46">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="AJ46" s="25" t="s">
+      <c r="AW46" s="25">
+        <v>24</v>
+      </c>
+      <c r="BD46">
+        <f>SUM(AW46,AD46,AF46,AH46)</f>
+        <v>24</v>
+      </c>
+      <c r="BE46" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="AK46" s="30" t="s">
+      <c r="BF46" s="30" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A47" s="26" t="s">
         <v>200</v>
       </c>
@@ -7492,24 +7638,24 @@
       <c r="U47" s="29"/>
       <c r="V47" s="29"/>
       <c r="W47" s="29"/>
-      <c r="AA47" s="27" t="s">
+      <c r="AV47" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="AB47" s="27">
-        <v>24</v>
-      </c>
-      <c r="AI47">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="AJ47" s="27" t="s">
+      <c r="AW47" s="27">
+        <v>24</v>
+      </c>
+      <c r="BD47">
+        <f>SUM(AW47,AD47,AF47,AH47)</f>
+        <v>24</v>
+      </c>
+      <c r="BE47" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="AK47" s="31" t="s">
+      <c r="BF47" s="31" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="48" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A48" s="24" t="s">
         <v>200</v>
       </c>
@@ -7561,24 +7707,24 @@
       <c r="U48" s="29"/>
       <c r="V48" s="29"/>
       <c r="W48" s="29"/>
-      <c r="AA48" s="25" t="s">
+      <c r="AV48" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="AB48" s="25">
-        <v>24</v>
-      </c>
-      <c r="AI48">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="AJ48" s="25" t="s">
+      <c r="AW48" s="25">
+        <v>24</v>
+      </c>
+      <c r="BD48">
+        <f>SUM(AW48,AD48,AF48,AH48)</f>
+        <v>24</v>
+      </c>
+      <c r="BE48" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="AK48" s="30" t="s">
+      <c r="BF48" s="30" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="49" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A49" s="26" t="s">
         <v>200</v>
       </c>
@@ -7630,24 +7776,24 @@
       <c r="U49" s="29"/>
       <c r="V49" s="29"/>
       <c r="W49" s="29"/>
-      <c r="AA49" s="27" t="s">
+      <c r="AV49" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="AB49" s="27">
-        <v>24</v>
-      </c>
-      <c r="AI49">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="AJ49" s="27" t="s">
+      <c r="AW49" s="27">
+        <v>24</v>
+      </c>
+      <c r="BD49">
+        <f>SUM(AW49,AD49,AF49,AH49)</f>
+        <v>24</v>
+      </c>
+      <c r="BE49" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="AK49" s="31" t="s">
+      <c r="BF49" s="31" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="50" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A50" s="24" t="s">
         <v>200</v>
       </c>
@@ -7699,24 +7845,24 @@
       <c r="U50" s="29"/>
       <c r="V50" s="29"/>
       <c r="W50" s="29"/>
-      <c r="AA50" s="25" t="s">
+      <c r="AV50" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="AB50" s="25">
-        <v>24</v>
-      </c>
-      <c r="AI50">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="AJ50" s="25" t="s">
+      <c r="AW50" s="25">
+        <v>24</v>
+      </c>
+      <c r="BD50">
+        <f>SUM(AW50,AD50,AF50,AH50)</f>
+        <v>24</v>
+      </c>
+      <c r="BE50" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="AK50" s="30" t="s">
+      <c r="BF50" s="30" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="51" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A51" s="26" t="s">
         <v>200</v>
       </c>
@@ -7768,24 +7914,24 @@
       <c r="U51" s="29"/>
       <c r="V51" s="29"/>
       <c r="W51" s="29"/>
-      <c r="AA51" s="27" t="s">
+      <c r="AV51" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="AB51" s="27">
-        <v>24</v>
-      </c>
-      <c r="AI51">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="AJ51" s="27" t="s">
+      <c r="AW51" s="27">
+        <v>24</v>
+      </c>
+      <c r="BD51">
+        <f>SUM(AW51,AD51,AF51,AH51)</f>
+        <v>24</v>
+      </c>
+      <c r="BE51" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="AK51" s="31" t="s">
+      <c r="BF51" s="31" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="52" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A52" s="24" t="s">
         <v>200</v>
       </c>
@@ -7837,24 +7983,24 @@
       <c r="U52" s="29"/>
       <c r="V52" s="29"/>
       <c r="W52" s="29"/>
-      <c r="AA52" s="25" t="s">
+      <c r="AV52" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="AB52" s="25">
-        <v>24</v>
-      </c>
-      <c r="AI52">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="AJ52" s="25" t="s">
+      <c r="AW52" s="25">
+        <v>24</v>
+      </c>
+      <c r="BD52">
+        <f>SUM(AW52,AD52,AF52,AH52)</f>
+        <v>24</v>
+      </c>
+      <c r="BE52" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="AK52" s="30" t="s">
+      <c r="BF52" s="30" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="53" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A53" s="26" t="s">
         <v>200</v>
       </c>
@@ -7906,24 +8052,24 @@
       <c r="U53" s="29"/>
       <c r="V53" s="29"/>
       <c r="W53" s="29"/>
-      <c r="AA53" s="27" t="s">
+      <c r="AV53" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="AB53" s="27">
-        <v>24</v>
-      </c>
-      <c r="AI53">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="AJ53" s="27" t="s">
+      <c r="AW53" s="27">
+        <v>24</v>
+      </c>
+      <c r="BD53">
+        <f>SUM(AW53,AD53,AF53,AH53)</f>
+        <v>24</v>
+      </c>
+      <c r="BE53" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="AK53" s="31" t="s">
+      <c r="BF53" s="31" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="54" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A54" s="24" t="s">
         <v>207</v>
       </c>
@@ -7975,24 +8121,24 @@
       <c r="U54" s="29"/>
       <c r="V54" s="29"/>
       <c r="W54" s="29"/>
-      <c r="AA54" s="25" t="s">
+      <c r="AV54" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="AB54" s="25">
-        <v>24</v>
-      </c>
-      <c r="AI54">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="AJ54" s="25" t="s">
+      <c r="AW54" s="25">
+        <v>24</v>
+      </c>
+      <c r="BD54">
+        <f>SUM(AW54,AD54,AF54,AH54)</f>
+        <v>24</v>
+      </c>
+      <c r="BE54" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="AK54" s="30" t="s">
+      <c r="BF54" s="30" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="55" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A55" s="26" t="s">
         <v>207</v>
       </c>
@@ -8044,24 +8190,24 @@
       <c r="U55" s="29"/>
       <c r="V55" s="29"/>
       <c r="W55" s="29"/>
-      <c r="AA55" s="27" t="s">
+      <c r="AV55" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="AB55" s="27">
-        <v>24</v>
-      </c>
-      <c r="AI55">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="AJ55" s="27" t="s">
+      <c r="AW55" s="27">
+        <v>24</v>
+      </c>
+      <c r="BD55">
+        <f>SUM(AW55,AD55,AF55,AH55)</f>
+        <v>24</v>
+      </c>
+      <c r="BE55" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="AK55" s="31" t="s">
+      <c r="BF55" s="31" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="56" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A56" s="24" t="s">
         <v>207</v>
       </c>
@@ -8119,24 +8265,24 @@
       <c r="U56" s="29"/>
       <c r="V56" s="29"/>
       <c r="W56" s="29"/>
-      <c r="AA56" s="25" t="s">
+      <c r="AV56" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="AB56" s="25">
-        <v>24</v>
-      </c>
-      <c r="AI56">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="AJ56" s="25" t="s">
+      <c r="AW56" s="25">
+        <v>24</v>
+      </c>
+      <c r="BD56">
+        <f>SUM(AW56,AD56,AF56,AH56)</f>
+        <v>24</v>
+      </c>
+      <c r="BE56" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="AK56" s="30" t="s">
+      <c r="BF56" s="30" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="57" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A57" s="26" t="s">
         <v>207</v>
       </c>
@@ -8188,24 +8334,24 @@
       <c r="U57" s="29"/>
       <c r="V57" s="29"/>
       <c r="W57" s="29"/>
-      <c r="AA57" s="27" t="s">
+      <c r="AV57" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="AB57" s="27">
-        <v>24</v>
-      </c>
-      <c r="AI57">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="AJ57" s="27" t="s">
+      <c r="AW57" s="27">
+        <v>24</v>
+      </c>
+      <c r="BD57">
+        <f>SUM(AW57,AD57,AF57,AH57)</f>
+        <v>24</v>
+      </c>
+      <c r="BE57" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="AK57" s="31" t="s">
+      <c r="BF57" s="31" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="58" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A58" s="24" t="s">
         <v>207</v>
       </c>
@@ -8257,24 +8403,24 @@
       <c r="U58" s="29"/>
       <c r="V58" s="29"/>
       <c r="W58" s="29"/>
-      <c r="AA58" s="25" t="s">
+      <c r="AV58" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="AB58" s="25">
-        <v>24</v>
-      </c>
-      <c r="AI58">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="AJ58" s="25" t="s">
+      <c r="AW58" s="25">
+        <v>24</v>
+      </c>
+      <c r="BD58">
+        <f>SUM(AW58,AD58,AF58,AH58)</f>
+        <v>24</v>
+      </c>
+      <c r="BE58" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="AK58" s="30" t="s">
+      <c r="BF58" s="30" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="59" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A59" s="26" t="s">
         <v>207</v>
       </c>
@@ -8326,24 +8472,24 @@
       <c r="U59" s="29"/>
       <c r="V59" s="29"/>
       <c r="W59" s="29"/>
-      <c r="AA59" s="27" t="s">
+      <c r="AV59" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="AB59" s="27">
-        <v>24</v>
-      </c>
-      <c r="AI59">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="AJ59" s="27" t="s">
+      <c r="AW59" s="27">
+        <v>24</v>
+      </c>
+      <c r="BD59">
+        <f>SUM(AW59,AD59,AF59,AH59)</f>
+        <v>24</v>
+      </c>
+      <c r="BE59" s="27" t="s">
         <v>503</v>
       </c>
-      <c r="AK59" s="31" t="s">
+      <c r="BF59" s="31" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="60" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A60" s="24" t="s">
         <v>207</v>
       </c>
@@ -8395,24 +8541,24 @@
       <c r="U60" s="29"/>
       <c r="V60" s="29"/>
       <c r="W60" s="29"/>
-      <c r="AA60" s="25" t="s">
+      <c r="AV60" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="AB60" s="25">
-        <v>24</v>
-      </c>
-      <c r="AI60">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="AJ60" s="25" t="s">
+      <c r="AW60" s="25">
+        <v>24</v>
+      </c>
+      <c r="BD60">
+        <f>SUM(AW60,AD60,AF60,AH60)</f>
+        <v>24</v>
+      </c>
+      <c r="BE60" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="AK60" s="30" t="s">
+      <c r="BF60" s="30" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="61" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A61" s="26" t="s">
         <v>207</v>
       </c>
@@ -8464,24 +8610,24 @@
       <c r="U61" s="29"/>
       <c r="V61" s="29"/>
       <c r="W61" s="29"/>
-      <c r="AA61" s="27" t="s">
+      <c r="AV61" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="AB61" s="27">
-        <v>24</v>
-      </c>
-      <c r="AI61">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="AJ61" s="27" t="s">
+      <c r="AW61" s="27">
+        <v>24</v>
+      </c>
+      <c r="BD61">
+        <f>SUM(AW61,AD61,AF61,AH61)</f>
+        <v>24</v>
+      </c>
+      <c r="BE61" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="AK61" s="31" t="s">
+      <c r="BF61" s="31" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="62" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A62" s="24" t="s">
         <v>207</v>
       </c>
@@ -8533,24 +8679,24 @@
       <c r="U62" s="29"/>
       <c r="V62" s="29"/>
       <c r="W62" s="29"/>
-      <c r="AA62" s="25" t="s">
+      <c r="AV62" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="AB62" s="25">
-        <v>24</v>
-      </c>
-      <c r="AI62">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="AJ62" s="25" t="s">
+      <c r="AW62" s="25">
+        <v>24</v>
+      </c>
+      <c r="BD62">
+        <f>SUM(AW62,AD62,AF62,AH62)</f>
+        <v>24</v>
+      </c>
+      <c r="BE62" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="AK62" s="30" t="s">
+      <c r="BF62" s="30" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="63" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A63" s="26" t="s">
         <v>207</v>
       </c>
@@ -8602,24 +8748,24 @@
       <c r="U63" s="29"/>
       <c r="V63" s="29"/>
       <c r="W63" s="29"/>
-      <c r="AA63" s="27" t="s">
+      <c r="AV63" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="AB63" s="27">
-        <v>24</v>
-      </c>
-      <c r="AI63">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="AJ63" s="27" t="s">
+      <c r="AW63" s="27">
+        <v>24</v>
+      </c>
+      <c r="BD63">
+        <f>SUM(AW63,AD63,AF63,AH63)</f>
+        <v>24</v>
+      </c>
+      <c r="BE63" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="AK63" s="31" t="s">
+      <c r="BF63" s="31" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="64" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A64" s="24" t="s">
         <v>207</v>
       </c>
@@ -8671,24 +8817,24 @@
       <c r="U64" s="29"/>
       <c r="V64" s="29"/>
       <c r="W64" s="29"/>
-      <c r="AA64" s="25" t="s">
+      <c r="AV64" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="AB64" s="25">
-        <v>24</v>
-      </c>
-      <c r="AI64">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="AJ64" s="25" t="s">
+      <c r="AW64" s="25">
+        <v>24</v>
+      </c>
+      <c r="BD64">
+        <f>SUM(AW64,AD64,AF64,AH64)</f>
+        <v>24</v>
+      </c>
+      <c r="BE64" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="AK64" s="30" t="s">
+      <c r="BF64" s="30" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="65" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A65" s="26" t="s">
         <v>207</v>
       </c>
@@ -8740,24 +8886,24 @@
       <c r="U65" s="29"/>
       <c r="V65" s="29"/>
       <c r="W65" s="29"/>
-      <c r="AA65" s="27" t="s">
+      <c r="AV65" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="AB65" s="27">
-        <v>24</v>
-      </c>
-      <c r="AI65">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="AJ65" s="27" t="s">
+      <c r="AW65" s="27">
+        <v>24</v>
+      </c>
+      <c r="BD65">
+        <f>SUM(AW65,AD65,AF65,AH65)</f>
+        <v>24</v>
+      </c>
+      <c r="BE65" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="AK65" s="31" t="s">
+      <c r="BF65" s="31" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="66" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A66" s="24" t="s">
         <v>207</v>
       </c>
@@ -8809,24 +8955,24 @@
       <c r="U66" s="29"/>
       <c r="V66" s="29"/>
       <c r="W66" s="29"/>
-      <c r="AA66" s="25" t="s">
+      <c r="AV66" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="AB66" s="25">
-        <v>24</v>
-      </c>
-      <c r="AI66">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="AJ66" s="25" t="s">
+      <c r="AW66" s="25">
+        <v>24</v>
+      </c>
+      <c r="BD66">
+        <f>SUM(AW66,AD66,AF66,AH66)</f>
+        <v>24</v>
+      </c>
+      <c r="BE66" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="AK66" s="30" t="s">
+      <c r="BF66" s="30" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="67" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A67" s="26" t="s">
         <v>207</v>
       </c>
@@ -8878,24 +9024,24 @@
       <c r="U67" s="29"/>
       <c r="V67" s="29"/>
       <c r="W67" s="29"/>
-      <c r="AA67" s="27" t="s">
+      <c r="AV67" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="AB67" s="27">
-        <v>24</v>
-      </c>
-      <c r="AI67">
-        <f t="shared" ref="AI67:AI111" si="1">SUM(AB67,AD67,AF67,AH67)</f>
-        <v>24</v>
-      </c>
-      <c r="AJ67" s="27" t="s">
+      <c r="AW67" s="27">
+        <v>24</v>
+      </c>
+      <c r="BD67">
+        <f>SUM(AW67,AD67,AF67,AH67)</f>
+        <v>24</v>
+      </c>
+      <c r="BE67" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="AK67" s="31" t="s">
+      <c r="BF67" s="31" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="68" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A68" s="24" t="s">
         <v>207</v>
       </c>
@@ -8947,24 +9093,24 @@
       <c r="U68" s="29"/>
       <c r="V68" s="29"/>
       <c r="W68" s="29"/>
-      <c r="AA68" s="25" t="s">
+      <c r="AV68" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="AB68" s="25">
-        <v>24</v>
-      </c>
-      <c r="AI68">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="AJ68" s="25" t="s">
+      <c r="AW68" s="25">
+        <v>24</v>
+      </c>
+      <c r="BD68">
+        <f>SUM(AW68,AD68,AF68,AH68)</f>
+        <v>24</v>
+      </c>
+      <c r="BE68" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="AK68" s="30" t="s">
+      <c r="BF68" s="30" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="69" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A69" s="26" t="s">
         <v>207</v>
       </c>
@@ -9016,24 +9162,24 @@
       <c r="U69" s="29"/>
       <c r="V69" s="29"/>
       <c r="W69" s="29"/>
-      <c r="AA69" s="27" t="s">
+      <c r="AV69" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="AB69" s="27">
-        <v>24</v>
-      </c>
-      <c r="AI69">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="AJ69" s="27" t="s">
+      <c r="AW69" s="27">
+        <v>24</v>
+      </c>
+      <c r="BD69">
+        <f>SUM(AW69,AD69,AF69,AH69)</f>
+        <v>24</v>
+      </c>
+      <c r="BE69" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="AK69" s="31" t="s">
+      <c r="BF69" s="31" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="70" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A70" s="24" t="s">
         <v>207</v>
       </c>
@@ -9085,24 +9231,24 @@
       <c r="U70" s="29"/>
       <c r="V70" s="29"/>
       <c r="W70" s="29"/>
-      <c r="AA70" s="25" t="s">
+      <c r="AV70" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="AB70" s="25">
-        <v>24</v>
-      </c>
-      <c r="AI70">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="AJ70" s="25" t="s">
+      <c r="AW70" s="25">
+        <v>24</v>
+      </c>
+      <c r="BD70">
+        <f>SUM(AW70,AD70,AF70,AH70)</f>
+        <v>24</v>
+      </c>
+      <c r="BE70" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="AK70" s="30" t="s">
+      <c r="BF70" s="30" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="71" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A71" s="26" t="s">
         <v>207</v>
       </c>
@@ -9154,24 +9300,24 @@
       <c r="U71" s="29"/>
       <c r="V71" s="29"/>
       <c r="W71" s="29"/>
-      <c r="AA71" s="27" t="s">
+      <c r="AV71" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="AB71" s="27">
-        <v>24</v>
-      </c>
-      <c r="AI71">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="AJ71" s="27" t="s">
+      <c r="AW71" s="27">
+        <v>24</v>
+      </c>
+      <c r="BD71">
+        <f>SUM(AW71,AD71,AF71,AH71)</f>
+        <v>24</v>
+      </c>
+      <c r="BE71" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="AK71" s="31" t="s">
+      <c r="BF71" s="31" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="72" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A72" s="24" t="s">
         <v>207</v>
       </c>
@@ -9223,24 +9369,24 @@
       <c r="U72" s="29"/>
       <c r="V72" s="29"/>
       <c r="W72" s="29"/>
-      <c r="AA72" s="25" t="s">
+      <c r="AV72" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="AB72" s="25">
-        <v>24</v>
-      </c>
-      <c r="AI72">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="AJ72" s="25" t="s">
+      <c r="AW72" s="25">
+        <v>24</v>
+      </c>
+      <c r="BD72">
+        <f>SUM(AW72,AD72,AF72,AH72)</f>
+        <v>24</v>
+      </c>
+      <c r="BE72" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="AK72" s="30" t="s">
+      <c r="BF72" s="30" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="73" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A73" s="26" t="s">
         <v>207</v>
       </c>
@@ -9292,24 +9438,24 @@
       <c r="U73" s="29"/>
       <c r="V73" s="29"/>
       <c r="W73" s="29"/>
-      <c r="AA73" s="27" t="s">
+      <c r="AV73" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="AB73" s="27">
-        <v>24</v>
-      </c>
-      <c r="AI73">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="AJ73" s="27" t="s">
+      <c r="AW73" s="27">
+        <v>24</v>
+      </c>
+      <c r="BD73">
+        <f>SUM(AW73,AD73,AF73,AH73)</f>
+        <v>24</v>
+      </c>
+      <c r="BE73" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="AK73" s="31" t="s">
+      <c r="BF73" s="31" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="74" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A74" s="24" t="s">
         <v>207</v>
       </c>
@@ -9361,24 +9507,24 @@
       <c r="U74" s="29"/>
       <c r="V74" s="29"/>
       <c r="W74" s="29"/>
-      <c r="AA74" s="25" t="s">
+      <c r="AV74" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="AB74" s="25">
-        <v>24</v>
-      </c>
-      <c r="AI74">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="AJ74" s="25" t="s">
+      <c r="AW74" s="25">
+        <v>24</v>
+      </c>
+      <c r="BD74">
+        <f>SUM(AW74,AD74,AF74,AH74)</f>
+        <v>24</v>
+      </c>
+      <c r="BE74" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="AK74" s="30" t="s">
+      <c r="BF74" s="30" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="75" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A75" s="26" t="s">
         <v>207</v>
       </c>
@@ -9430,24 +9576,24 @@
       <c r="U75" s="29"/>
       <c r="V75" s="29"/>
       <c r="W75" s="29"/>
-      <c r="AA75" s="27" t="s">
+      <c r="AV75" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="AB75" s="27">
-        <v>24</v>
-      </c>
-      <c r="AI75">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="AJ75" s="27" t="s">
+      <c r="AW75" s="27">
+        <v>24</v>
+      </c>
+      <c r="BD75">
+        <f>SUM(AW75,AD75,AF75,AH75)</f>
+        <v>24</v>
+      </c>
+      <c r="BE75" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="AK75" s="31" t="s">
+      <c r="BF75" s="31" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="76" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A76" s="24" t="s">
         <v>207</v>
       </c>
@@ -9499,24 +9645,24 @@
       <c r="U76" s="29"/>
       <c r="V76" s="29"/>
       <c r="W76" s="29"/>
-      <c r="AA76" s="25" t="s">
+      <c r="AV76" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="AB76" s="25">
-        <v>24</v>
-      </c>
-      <c r="AI76">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="AJ76" s="25" t="s">
+      <c r="AW76" s="25">
+        <v>24</v>
+      </c>
+      <c r="BD76">
+        <f>SUM(AW76,AD76,AF76,AH76)</f>
+        <v>24</v>
+      </c>
+      <c r="BE76" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="AK76" s="30" t="s">
+      <c r="BF76" s="30" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="77" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A77" s="26" t="s">
         <v>207</v>
       </c>
@@ -9568,24 +9714,24 @@
       <c r="U77" s="29"/>
       <c r="V77" s="29"/>
       <c r="W77" s="29"/>
-      <c r="AA77" s="27" t="s">
+      <c r="AV77" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="AB77" s="27">
-        <v>24</v>
-      </c>
-      <c r="AI77">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="AJ77" s="27" t="s">
+      <c r="AW77" s="27">
+        <v>24</v>
+      </c>
+      <c r="BD77">
+        <f>SUM(AW77,AD77,AF77,AH77)</f>
+        <v>24</v>
+      </c>
+      <c r="BE77" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="AK77" s="31" t="s">
+      <c r="BF77" s="31" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="78" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A78" s="24" t="s">
         <v>207</v>
       </c>
@@ -9637,24 +9783,24 @@
       <c r="U78" s="29"/>
       <c r="V78" s="29"/>
       <c r="W78" s="29"/>
-      <c r="AA78" s="25" t="s">
+      <c r="AV78" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="AB78" s="25">
-        <v>24</v>
-      </c>
-      <c r="AI78">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="AJ78" s="25" t="s">
+      <c r="AW78" s="25">
+        <v>24</v>
+      </c>
+      <c r="BD78">
+        <f>SUM(AW78,AD78,AF78,AH78)</f>
+        <v>24</v>
+      </c>
+      <c r="BE78" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="AK78" s="30" t="s">
+      <c r="BF78" s="30" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="79" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A79" s="26" t="s">
         <v>207</v>
       </c>
@@ -9706,24 +9852,24 @@
       <c r="U79" s="29"/>
       <c r="V79" s="29"/>
       <c r="W79" s="29"/>
-      <c r="AA79" s="27" t="s">
+      <c r="AV79" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="AB79" s="27">
-        <v>24</v>
-      </c>
-      <c r="AI79">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="AJ79" s="27" t="s">
+      <c r="AW79" s="27">
+        <v>24</v>
+      </c>
+      <c r="BD79">
+        <f>SUM(AW79,AD79,AF79,AH79)</f>
+        <v>24</v>
+      </c>
+      <c r="BE79" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="AK79" s="31" t="s">
+      <c r="BF79" s="31" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="80" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A80" s="24" t="s">
         <v>200</v>
       </c>
@@ -9775,24 +9921,24 @@
       <c r="U80" s="29"/>
       <c r="V80" s="29"/>
       <c r="W80" s="29"/>
-      <c r="AA80" s="25" t="s">
+      <c r="AV80" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="AB80" s="25">
-        <v>24</v>
-      </c>
-      <c r="AI80">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="AJ80" s="25" t="s">
+      <c r="AW80" s="25">
+        <v>24</v>
+      </c>
+      <c r="BD80">
+        <f>SUM(AW80,AD80,AF80,AH80)</f>
+        <v>24</v>
+      </c>
+      <c r="BE80" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="AK80" s="30" t="s">
+      <c r="BF80" s="30" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="81" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A81" s="26" t="s">
         <v>207</v>
       </c>
@@ -9844,24 +9990,24 @@
       <c r="U81" s="29"/>
       <c r="V81" s="29"/>
       <c r="W81" s="29"/>
-      <c r="AA81" s="27" t="s">
+      <c r="AV81" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="AB81" s="27">
-        <v>24</v>
-      </c>
-      <c r="AI81">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="AJ81" s="27" t="s">
+      <c r="AW81" s="27">
+        <v>24</v>
+      </c>
+      <c r="BD81">
+        <f>SUM(AW81,AD81,AF81,AH81)</f>
+        <v>24</v>
+      </c>
+      <c r="BE81" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="AK81" s="31" t="s">
+      <c r="BF81" s="31" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="82" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A82" s="24" t="s">
         <v>207</v>
       </c>
@@ -9913,24 +10059,24 @@
       <c r="U82" s="29"/>
       <c r="V82" s="29"/>
       <c r="W82" s="29"/>
-      <c r="AA82" s="25" t="s">
+      <c r="AV82" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="AB82" s="25">
-        <v>24</v>
-      </c>
-      <c r="AI82">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="AJ82" s="25" t="s">
+      <c r="AW82" s="25">
+        <v>24</v>
+      </c>
+      <c r="BD82">
+        <f>SUM(AW82,AD82,AF82,AH82)</f>
+        <v>24</v>
+      </c>
+      <c r="BE82" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="AK82" s="30" t="s">
+      <c r="BF82" s="30" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="83" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A83" s="26" t="s">
         <v>207</v>
       </c>
@@ -9982,24 +10128,24 @@
       <c r="U83" s="29"/>
       <c r="V83" s="29"/>
       <c r="W83" s="29"/>
-      <c r="AA83" s="27" t="s">
+      <c r="AV83" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="AB83" s="27">
-        <v>24</v>
-      </c>
-      <c r="AI83">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="AJ83" s="27" t="s">
+      <c r="AW83" s="27">
+        <v>24</v>
+      </c>
+      <c r="BD83">
+        <f>SUM(AW83,AD83,AF83,AH83)</f>
+        <v>24</v>
+      </c>
+      <c r="BE83" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="AK83" s="31" t="s">
+      <c r="BF83" s="31" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="84" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A84" s="24" t="s">
         <v>207</v>
       </c>
@@ -10051,24 +10197,24 @@
       <c r="U84" s="29"/>
       <c r="V84" s="29"/>
       <c r="W84" s="29"/>
-      <c r="AA84" s="25" t="s">
+      <c r="AV84" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="AB84" s="25">
-        <v>24</v>
-      </c>
-      <c r="AI84">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="AJ84" s="25" t="s">
+      <c r="AW84" s="25">
+        <v>24</v>
+      </c>
+      <c r="BD84">
+        <f>SUM(AW84,AD84,AF84,AH84)</f>
+        <v>24</v>
+      </c>
+      <c r="BE84" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="AK84" s="30" t="s">
+      <c r="BF84" s="30" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="85" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A85" s="26" t="s">
         <v>200</v>
       </c>
@@ -10120,24 +10266,24 @@
       <c r="U85" s="29"/>
       <c r="V85" s="29"/>
       <c r="W85" s="29"/>
-      <c r="AA85" s="27" t="s">
+      <c r="AV85" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="AB85" s="27">
-        <v>24</v>
-      </c>
-      <c r="AI85">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="AJ85" s="27" t="s">
+      <c r="AW85" s="27">
+        <v>24</v>
+      </c>
+      <c r="BD85">
+        <f>SUM(AW85,AD85,AF85,AH85)</f>
+        <v>24</v>
+      </c>
+      <c r="BE85" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="AK85" s="31" t="s">
+      <c r="BF85" s="31" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="86" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A86" s="24" t="s">
         <v>207</v>
       </c>
@@ -10189,24 +10335,24 @@
       <c r="U86" s="29"/>
       <c r="V86" s="29"/>
       <c r="W86" s="29"/>
-      <c r="AA86" s="25" t="s">
+      <c r="AV86" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="AB86" s="25">
-        <v>24</v>
-      </c>
-      <c r="AI86">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="AJ86" s="25" t="s">
+      <c r="AW86" s="25">
+        <v>24</v>
+      </c>
+      <c r="BD86">
+        <f>SUM(AW86,AD86,AF86,AH86)</f>
+        <v>24</v>
+      </c>
+      <c r="BE86" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="AK86" s="30" t="s">
+      <c r="BF86" s="30" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="87" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A87" s="26" t="s">
         <v>200</v>
       </c>
@@ -10258,24 +10404,24 @@
       <c r="U87" s="29"/>
       <c r="V87" s="29"/>
       <c r="W87" s="29"/>
-      <c r="AA87" s="27" t="s">
+      <c r="AV87" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="AB87" s="27">
-        <v>24</v>
-      </c>
-      <c r="AI87">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="AJ87" s="27" t="s">
+      <c r="AW87" s="27">
+        <v>24</v>
+      </c>
+      <c r="BD87">
+        <f>SUM(AW87,AD87,AF87,AH87)</f>
+        <v>24</v>
+      </c>
+      <c r="BE87" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="AK87" s="31" t="s">
+      <c r="BF87" s="31" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="88" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A88" s="24" t="s">
         <v>200</v>
       </c>
@@ -10327,24 +10473,24 @@
       <c r="U88" s="29"/>
       <c r="V88" s="29"/>
       <c r="W88" s="29"/>
-      <c r="AA88" s="25" t="s">
+      <c r="AV88" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="AB88" s="25">
-        <v>24</v>
-      </c>
-      <c r="AI88">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="AJ88" s="25" t="s">
+      <c r="AW88" s="25">
+        <v>24</v>
+      </c>
+      <c r="BD88">
+        <f>SUM(AW88,AD88,AF88,AH88)</f>
+        <v>24</v>
+      </c>
+      <c r="BE88" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="AK88" s="30" t="s">
+      <c r="BF88" s="30" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="89" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A89" s="26" t="s">
         <v>200</v>
       </c>
@@ -10396,24 +10542,24 @@
       <c r="U89" s="29"/>
       <c r="V89" s="29"/>
       <c r="W89" s="29"/>
-      <c r="AA89" s="27" t="s">
+      <c r="AV89" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="AB89" s="27">
-        <v>24</v>
-      </c>
-      <c r="AI89">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="AJ89" s="27" t="s">
+      <c r="AW89" s="27">
+        <v>24</v>
+      </c>
+      <c r="BD89">
+        <f>SUM(AW89,AD89,AF89,AH89)</f>
+        <v>24</v>
+      </c>
+      <c r="BE89" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="AK89" s="31" t="s">
+      <c r="BF89" s="31" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="90" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A90" s="24" t="s">
         <v>207</v>
       </c>
@@ -10465,24 +10611,24 @@
       <c r="U90" s="29"/>
       <c r="V90" s="29"/>
       <c r="W90" s="29"/>
-      <c r="AA90" s="25" t="s">
+      <c r="AV90" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="AB90" s="25">
-        <v>24</v>
-      </c>
-      <c r="AI90">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="AJ90" s="25" t="s">
+      <c r="AW90" s="25">
+        <v>24</v>
+      </c>
+      <c r="BD90">
+        <f>SUM(AW90,AD90,AF90,AH90)</f>
+        <v>24</v>
+      </c>
+      <c r="BE90" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="AK90" s="30" t="s">
+      <c r="BF90" s="30" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="91" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A91" s="26" t="s">
         <v>207</v>
       </c>
@@ -10534,24 +10680,24 @@
       <c r="U91" s="29"/>
       <c r="V91" s="29"/>
       <c r="W91" s="29"/>
-      <c r="AA91" s="27" t="s">
+      <c r="AV91" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="AB91" s="27">
-        <v>24</v>
-      </c>
-      <c r="AI91">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="AJ91" s="27" t="s">
+      <c r="AW91" s="27">
+        <v>24</v>
+      </c>
+      <c r="BD91">
+        <f>SUM(AW91,AD91,AF91,AH91)</f>
+        <v>24</v>
+      </c>
+      <c r="BE91" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="AK91" s="31" t="s">
+      <c r="BF91" s="31" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="92" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A92" s="24" t="s">
         <v>207</v>
       </c>
@@ -10603,24 +10749,24 @@
       <c r="U92" s="29"/>
       <c r="V92" s="29"/>
       <c r="W92" s="29"/>
-      <c r="AA92" s="25" t="s">
+      <c r="AV92" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="AB92" s="25">
-        <v>24</v>
-      </c>
-      <c r="AI92">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="AJ92" s="25" t="s">
+      <c r="AW92" s="25">
+        <v>24</v>
+      </c>
+      <c r="BD92">
+        <f>SUM(AW92,AD92,AF92,AH92)</f>
+        <v>24</v>
+      </c>
+      <c r="BE92" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="AK92" s="30" t="s">
+      <c r="BF92" s="30" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="93" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A93" s="26" t="s">
         <v>207</v>
       </c>
@@ -10672,24 +10818,24 @@
       <c r="U93" s="29"/>
       <c r="V93" s="29"/>
       <c r="W93" s="29"/>
-      <c r="AA93" s="27" t="s">
+      <c r="AV93" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="AB93" s="27">
-        <v>24</v>
-      </c>
-      <c r="AI93">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="AJ93" s="27" t="s">
+      <c r="AW93" s="27">
+        <v>24</v>
+      </c>
+      <c r="BD93">
+        <f>SUM(AW93,AD93,AF93,AH93)</f>
+        <v>24</v>
+      </c>
+      <c r="BE93" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="AK93" s="31" t="s">
+      <c r="BF93" s="31" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="94" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A94" s="24" t="s">
         <v>200</v>
       </c>
@@ -10741,24 +10887,24 @@
       <c r="U94" s="29"/>
       <c r="V94" s="29"/>
       <c r="W94" s="29"/>
-      <c r="AA94" s="25" t="s">
+      <c r="AV94" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="AB94" s="25">
-        <v>24</v>
-      </c>
-      <c r="AI94">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="AJ94" s="25" t="s">
+      <c r="AW94" s="25">
+        <v>24</v>
+      </c>
+      <c r="BD94">
+        <f>SUM(AW94,AD94,AF94,AH94)</f>
+        <v>24</v>
+      </c>
+      <c r="BE94" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="AK94" s="30" t="s">
+      <c r="BF94" s="30" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="95" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A95" s="26" t="s">
         <v>207</v>
       </c>
@@ -10810,24 +10956,24 @@
       <c r="U95" s="29"/>
       <c r="V95" s="29"/>
       <c r="W95" s="29"/>
-      <c r="AA95" s="27" t="s">
+      <c r="AV95" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="AB95" s="27">
+      <c r="AW95" s="27">
         <v>72</v>
       </c>
-      <c r="AI95">
-        <f t="shared" si="1"/>
+      <c r="BD95">
+        <f>SUM(AW95,AD95,AF95,AH95)</f>
         <v>72</v>
       </c>
-      <c r="AJ95" s="27" t="s">
+      <c r="BE95" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="AK95" s="31" t="s">
+      <c r="BF95" s="31" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="96" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A96" s="24" t="s">
         <v>207</v>
       </c>
@@ -10879,24 +11025,24 @@
       <c r="U96" s="29"/>
       <c r="V96" s="29"/>
       <c r="W96" s="29"/>
-      <c r="AA96" s="25" t="s">
+      <c r="AV96" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="AB96" s="25">
-        <v>24</v>
-      </c>
-      <c r="AI96">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="AJ96" s="25" t="s">
+      <c r="AW96" s="25">
+        <v>24</v>
+      </c>
+      <c r="BD96">
+        <f>SUM(AW96,AD96,AF96,AH96)</f>
+        <v>24</v>
+      </c>
+      <c r="BE96" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="AK96" s="30" t="s">
+      <c r="BF96" s="30" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="97" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A97" s="26" t="s">
         <v>200</v>
       </c>
@@ -10948,24 +11094,24 @@
       <c r="U97" s="29"/>
       <c r="V97" s="29"/>
       <c r="W97" s="29"/>
-      <c r="AA97" s="27" t="s">
+      <c r="AV97" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="AB97" s="27">
-        <v>24</v>
-      </c>
-      <c r="AI97">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="AJ97" s="27" t="s">
+      <c r="AW97" s="27">
+        <v>24</v>
+      </c>
+      <c r="BD97">
+        <f>SUM(AW97,AD97,AF97,AH97)</f>
+        <v>24</v>
+      </c>
+      <c r="BE97" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="AK97" s="31" t="s">
+      <c r="BF97" s="31" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="98" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A98" s="24" t="s">
         <v>207</v>
       </c>
@@ -11017,24 +11163,24 @@
       <c r="U98" s="29"/>
       <c r="V98" s="29"/>
       <c r="W98" s="29"/>
-      <c r="AA98" s="25" t="s">
+      <c r="AV98" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="AB98" s="25">
-        <v>24</v>
-      </c>
-      <c r="AI98">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="AJ98" s="25" t="s">
+      <c r="AW98" s="25">
+        <v>24</v>
+      </c>
+      <c r="BD98">
+        <f>SUM(AW98,AD98,AF98,AH98)</f>
+        <v>24</v>
+      </c>
+      <c r="BE98" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="AK98" s="30" t="s">
+      <c r="BF98" s="30" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="99" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A99" s="26" t="s">
         <v>200</v>
       </c>
@@ -11086,24 +11232,24 @@
       <c r="U99" s="29"/>
       <c r="V99" s="29"/>
       <c r="W99" s="29"/>
-      <c r="AA99" s="27" t="s">
+      <c r="AV99" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="AB99" s="27">
-        <v>24</v>
-      </c>
-      <c r="AI99">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="AJ99" s="27" t="s">
+      <c r="AW99" s="27">
+        <v>24</v>
+      </c>
+      <c r="BD99">
+        <f>SUM(AW99,AD99,AF99,AH99)</f>
+        <v>24</v>
+      </c>
+      <c r="BE99" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="AK99" s="31" t="s">
+      <c r="BF99" s="31" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="100" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A100" s="24" t="s">
         <v>207</v>
       </c>
@@ -11155,24 +11301,24 @@
       <c r="U100" s="29"/>
       <c r="V100" s="29"/>
       <c r="W100" s="29"/>
-      <c r="AA100" s="25" t="s">
+      <c r="AV100" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="AB100" s="25">
-        <v>24</v>
-      </c>
-      <c r="AI100">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="AJ100" s="25" t="s">
+      <c r="AW100" s="25">
+        <v>24</v>
+      </c>
+      <c r="BD100">
+        <f>SUM(AW100,AD100,AF100,AH100)</f>
+        <v>24</v>
+      </c>
+      <c r="BE100" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="AK100" s="30" t="s">
+      <c r="BF100" s="30" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="101" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A101" s="26" t="s">
         <v>207</v>
       </c>
@@ -11224,24 +11370,24 @@
       <c r="U101" s="29"/>
       <c r="V101" s="29"/>
       <c r="W101" s="29"/>
-      <c r="AA101" s="27" t="s">
+      <c r="AV101" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="AB101" s="27">
-        <v>24</v>
-      </c>
-      <c r="AI101">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="AJ101" s="27" t="s">
+      <c r="AW101" s="27">
+        <v>24</v>
+      </c>
+      <c r="BD101">
+        <f>SUM(AW101,AD101,AF101,AH101)</f>
+        <v>24</v>
+      </c>
+      <c r="BE101" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="AK101" s="31" t="s">
+      <c r="BF101" s="31" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="102" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A102" s="24" t="s">
         <v>207</v>
       </c>
@@ -11293,24 +11439,24 @@
       <c r="U102" s="29"/>
       <c r="V102" s="29"/>
       <c r="W102" s="29"/>
-      <c r="AA102" s="25" t="s">
+      <c r="AV102" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="AB102" s="25">
-        <v>24</v>
-      </c>
-      <c r="AI102">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="AJ102" s="25" t="s">
+      <c r="AW102" s="25">
+        <v>24</v>
+      </c>
+      <c r="BD102">
+        <f>SUM(AW102,AD102,AF102,AH102)</f>
+        <v>24</v>
+      </c>
+      <c r="BE102" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="AK102" s="30" t="s">
+      <c r="BF102" s="30" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="103" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A103" s="26" t="s">
         <v>207</v>
       </c>
@@ -11362,24 +11508,24 @@
       <c r="U103" s="29"/>
       <c r="V103" s="29"/>
       <c r="W103" s="29"/>
-      <c r="AA103" s="27" t="s">
+      <c r="AV103" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="AB103" s="27">
-        <v>24</v>
-      </c>
-      <c r="AI103">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="AJ103" s="27" t="s">
+      <c r="AW103" s="27">
+        <v>24</v>
+      </c>
+      <c r="BD103">
+        <f>SUM(AW103,AD103,AF103,AH103)</f>
+        <v>24</v>
+      </c>
+      <c r="BE103" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="AK103" s="31" t="s">
+      <c r="BF103" s="31" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="104" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A104" s="24" t="s">
         <v>207</v>
       </c>
@@ -11431,24 +11577,24 @@
       <c r="U104" s="29"/>
       <c r="V104" s="29"/>
       <c r="W104" s="29"/>
-      <c r="AA104" s="25" t="s">
+      <c r="AV104" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="AB104" s="25">
-        <v>24</v>
-      </c>
-      <c r="AI104">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="AJ104" s="25" t="s">
+      <c r="AW104" s="25">
+        <v>24</v>
+      </c>
+      <c r="BD104">
+        <f>SUM(AW104,AD104,AF104,AH104)</f>
+        <v>24</v>
+      </c>
+      <c r="BE104" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="AK104" s="30" t="s">
+      <c r="BF104" s="30" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="105" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A105" s="26" t="s">
         <v>207</v>
       </c>
@@ -11500,24 +11646,24 @@
       <c r="U105" s="29"/>
       <c r="V105" s="29"/>
       <c r="W105" s="29"/>
-      <c r="AA105" s="27" t="s">
+      <c r="AV105" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="AB105" s="27">
-        <v>24</v>
-      </c>
-      <c r="AI105">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="AJ105" s="27" t="s">
+      <c r="AW105" s="27">
+        <v>24</v>
+      </c>
+      <c r="BD105">
+        <f>SUM(AW105,AD105,AF105,AH105)</f>
+        <v>24</v>
+      </c>
+      <c r="BE105" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="AK105" s="31" t="s">
+      <c r="BF105" s="31" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="106" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A106" s="24" t="s">
         <v>207</v>
       </c>
@@ -11569,24 +11715,24 @@
       <c r="U106" s="29"/>
       <c r="V106" s="29"/>
       <c r="W106" s="29"/>
-      <c r="AA106" s="25" t="s">
+      <c r="AV106" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="AB106" s="25">
-        <v>24</v>
-      </c>
-      <c r="AI106">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="AJ106" s="25" t="s">
+      <c r="AW106" s="25">
+        <v>24</v>
+      </c>
+      <c r="BD106">
+        <f>SUM(AW106,AD106,AF106,AH106)</f>
+        <v>24</v>
+      </c>
+      <c r="BE106" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="AK106" s="30" t="s">
+      <c r="BF106" s="30" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="107" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A107" s="26" t="s">
         <v>207</v>
       </c>
@@ -11638,24 +11784,24 @@
       <c r="U107" s="29"/>
       <c r="V107" s="29"/>
       <c r="W107" s="29"/>
-      <c r="AA107" s="27" t="s">
+      <c r="AV107" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="AB107" s="27">
-        <v>24</v>
-      </c>
-      <c r="AI107">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="AJ107" s="27" t="s">
+      <c r="AW107" s="27">
+        <v>24</v>
+      </c>
+      <c r="BD107">
+        <f>SUM(AW107,AD107,AF107,AH107)</f>
+        <v>24</v>
+      </c>
+      <c r="BE107" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="AK107" s="31" t="s">
+      <c r="BF107" s="31" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="108" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A108" s="24" t="s">
         <v>207</v>
       </c>
@@ -11707,24 +11853,24 @@
       <c r="U108" s="29"/>
       <c r="V108" s="29"/>
       <c r="W108" s="29"/>
-      <c r="AA108" s="25" t="s">
+      <c r="AV108" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="AB108" s="25">
-        <v>24</v>
-      </c>
-      <c r="AI108">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="AJ108" s="25" t="s">
+      <c r="AW108" s="25">
+        <v>24</v>
+      </c>
+      <c r="BD108">
+        <f>SUM(AW108,AD108,AF108,AH108)</f>
+        <v>24</v>
+      </c>
+      <c r="BE108" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="AK108" s="30" t="s">
+      <c r="BF108" s="30" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="109" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A109" s="26" t="s">
         <v>207</v>
       </c>
@@ -11776,24 +11922,24 @@
       <c r="U109" s="29"/>
       <c r="V109" s="29"/>
       <c r="W109" s="29"/>
-      <c r="AA109" s="27" t="s">
+      <c r="AV109" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="AB109" s="27">
-        <v>24</v>
-      </c>
-      <c r="AI109">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="AJ109" s="27" t="s">
+      <c r="AW109" s="27">
+        <v>24</v>
+      </c>
+      <c r="BD109">
+        <f>SUM(AW109,AD109,AF109,AH109)</f>
+        <v>24</v>
+      </c>
+      <c r="BE109" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="AK109" s="31" t="s">
+      <c r="BF109" s="31" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="110" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A110" s="24" t="s">
         <v>207</v>
       </c>
@@ -11845,24 +11991,24 @@
       <c r="U110" s="29"/>
       <c r="V110" s="29"/>
       <c r="W110" s="29"/>
-      <c r="AA110" s="25" t="s">
+      <c r="AV110" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="AB110" s="25">
-        <v>24</v>
-      </c>
-      <c r="AI110">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="AJ110" s="25" t="s">
+      <c r="AW110" s="25">
+        <v>24</v>
+      </c>
+      <c r="BD110">
+        <f>SUM(AW110,AD110,AF110,AH110)</f>
+        <v>24</v>
+      </c>
+      <c r="BE110" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="AK110" s="30" t="s">
+      <c r="BF110" s="30" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="111" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A111" s="26" t="s">
         <v>207</v>
       </c>
@@ -11914,20 +12060,20 @@
       <c r="U111" s="29"/>
       <c r="V111" s="29"/>
       <c r="W111" s="29"/>
-      <c r="AA111" s="27" t="s">
+      <c r="AV111" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="AB111" s="27">
-        <v>24</v>
-      </c>
-      <c r="AI111">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="AJ111" s="27" t="s">
+      <c r="AW111" s="27">
+        <v>24</v>
+      </c>
+      <c r="BD111">
+        <f>SUM(AW111,AD111,AF111,AH111)</f>
+        <v>24</v>
+      </c>
+      <c r="BE111" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="AK111" s="31" t="s">
+      <c r="BF111" s="31" t="s">
         <v>502</v>
       </c>
     </row>

--- a/Excels/MG.xlsx
+++ b/Excels/MG.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2912" uniqueCount="977">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2917" uniqueCount="982">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -2973,6 +2973,21 @@
   </si>
   <si>
     <t>Loan Amount (MGA)</t>
+  </si>
+  <si>
+    <t>Accumulator</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>Next Reset Date</t>
   </si>
 </sst>
 </file>
@@ -3341,7 +3356,7 @@
         <xdr:cNvPr id="3" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4276,10 +4291,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4354,6 +4369,8 @@
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
@@ -4377,6 +4394,8 @@
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -4400,6 +4419,8 @@
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
@@ -4429,6 +4450,8 @@
       <c r="I5" s="12" t="s">
         <v>975</v>
       </c>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
@@ -4450,6 +4473,8 @@
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
@@ -4471,6 +4496,8 @@
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
@@ -4494,6 +4521,8 @@
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
@@ -4517,6 +4546,8 @@
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
@@ -4706,6 +4737,29 @@
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="21" t="s">
+        <v>977</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>978</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>979</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>980</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>981</v>
+      </c>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excels/MG.xlsx
+++ b/Excels/MG.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2394650\IdeaProjects\cs-portal-automation_selenium1\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\23103239\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6855" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1457" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1402" uniqueCount="570">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -1290,78 +1290,6 @@
   </si>
   <si>
     <t>Recharge history</t>
-  </si>
-  <si>
-    <t>Complaint NFTR</t>
-  </si>
-  <si>
-    <t>NETWORK</t>
-  </si>
-  <si>
-    <t>Network complaint</t>
-  </si>
-  <si>
-    <t>Ntwk - Data Slow</t>
-  </si>
-  <si>
-    <t>COM600</t>
-  </si>
-  <si>
-    <t>Ntwk - Data Connectivity</t>
-  </si>
-  <si>
-    <t>COM601</t>
-  </si>
-  <si>
-    <t>Ntwk - Call Drops</t>
-  </si>
-  <si>
-    <t>COM602</t>
-  </si>
-  <si>
-    <t>Ntwk - Voice Quality</t>
-  </si>
-  <si>
-    <t>COM603</t>
-  </si>
-  <si>
-    <t>Ntwk - Cant make a Call</t>
-  </si>
-  <si>
-    <t>COM604</t>
-  </si>
-  <si>
-    <t>Ntwk - No Coverage</t>
-  </si>
-  <si>
-    <t>COM605</t>
-  </si>
-  <si>
-    <t>Ntwk - SMS Issues</t>
-  </si>
-  <si>
-    <t>COM606</t>
-  </si>
-  <si>
-    <t>Ntwk - Rmg</t>
-  </si>
-  <si>
-    <t>COM607</t>
-  </si>
-  <si>
-    <t>Ntwk - OneAirtel Rmg</t>
-  </si>
-  <si>
-    <t>COM608</t>
-  </si>
-  <si>
-    <t>Ntwk - Data Connectivity</t>
-  </si>
-  <si>
-    <t>New addition</t>
-  </si>
-  <si>
-    <t>Ntwk - Slt Blk Cals (to Agt)</t>
   </si>
   <si>
     <t>Complaint - NFTR</t>
@@ -3079,7 +3007,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -3140,7 +3068,7 @@
         <v>2394650</v>
       </c>
       <c r="B2" t="s">
-        <v>584</v>
+        <v>560</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>156</v>
@@ -3168,7 +3096,7 @@
         <v>2390495</v>
       </c>
       <c r="B4" t="s">
-        <v>593</v>
+        <v>569</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>159</v>
@@ -3182,7 +3110,7 @@
         <v>2394650</v>
       </c>
       <c r="B5" t="s">
-        <v>584</v>
+        <v>560</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>160</v>
@@ -3219,46 +3147,46 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>535</v>
+        <v>511</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>535</v>
+        <v>511</v>
       </c>
       <c r="C2" s="12"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>536</v>
+        <v>512</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>537</v>
+        <v>513</v>
       </c>
       <c r="C3" s="12"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>538</v>
+        <v>514</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>537</v>
+        <v>513</v>
       </c>
       <c r="C4" s="12"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>539</v>
+        <v>515</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>537</v>
+        <v>513</v>
       </c>
       <c r="C5" s="12"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>540</v>
+        <v>516</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>535</v>
+        <v>511</v>
       </c>
       <c r="C6" s="12" t="b">
         <v>1</v>
@@ -3363,33 +3291,33 @@
     </row>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
-        <v>445</v>
+        <v>421</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>541</v>
+        <v>517</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>542</v>
+        <v>518</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>551</v>
+        <v>527</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>526</v>
+        <v>502</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
-        <v>448</v>
+        <v>424</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>541</v>
+        <v>517</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>543</v>
+        <v>519</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>551</v>
+        <v>527</v>
       </c>
       <c r="E3" s="25" t="s">
         <v>31</v>
@@ -3397,16 +3325,16 @@
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
-        <v>450</v>
+        <v>426</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>541</v>
+        <v>517</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>543</v>
+        <v>519</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>551</v>
+        <v>527</v>
       </c>
       <c r="E4" s="25" t="s">
         <v>31</v>
@@ -3414,288 +3342,288 @@
     </row>
     <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
-        <v>453</v>
+        <v>429</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>541</v>
+        <v>517</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>544</v>
+        <v>520</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>551</v>
+        <v>527</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>527</v>
+        <v>503</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
-        <v>456</v>
+        <v>432</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>541</v>
+        <v>517</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>545</v>
+        <v>521</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>551</v>
+        <v>527</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>528</v>
+        <v>504</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
-        <v>458</v>
+        <v>434</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>541</v>
+        <v>517</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>546</v>
+        <v>522</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>551</v>
+        <v>527</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>529</v>
+        <v>505</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
-        <v>460</v>
+        <v>436</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>541</v>
+        <v>517</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>547</v>
+        <v>523</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>551</v>
+        <v>527</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>530</v>
+        <v>506</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
-        <v>462</v>
+        <v>438</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>541</v>
+        <v>517</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>546</v>
+        <v>522</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>551</v>
+        <v>527</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>529</v>
+        <v>505</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
-        <v>464</v>
+        <v>440</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>541</v>
+        <v>517</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>545</v>
+        <v>521</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>551</v>
+        <v>527</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>528</v>
+        <v>504</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
-        <v>466</v>
+        <v>442</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>541</v>
+        <v>517</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>546</v>
+        <v>522</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>551</v>
+        <v>527</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>529</v>
+        <v>505</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
-        <v>468</v>
+        <v>444</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>541</v>
+        <v>517</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>546</v>
+        <v>522</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>551</v>
+        <v>527</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>529</v>
+        <v>505</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
-        <v>470</v>
+        <v>446</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>541</v>
+        <v>517</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>546</v>
+        <v>522</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>551</v>
+        <v>527</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>529</v>
+        <v>505</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
-        <v>473</v>
+        <v>449</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>541</v>
+        <v>517</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>548</v>
+        <v>524</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>551</v>
+        <v>527</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>531</v>
+        <v>507</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
-        <v>476</v>
+        <v>452</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>541</v>
+        <v>517</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>549</v>
+        <v>525</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>551</v>
+        <v>527</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>532</v>
+        <v>508</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
-        <v>478</v>
+        <v>454</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>541</v>
+        <v>517</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>549</v>
+        <v>525</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>551</v>
+        <v>527</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>532</v>
+        <v>508</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
-        <v>480</v>
+        <v>456</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>541</v>
+        <v>517</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>549</v>
+        <v>525</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>551</v>
+        <v>527</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>532</v>
+        <v>508</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
-        <v>483</v>
+        <v>459</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>541</v>
+        <v>517</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>550</v>
+        <v>526</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>551</v>
+        <v>527</v>
       </c>
       <c r="E18" s="25" t="s">
-        <v>533</v>
+        <v>509</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="24" t="s">
-        <v>485</v>
+        <v>461</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>541</v>
+        <v>517</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>550</v>
+        <v>526</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>551</v>
+        <v>527</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>533</v>
+        <v>509</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
-        <v>487</v>
+        <v>463</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>541</v>
+        <v>517</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>550</v>
+        <v>526</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>551</v>
+        <v>527</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>533</v>
+        <v>509</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
-        <v>489</v>
+        <v>465</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>541</v>
+        <v>517</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>543</v>
+        <v>519</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>551</v>
+        <v>527</v>
       </c>
       <c r="E21" s="25" t="s">
         <v>31</v>
@@ -3759,78 +3687,78 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>552</v>
+        <v>528</v>
       </c>
       <c r="C2" t="s">
-        <v>553</v>
+        <v>529</v>
       </c>
       <c r="D2" t="s">
-        <v>554</v>
+        <v>530</v>
       </c>
       <c r="E2" t="s">
-        <v>555</v>
+        <v>531</v>
       </c>
       <c r="F2" t="s">
-        <v>556</v>
+        <v>532</v>
       </c>
       <c r="G2" t="s">
-        <v>557</v>
+        <v>533</v>
       </c>
       <c r="H2" t="s">
-        <v>558</v>
+        <v>534</v>
       </c>
       <c r="I2" t="s">
-        <v>559</v>
+        <v>535</v>
       </c>
       <c r="J2" t="s">
-        <v>560</v>
+        <v>536</v>
       </c>
       <c r="K2" t="s">
-        <v>561</v>
+        <v>537</v>
       </c>
       <c r="L2" t="s">
-        <v>562</v>
+        <v>538</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="51" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>563</v>
+        <v>539</v>
       </c>
       <c r="B3" s="26"/>
       <c r="C3" s="26" t="s">
-        <v>553</v>
+        <v>529</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>561</v>
+        <v>537</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>564</v>
+        <v>540</v>
       </c>
       <c r="F3" s="26" t="s">
-        <v>565</v>
+        <v>541</v>
       </c>
       <c r="G3" s="26" t="s">
-        <v>566</v>
+        <v>542</v>
       </c>
       <c r="H3" s="26" t="s">
-        <v>567</v>
+        <v>543</v>
       </c>
       <c r="I3" s="26"/>
       <c r="J3" s="26"/>
     </row>
     <row r="4" spans="1:13" ht="51" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>568</v>
+        <v>544</v>
       </c>
       <c r="B4" s="27"/>
       <c r="C4" s="26" t="s">
-        <v>553</v>
+        <v>529</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>569</v>
+        <v>545</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>566</v>
+        <v>542</v>
       </c>
       <c r="F4" s="26"/>
       <c r="G4" s="26"/>
@@ -3939,44 +3867,44 @@
     </row>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>577</v>
+        <v>553</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>535</v>
+        <v>511</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>536</v>
+        <v>512</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>538</v>
+        <v>514</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>526</v>
+        <v>502</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>535</v>
+        <v>511</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>536</v>
+        <v>512</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>538</v>
+        <v>514</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>527</v>
+        <v>503</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>535</v>
+        <v>511</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>536</v>
+        <v>512</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>538</v>
+        <v>514</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -3984,41 +3912,41 @@
         <v>224</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>535</v>
+        <v>511</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>536</v>
+        <v>512</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>538</v>
+        <v>514</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>578</v>
+        <v>554</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>535</v>
+        <v>511</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>536</v>
+        <v>512</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>538</v>
+        <v>514</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>579</v>
+        <v>555</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>535</v>
+        <v>511</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>536</v>
+        <v>512</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>538</v>
+        <v>514</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -4026,69 +3954,69 @@
         <v>31</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>535</v>
+        <v>511</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>536</v>
+        <v>512</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>538</v>
+        <v>514</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>532</v>
+        <v>508</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>535</v>
+        <v>511</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>536</v>
+        <v>512</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>538</v>
+        <v>514</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>580</v>
+        <v>556</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>535</v>
+        <v>511</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>536</v>
+        <v>512</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>538</v>
+        <v>514</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="31" t="s">
-        <v>581</v>
+        <v>557</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>535</v>
+        <v>511</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>536</v>
+        <v>512</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>538</v>
+        <v>514</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="32" t="s">
-        <v>576</v>
+        <v>552</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>535</v>
+        <v>511</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>536</v>
+        <v>512</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>538</v>
+        <v>514</v>
       </c>
     </row>
   </sheetData>
@@ -4380,7 +4308,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BH4"/>
   <sheetViews>
-    <sheetView topLeftCell="AR1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AY3" sqref="AY3"/>
     </sheetView>
   </sheetViews>
@@ -4466,16 +4394,16 @@
         <v>70</v>
       </c>
       <c r="AA1" s="34" t="s">
-        <v>585</v>
+        <v>561</v>
       </c>
       <c r="AB1" s="34" t="s">
-        <v>586</v>
+        <v>562</v>
       </c>
       <c r="AC1" s="34" t="s">
         <v>70</v>
       </c>
       <c r="AD1" s="34" t="s">
-        <v>587</v>
+        <v>563</v>
       </c>
       <c r="AE1" s="34" t="s">
         <v>72</v>
@@ -4484,7 +4412,7 @@
         <v>70</v>
       </c>
       <c r="AG1" s="34" t="s">
-        <v>588</v>
+        <v>564</v>
       </c>
       <c r="AH1" s="34" t="s">
         <v>74</v>
@@ -4493,7 +4421,7 @@
         <v>70</v>
       </c>
       <c r="AJ1" s="34" t="s">
-        <v>589</v>
+        <v>565</v>
       </c>
       <c r="AK1" s="34" t="s">
         <v>76</v>
@@ -4502,7 +4430,7 @@
         <v>70</v>
       </c>
       <c r="AM1" s="34" t="s">
-        <v>590</v>
+        <v>566</v>
       </c>
       <c r="AN1" s="34" t="s">
         <v>78</v>
@@ -4511,7 +4439,7 @@
         <v>70</v>
       </c>
       <c r="AP1" s="34" t="s">
-        <v>591</v>
+        <v>567</v>
       </c>
       <c r="AQ1" s="34" t="s">
         <v>80</v>
@@ -4520,7 +4448,7 @@
         <v>70</v>
       </c>
       <c r="AS1" t="s">
-        <v>592</v>
+        <v>568</v>
       </c>
       <c r="AT1" t="s">
         <v>82</v>
@@ -4568,49 +4496,49 @@
     </row>
     <row r="2" spans="1:60" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>441</v>
+        <v>417</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>442</v>
+        <v>418</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>443</v>
+        <v>419</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>444</v>
+        <v>420</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>445</v>
+        <v>421</v>
       </c>
       <c r="F2" t="s">
-        <v>490</v>
+        <v>466</v>
       </c>
       <c r="G2" t="s">
-        <v>491</v>
+        <v>467</v>
       </c>
       <c r="H2" t="s">
-        <v>492</v>
+        <v>468</v>
       </c>
       <c r="I2" t="s">
-        <v>493</v>
+        <v>469</v>
       </c>
       <c r="J2" t="s">
-        <v>494</v>
+        <v>470</v>
       </c>
       <c r="K2" t="s">
-        <v>495</v>
+        <v>471</v>
       </c>
       <c r="L2" t="s">
-        <v>496</v>
+        <v>472</v>
       </c>
       <c r="M2" t="s">
-        <v>491</v>
+        <v>467</v>
       </c>
       <c r="N2" t="s">
-        <v>492</v>
+        <v>468</v>
       </c>
       <c r="AV2" s="13" t="s">
-        <v>526</v>
+        <v>502</v>
       </c>
       <c r="AW2" s="15">
         <v>8</v>
@@ -4619,54 +4547,54 @@
         <v>8</v>
       </c>
       <c r="BE2" s="13" t="s">
-        <v>526</v>
+        <v>502</v>
       </c>
       <c r="BF2" s="12" t="s">
-        <v>534</v>
+        <v>510</v>
       </c>
     </row>
     <row r="3" spans="1:60" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>441</v>
+        <v>417</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>442</v>
+        <v>418</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>446</v>
+        <v>422</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>447</v>
+        <v>423</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>448</v>
+        <v>424</v>
       </c>
       <c r="F3" t="s">
-        <v>497</v>
+        <v>473</v>
       </c>
       <c r="G3" t="s">
         <v>33</v>
       </c>
       <c r="H3" t="s">
-        <v>492</v>
+        <v>468</v>
       </c>
       <c r="I3" t="s">
-        <v>498</v>
+        <v>474</v>
       </c>
       <c r="J3" t="s">
-        <v>494</v>
+        <v>470</v>
       </c>
       <c r="K3" t="s">
-        <v>495</v>
+        <v>471</v>
       </c>
       <c r="L3" t="s">
-        <v>499</v>
+        <v>475</v>
       </c>
       <c r="M3" t="s">
-        <v>491</v>
+        <v>467</v>
       </c>
       <c r="N3" t="s">
-        <v>492</v>
+        <v>468</v>
       </c>
       <c r="AV3" s="13" t="s">
         <v>31</v>
@@ -4686,46 +4614,46 @@
     </row>
     <row r="4" spans="1:60" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>441</v>
+        <v>417</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>442</v>
+        <v>418</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>446</v>
+        <v>422</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>449</v>
+        <v>425</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>450</v>
+        <v>426</v>
       </c>
       <c r="F4" t="s">
-        <v>497</v>
+        <v>473</v>
       </c>
       <c r="G4" t="s">
         <v>33</v>
       </c>
       <c r="H4" t="s">
-        <v>492</v>
+        <v>468</v>
       </c>
       <c r="I4" t="s">
-        <v>499</v>
+        <v>475</v>
       </c>
       <c r="J4" t="s">
-        <v>491</v>
+        <v>467</v>
       </c>
       <c r="K4" t="s">
-        <v>492</v>
+        <v>468</v>
       </c>
       <c r="L4" t="s">
-        <v>500</v>
+        <v>476</v>
       </c>
       <c r="M4" t="s">
-        <v>491</v>
+        <v>467</v>
       </c>
       <c r="N4" t="s">
-        <v>492</v>
+        <v>468</v>
       </c>
       <c r="AV4" s="13" t="s">
         <v>31</v>
@@ -4851,10 +4779,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BH32"/>
+  <dimension ref="A1:BH21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4939,16 +4867,16 @@
         <v>70</v>
       </c>
       <c r="AA1" s="34" t="s">
-        <v>585</v>
+        <v>561</v>
       </c>
       <c r="AB1" s="34" t="s">
-        <v>586</v>
+        <v>562</v>
       </c>
       <c r="AC1" s="34" t="s">
         <v>70</v>
       </c>
       <c r="AD1" s="34" t="s">
-        <v>587</v>
+        <v>563</v>
       </c>
       <c r="AE1" s="34" t="s">
         <v>72</v>
@@ -4957,7 +4885,7 @@
         <v>70</v>
       </c>
       <c r="AG1" s="34" t="s">
-        <v>588</v>
+        <v>564</v>
       </c>
       <c r="AH1" s="34" t="s">
         <v>74</v>
@@ -4966,7 +4894,7 @@
         <v>70</v>
       </c>
       <c r="AJ1" s="34" t="s">
-        <v>589</v>
+        <v>565</v>
       </c>
       <c r="AK1" s="34" t="s">
         <v>76</v>
@@ -4975,7 +4903,7 @@
         <v>70</v>
       </c>
       <c r="AM1" s="34" t="s">
-        <v>590</v>
+        <v>566</v>
       </c>
       <c r="AN1" s="34" t="s">
         <v>78</v>
@@ -4984,7 +4912,7 @@
         <v>70</v>
       </c>
       <c r="AP1" s="34" t="s">
-        <v>591</v>
+        <v>567</v>
       </c>
       <c r="AQ1" s="34" t="s">
         <v>80</v>
@@ -4993,7 +4921,7 @@
         <v>70</v>
       </c>
       <c r="AS1" t="s">
-        <v>592</v>
+        <v>568</v>
       </c>
       <c r="AT1" t="s">
         <v>82</v>
@@ -5039,7 +4967,7 @@
       </c>
       <c r="BH1" s="35"/>
     </row>
-    <row r="2" spans="1:60" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:60" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>417</v>
       </c>
@@ -5049,14 +4977,56 @@
       <c r="C2" s="14" t="s">
         <v>419</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="13" t="s">
         <v>420</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="3" spans="1:60" ht="51" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>466</v>
+      </c>
+      <c r="G2" t="s">
+        <v>467</v>
+      </c>
+      <c r="H2" t="s">
+        <v>468</v>
+      </c>
+      <c r="I2" t="s">
+        <v>469</v>
+      </c>
+      <c r="J2" t="s">
+        <v>470</v>
+      </c>
+      <c r="K2" t="s">
+        <v>471</v>
+      </c>
+      <c r="L2" t="s">
+        <v>472</v>
+      </c>
+      <c r="M2" t="s">
+        <v>467</v>
+      </c>
+      <c r="N2" t="s">
+        <v>468</v>
+      </c>
+      <c r="AW2" s="13" t="s">
+        <v>502</v>
+      </c>
+      <c r="AX2" s="15">
+        <v>8</v>
+      </c>
+      <c r="BD2" s="15">
+        <v>8</v>
+      </c>
+      <c r="BE2" s="13" t="s">
+        <v>502</v>
+      </c>
+      <c r="BF2" s="12" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="3" spans="1:60" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>417</v>
       </c>
@@ -5064,13 +5034,55 @@
         <v>418</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>419</v>
-      </c>
-      <c r="D3" s="16" t="s">
         <v>422</v>
       </c>
+      <c r="D3" s="13" t="s">
+        <v>423</v>
+      </c>
       <c r="E3" s="15" t="s">
-        <v>423</v>
+        <v>424</v>
+      </c>
+      <c r="F3" t="s">
+        <v>473</v>
+      </c>
+      <c r="G3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" t="s">
+        <v>468</v>
+      </c>
+      <c r="I3" t="s">
+        <v>474</v>
+      </c>
+      <c r="J3" t="s">
+        <v>470</v>
+      </c>
+      <c r="K3" t="s">
+        <v>471</v>
+      </c>
+      <c r="L3" t="s">
+        <v>475</v>
+      </c>
+      <c r="M3" t="s">
+        <v>467</v>
+      </c>
+      <c r="N3" t="s">
+        <v>468</v>
+      </c>
+      <c r="AW3" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AX3" s="15">
+        <v>8</v>
+      </c>
+      <c r="BD3" s="15">
+        <v>8</v>
+      </c>
+      <c r="BE3" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="BF3" s="12" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:60" ht="38.25" x14ac:dyDescent="0.25">
@@ -5081,16 +5093,58 @@
         <v>418</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>419</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>424</v>
+        <v>422</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>425</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="5" spans="1:60" ht="38.25" x14ac:dyDescent="0.25">
+        <v>426</v>
+      </c>
+      <c r="F4" t="s">
+        <v>473</v>
+      </c>
+      <c r="G4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" t="s">
+        <v>468</v>
+      </c>
+      <c r="I4" t="s">
+        <v>475</v>
+      </c>
+      <c r="J4" t="s">
+        <v>467</v>
+      </c>
+      <c r="K4" t="s">
+        <v>468</v>
+      </c>
+      <c r="L4" t="s">
+        <v>476</v>
+      </c>
+      <c r="M4" t="s">
+        <v>467</v>
+      </c>
+      <c r="N4" t="s">
+        <v>468</v>
+      </c>
+      <c r="AW4" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AX4" s="15">
+        <v>8</v>
+      </c>
+      <c r="BD4" s="15">
+        <v>8</v>
+      </c>
+      <c r="BE4" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="BF4" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:60" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>417</v>
       </c>
@@ -5098,16 +5152,58 @@
         <v>418</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>419</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>426</v>
+        <v>427</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>428</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="6" spans="1:60" ht="38.25" x14ac:dyDescent="0.25">
+        <v>429</v>
+      </c>
+      <c r="F5" t="s">
+        <v>477</v>
+      </c>
+      <c r="G5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" t="s">
+        <v>468</v>
+      </c>
+      <c r="I5" t="s">
+        <v>478</v>
+      </c>
+      <c r="J5" t="s">
+        <v>467</v>
+      </c>
+      <c r="K5" t="s">
+        <v>468</v>
+      </c>
+      <c r="L5" t="s">
+        <v>479</v>
+      </c>
+      <c r="M5" t="s">
+        <v>467</v>
+      </c>
+      <c r="N5" t="s">
+        <v>468</v>
+      </c>
+      <c r="AW5" s="13" t="s">
+        <v>503</v>
+      </c>
+      <c r="AX5" s="15">
+        <v>24</v>
+      </c>
+      <c r="BD5" s="15">
+        <v>24</v>
+      </c>
+      <c r="BE5" s="13" t="s">
+        <v>503</v>
+      </c>
+      <c r="BF5" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:60" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>417</v>
       </c>
@@ -5115,13 +5211,46 @@
         <v>418</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>419</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>428</v>
+        <v>430</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>431</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>429</v>
+        <v>432</v>
+      </c>
+      <c r="F6" t="s">
+        <v>480</v>
+      </c>
+      <c r="G6" t="s">
+        <v>467</v>
+      </c>
+      <c r="H6" t="s">
+        <v>468</v>
+      </c>
+      <c r="I6" t="s">
+        <v>481</v>
+      </c>
+      <c r="J6" t="s">
+        <v>467</v>
+      </c>
+      <c r="K6" t="s">
+        <v>468</v>
+      </c>
+      <c r="AW6" s="13" t="s">
+        <v>504</v>
+      </c>
+      <c r="AX6" s="15">
+        <v>8</v>
+      </c>
+      <c r="BD6" s="15">
+        <v>8</v>
+      </c>
+      <c r="BE6" s="13" t="s">
+        <v>504</v>
+      </c>
+      <c r="BF6" s="12" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:60" ht="25.5" x14ac:dyDescent="0.25">
@@ -5132,16 +5261,58 @@
         <v>418</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>419</v>
-      </c>
-      <c r="D7" s="16" t="s">
         <v>430</v>
       </c>
+      <c r="D7" s="13" t="s">
+        <v>433</v>
+      </c>
       <c r="E7" s="15" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="8" spans="1:60" ht="38.25" x14ac:dyDescent="0.25">
+        <v>434</v>
+      </c>
+      <c r="F7" t="s">
+        <v>482</v>
+      </c>
+      <c r="G7" t="s">
+        <v>467</v>
+      </c>
+      <c r="H7" t="s">
+        <v>468</v>
+      </c>
+      <c r="I7" t="s">
+        <v>483</v>
+      </c>
+      <c r="J7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" t="s">
+        <v>468</v>
+      </c>
+      <c r="L7" t="s">
+        <v>484</v>
+      </c>
+      <c r="M7" t="s">
+        <v>467</v>
+      </c>
+      <c r="N7" t="s">
+        <v>468</v>
+      </c>
+      <c r="AW7" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="AX7" s="15">
+        <v>8</v>
+      </c>
+      <c r="BD7" s="15">
+        <v>8</v>
+      </c>
+      <c r="BE7" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="BF7" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:60" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>417</v>
       </c>
@@ -5149,13 +5320,46 @@
         <v>418</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>419</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>432</v>
+        <v>430</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>435</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>433</v>
+        <v>436</v>
+      </c>
+      <c r="F8" t="s">
+        <v>485</v>
+      </c>
+      <c r="G8" t="s">
+        <v>467</v>
+      </c>
+      <c r="H8" t="s">
+        <v>468</v>
+      </c>
+      <c r="I8" t="s">
+        <v>486</v>
+      </c>
+      <c r="J8" t="s">
+        <v>467</v>
+      </c>
+      <c r="K8" t="s">
+        <v>468</v>
+      </c>
+      <c r="AW8" s="13" t="s">
+        <v>506</v>
+      </c>
+      <c r="AX8" s="15">
+        <v>8</v>
+      </c>
+      <c r="BD8" s="15">
+        <v>8</v>
+      </c>
+      <c r="BE8" s="13" t="s">
+        <v>506</v>
+      </c>
+      <c r="BF8" s="12" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="9" spans="1:60" ht="25.5" x14ac:dyDescent="0.25">
@@ -5166,16 +5370,49 @@
         <v>418</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>419</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>434</v>
+        <v>430</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>437</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="10" spans="1:60" ht="38.25" x14ac:dyDescent="0.25">
+        <v>438</v>
+      </c>
+      <c r="F9" t="s">
+        <v>487</v>
+      </c>
+      <c r="G9" t="s">
+        <v>467</v>
+      </c>
+      <c r="H9" t="s">
+        <v>468</v>
+      </c>
+      <c r="I9" t="s">
+        <v>488</v>
+      </c>
+      <c r="J9" t="s">
+        <v>467</v>
+      </c>
+      <c r="K9" t="s">
+        <v>468</v>
+      </c>
+      <c r="AW9" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="AX9" s="15">
+        <v>8</v>
+      </c>
+      <c r="BD9" s="15">
+        <v>8</v>
+      </c>
+      <c r="BE9" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="BF9" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:60" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>417</v>
       </c>
@@ -5183,16 +5420,49 @@
         <v>418</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>419</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>436</v>
+        <v>430</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>439</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="11" spans="1:60" ht="51" x14ac:dyDescent="0.25">
+        <v>440</v>
+      </c>
+      <c r="F10" t="s">
+        <v>475</v>
+      </c>
+      <c r="G10" t="s">
+        <v>467</v>
+      </c>
+      <c r="H10" t="s">
+        <v>468</v>
+      </c>
+      <c r="I10" t="s">
+        <v>489</v>
+      </c>
+      <c r="J10" t="s">
+        <v>467</v>
+      </c>
+      <c r="K10" t="s">
+        <v>468</v>
+      </c>
+      <c r="AW10" s="13" t="s">
+        <v>504</v>
+      </c>
+      <c r="AX10" s="15">
+        <v>8</v>
+      </c>
+      <c r="BD10" s="15">
+        <v>8</v>
+      </c>
+      <c r="BE10" s="13" t="s">
+        <v>504</v>
+      </c>
+      <c r="BF10" s="12" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="11" spans="1:60" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>417</v>
       </c>
@@ -5200,16 +5470,58 @@
         <v>418</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>419</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>438</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="12" spans="1:60" ht="38.25" x14ac:dyDescent="0.25">
+        <v>430</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>441</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>442</v>
+      </c>
+      <c r="F11" t="s">
+        <v>480</v>
+      </c>
+      <c r="G11" t="s">
+        <v>467</v>
+      </c>
+      <c r="H11" t="s">
+        <v>468</v>
+      </c>
+      <c r="I11" t="s">
+        <v>489</v>
+      </c>
+      <c r="J11" t="s">
+        <v>467</v>
+      </c>
+      <c r="K11" t="s">
+        <v>468</v>
+      </c>
+      <c r="L11" t="s">
+        <v>475</v>
+      </c>
+      <c r="M11" t="s">
+        <v>467</v>
+      </c>
+      <c r="N11" t="s">
+        <v>468</v>
+      </c>
+      <c r="AW11" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="AX11" s="15">
+        <v>8</v>
+      </c>
+      <c r="BD11" s="15">
+        <v>8</v>
+      </c>
+      <c r="BE11" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="BF11" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:60" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>417</v>
       </c>
@@ -5217,60 +5529,84 @@
         <v>418</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>419</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>440</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="13" spans="1:60" ht="38.25" x14ac:dyDescent="0.25">
+        <v>430</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>443</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>444</v>
+      </c>
+      <c r="F12" t="s">
+        <v>490</v>
+      </c>
+      <c r="G12" t="s">
+        <v>467</v>
+      </c>
+      <c r="H12" t="s">
+        <v>468</v>
+      </c>
+      <c r="I12" t="s">
+        <v>491</v>
+      </c>
+      <c r="J12" t="s">
+        <v>467</v>
+      </c>
+      <c r="K12" t="s">
+        <v>468</v>
+      </c>
+      <c r="L12" t="s">
+        <v>475</v>
+      </c>
+      <c r="M12" t="s">
+        <v>467</v>
+      </c>
+      <c r="N12" t="s">
+        <v>468</v>
+      </c>
+      <c r="AW12" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="AX12" s="15">
+        <v>8</v>
+      </c>
+      <c r="BD12" s="15">
+        <v>8</v>
+      </c>
+      <c r="BE12" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="BF12" s="12" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="13" spans="1:60" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>441</v>
+        <v>417</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>442</v>
+        <v>418</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F13" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="G13" t="s">
-        <v>491</v>
+        <v>467</v>
       </c>
       <c r="H13" t="s">
-        <v>492</v>
-      </c>
-      <c r="I13" t="s">
-        <v>493</v>
-      </c>
-      <c r="J13" t="s">
-        <v>494</v>
-      </c>
-      <c r="K13" t="s">
-        <v>495</v>
-      </c>
-      <c r="L13" t="s">
-        <v>496</v>
-      </c>
-      <c r="M13" t="s">
-        <v>491</v>
-      </c>
-      <c r="N13" t="s">
-        <v>492</v>
+        <v>468</v>
       </c>
       <c r="AW13" s="13" t="s">
-        <v>526</v>
+        <v>505</v>
       </c>
       <c r="AX13" s="15">
         <v>8</v>
@@ -5279,66 +5615,66 @@
         <v>8</v>
       </c>
       <c r="BE13" s="13" t="s">
-        <v>526</v>
+        <v>505</v>
       </c>
       <c r="BF13" s="12" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="14" spans="1:60" ht="38.25" x14ac:dyDescent="0.25">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="14" spans="1:60" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>441</v>
+        <v>417</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>442</v>
+        <v>418</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F14" t="s">
-        <v>497</v>
+        <v>33</v>
       </c>
       <c r="G14" t="s">
         <v>33</v>
       </c>
       <c r="H14" t="s">
+        <v>468</v>
+      </c>
+      <c r="I14" t="s">
         <v>492</v>
       </c>
-      <c r="I14" t="s">
-        <v>498</v>
-      </c>
       <c r="J14" t="s">
-        <v>494</v>
+        <v>467</v>
       </c>
       <c r="K14" t="s">
-        <v>495</v>
+        <v>468</v>
       </c>
       <c r="L14" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="M14" t="s">
-        <v>491</v>
+        <v>467</v>
       </c>
       <c r="N14" t="s">
-        <v>492</v>
+        <v>468</v>
       </c>
       <c r="AW14" s="13" t="s">
-        <v>31</v>
+        <v>507</v>
       </c>
       <c r="AX14" s="15">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="BD14" s="15">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="BE14" s="13" t="s">
-        <v>31</v>
+        <v>507</v>
       </c>
       <c r="BF14" s="12" t="s">
         <v>16</v>
@@ -5346,49 +5682,49 @@
     </row>
     <row r="15" spans="1:60" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>441</v>
+        <v>417</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>442</v>
+        <v>418</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="F15" t="s">
-        <v>497</v>
+        <v>33</v>
       </c>
       <c r="G15" t="s">
         <v>33</v>
       </c>
       <c r="H15" t="s">
-        <v>492</v>
+        <v>468</v>
       </c>
       <c r="I15" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="J15" t="s">
-        <v>491</v>
+        <v>467</v>
       </c>
       <c r="K15" t="s">
-        <v>492</v>
+        <v>468</v>
       </c>
       <c r="L15" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="M15" t="s">
-        <v>491</v>
+        <v>467</v>
       </c>
       <c r="N15" t="s">
-        <v>492</v>
+        <v>468</v>
       </c>
       <c r="AW15" s="13" t="s">
-        <v>31</v>
+        <v>508</v>
       </c>
       <c r="AX15" s="15">
         <v>8</v>
@@ -5397,80 +5733,80 @@
         <v>8</v>
       </c>
       <c r="BE15" s="13" t="s">
-        <v>31</v>
+        <v>508</v>
       </c>
       <c r="BF15" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:60" ht="25.5" x14ac:dyDescent="0.25">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="16" spans="1:60" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>441</v>
+        <v>417</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>442</v>
+        <v>418</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="F16" t="s">
-        <v>501</v>
+        <v>33</v>
       </c>
       <c r="G16" t="s">
         <v>33</v>
       </c>
       <c r="H16" t="s">
-        <v>492</v>
+        <v>468</v>
       </c>
       <c r="I16" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="J16" t="s">
-        <v>491</v>
+        <v>467</v>
       </c>
       <c r="K16" t="s">
-        <v>492</v>
+        <v>468</v>
       </c>
       <c r="L16" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="M16" t="s">
-        <v>491</v>
+        <v>467</v>
       </c>
       <c r="N16" t="s">
-        <v>492</v>
+        <v>468</v>
       </c>
       <c r="AW16" s="13" t="s">
-        <v>527</v>
+        <v>508</v>
       </c>
       <c r="AX16" s="15">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="BD16" s="15">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="BE16" s="13" t="s">
-        <v>527</v>
+        <v>508</v>
       </c>
       <c r="BF16" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:58" ht="25.5" x14ac:dyDescent="0.25">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="17" spans="1:58" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>441</v>
+        <v>417</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>442</v>
+        <v>418</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="D17" s="13" t="s">
         <v>455</v>
@@ -5479,25 +5815,25 @@
         <v>456</v>
       </c>
       <c r="F17" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="G17" t="s">
-        <v>491</v>
+        <v>467</v>
       </c>
       <c r="H17" t="s">
+        <v>468</v>
+      </c>
+      <c r="I17" t="s">
         <v>492</v>
       </c>
-      <c r="I17" t="s">
-        <v>505</v>
-      </c>
       <c r="J17" t="s">
-        <v>491</v>
+        <v>467</v>
       </c>
       <c r="K17" t="s">
-        <v>492</v>
+        <v>468</v>
       </c>
       <c r="AW17" s="13" t="s">
-        <v>528</v>
+        <v>508</v>
       </c>
       <c r="AX17" s="15">
         <v>8</v>
@@ -5506,57 +5842,57 @@
         <v>8</v>
       </c>
       <c r="BE17" s="13" t="s">
-        <v>528</v>
+        <v>508</v>
       </c>
       <c r="BF17" s="12" t="s">
-        <v>16</v>
+        <v>510</v>
       </c>
     </row>
     <row r="18" spans="1:58" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>441</v>
+        <v>417</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>442</v>
+        <v>418</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F18" t="s">
-        <v>506</v>
+        <v>487</v>
       </c>
       <c r="G18" t="s">
-        <v>491</v>
+        <v>467</v>
       </c>
       <c r="H18" t="s">
-        <v>492</v>
+        <v>468</v>
       </c>
       <c r="I18" t="s">
-        <v>507</v>
+        <v>488</v>
       </c>
       <c r="J18" t="s">
-        <v>33</v>
+        <v>467</v>
       </c>
       <c r="K18" t="s">
-        <v>492</v>
+        <v>468</v>
       </c>
       <c r="L18" t="s">
-        <v>508</v>
+        <v>495</v>
       </c>
       <c r="M18" t="s">
-        <v>491</v>
+        <v>467</v>
       </c>
       <c r="N18" t="s">
-        <v>492</v>
+        <v>468</v>
       </c>
       <c r="AW18" s="13" t="s">
-        <v>529</v>
+        <v>509</v>
       </c>
       <c r="AX18" s="15">
         <v>8</v>
@@ -5565,7 +5901,7 @@
         <v>8</v>
       </c>
       <c r="BE18" s="13" t="s">
-        <v>529</v>
+        <v>509</v>
       </c>
       <c r="BF18" s="12" t="s">
         <v>16</v>
@@ -5573,40 +5909,49 @@
     </row>
     <row r="19" spans="1:58" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>441</v>
+        <v>417</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>442</v>
+        <v>418</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F19" t="s">
+        <v>497</v>
+      </c>
+      <c r="G19" t="s">
+        <v>467</v>
+      </c>
+      <c r="H19" t="s">
+        <v>468</v>
+      </c>
+      <c r="I19" t="s">
+        <v>494</v>
+      </c>
+      <c r="J19" t="s">
+        <v>467</v>
+      </c>
+      <c r="K19" t="s">
+        <v>468</v>
+      </c>
+      <c r="L19" t="s">
+        <v>495</v>
+      </c>
+      <c r="M19" t="s">
+        <v>467</v>
+      </c>
+      <c r="N19" t="s">
+        <v>468</v>
+      </c>
+      <c r="AW19" s="13" t="s">
         <v>509</v>
-      </c>
-      <c r="G19" t="s">
-        <v>491</v>
-      </c>
-      <c r="H19" t="s">
-        <v>492</v>
-      </c>
-      <c r="I19" t="s">
-        <v>510</v>
-      </c>
-      <c r="J19" t="s">
-        <v>491</v>
-      </c>
-      <c r="K19" t="s">
-        <v>492</v>
-      </c>
-      <c r="AW19" s="13" t="s">
-        <v>530</v>
       </c>
       <c r="AX19" s="15">
         <v>8</v>
@@ -5615,48 +5960,39 @@
         <v>8</v>
       </c>
       <c r="BE19" s="13" t="s">
-        <v>530</v>
+        <v>509</v>
       </c>
       <c r="BF19" s="12" t="s">
-        <v>534</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:58" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>441</v>
+        <v>417</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>442</v>
+        <v>418</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="F20" t="s">
-        <v>511</v>
+        <v>498</v>
       </c>
       <c r="G20" t="s">
-        <v>491</v>
+        <v>467</v>
       </c>
       <c r="H20" t="s">
-        <v>492</v>
-      </c>
-      <c r="I20" t="s">
-        <v>512</v>
-      </c>
-      <c r="J20" t="s">
-        <v>491</v>
-      </c>
-      <c r="K20" t="s">
-        <v>492</v>
+        <v>468</v>
       </c>
       <c r="AW20" s="13" t="s">
-        <v>529</v>
+        <v>509</v>
       </c>
       <c r="AX20" s="15">
         <v>8</v>
@@ -5665,48 +6001,57 @@
         <v>8</v>
       </c>
       <c r="BE20" s="13" t="s">
-        <v>529</v>
+        <v>509</v>
       </c>
       <c r="BF20" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:58" ht="25.5" x14ac:dyDescent="0.25">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="21" spans="1:58" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>441</v>
+        <v>417</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>442</v>
+        <v>418</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>454</v>
+        <v>422</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F21" t="s">
         <v>499</v>
       </c>
       <c r="G21" t="s">
-        <v>491</v>
+        <v>467</v>
       </c>
       <c r="H21" t="s">
-        <v>492</v>
+        <v>468</v>
       </c>
       <c r="I21" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="J21" t="s">
-        <v>491</v>
+        <v>467</v>
       </c>
       <c r="K21" t="s">
-        <v>492</v>
+        <v>468</v>
+      </c>
+      <c r="L21" t="s">
+        <v>501</v>
+      </c>
+      <c r="M21" t="s">
+        <v>33</v>
+      </c>
+      <c r="N21" t="s">
+        <v>468</v>
       </c>
       <c r="AW21" s="13" t="s">
-        <v>528</v>
+        <v>31</v>
       </c>
       <c r="AX21" s="15">
         <v>8</v>
@@ -5715,636 +6060,14 @@
         <v>8</v>
       </c>
       <c r="BE21" s="13" t="s">
-        <v>528</v>
+        <v>31</v>
       </c>
       <c r="BF21" s="12" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="22" spans="1:58" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
-        <v>441</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>442</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>454</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>465</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>466</v>
-      </c>
-      <c r="F22" t="s">
-        <v>504</v>
-      </c>
-      <c r="G22" t="s">
-        <v>491</v>
-      </c>
-      <c r="H22" t="s">
-        <v>492</v>
-      </c>
-      <c r="I22" t="s">
-        <v>513</v>
-      </c>
-      <c r="J22" t="s">
-        <v>491</v>
-      </c>
-      <c r="K22" t="s">
-        <v>492</v>
-      </c>
-      <c r="L22" t="s">
-        <v>499</v>
-      </c>
-      <c r="M22" t="s">
-        <v>491</v>
-      </c>
-      <c r="N22" t="s">
-        <v>492</v>
-      </c>
-      <c r="AW22" s="13" t="s">
-        <v>529</v>
-      </c>
-      <c r="AX22" s="15">
-        <v>8</v>
-      </c>
-      <c r="BD22" s="15">
-        <v>8</v>
-      </c>
-      <c r="BE22" s="13" t="s">
-        <v>529</v>
-      </c>
-      <c r="BF22" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:58" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
-        <v>441</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>442</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>454</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>467</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>468</v>
-      </c>
-      <c r="F23" t="s">
-        <v>514</v>
-      </c>
-      <c r="G23" t="s">
-        <v>491</v>
-      </c>
-      <c r="H23" t="s">
-        <v>492</v>
-      </c>
-      <c r="I23" t="s">
-        <v>515</v>
-      </c>
-      <c r="J23" t="s">
-        <v>491</v>
-      </c>
-      <c r="K23" t="s">
-        <v>492</v>
-      </c>
-      <c r="L23" t="s">
-        <v>499</v>
-      </c>
-      <c r="M23" t="s">
-        <v>491</v>
-      </c>
-      <c r="N23" t="s">
-        <v>492</v>
-      </c>
-      <c r="AW23" s="13" t="s">
-        <v>529</v>
-      </c>
-      <c r="AX23" s="15">
-        <v>8</v>
-      </c>
-      <c r="BD23" s="15">
-        <v>8</v>
-      </c>
-      <c r="BE23" s="13" t="s">
-        <v>529</v>
-      </c>
-      <c r="BF23" s="12" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="24" spans="1:58" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
-        <v>441</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>442</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>454</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>469</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>470</v>
-      </c>
-      <c r="F24" t="s">
-        <v>506</v>
-      </c>
-      <c r="G24" t="s">
-        <v>491</v>
-      </c>
-      <c r="H24" t="s">
-        <v>492</v>
-      </c>
-      <c r="AW24" s="13" t="s">
-        <v>529</v>
-      </c>
-      <c r="AX24" s="15">
-        <v>8</v>
-      </c>
-      <c r="BD24" s="15">
-        <v>8</v>
-      </c>
-      <c r="BE24" s="13" t="s">
-        <v>529</v>
-      </c>
-      <c r="BF24" s="12" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="25" spans="1:58" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
-        <v>441</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>442</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>471</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>472</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>473</v>
-      </c>
-      <c r="F25" t="s">
-        <v>33</v>
-      </c>
-      <c r="G25" t="s">
-        <v>33</v>
-      </c>
-      <c r="H25" t="s">
-        <v>492</v>
-      </c>
-      <c r="I25" t="s">
-        <v>516</v>
-      </c>
-      <c r="J25" t="s">
-        <v>491</v>
-      </c>
-      <c r="K25" t="s">
-        <v>492</v>
-      </c>
-      <c r="L25" t="s">
-        <v>517</v>
-      </c>
-      <c r="M25" t="s">
-        <v>491</v>
-      </c>
-      <c r="N25" t="s">
-        <v>492</v>
-      </c>
-      <c r="AW25" s="13" t="s">
-        <v>531</v>
-      </c>
-      <c r="AX25" s="15">
-        <v>24</v>
-      </c>
-      <c r="BD25" s="15">
-        <v>24</v>
-      </c>
-      <c r="BE25" s="13" t="s">
-        <v>531</v>
-      </c>
-      <c r="BF25" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:58" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
-        <v>441</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>442</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>474</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>475</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>476</v>
-      </c>
-      <c r="F26" t="s">
-        <v>33</v>
-      </c>
-      <c r="G26" t="s">
-        <v>33</v>
-      </c>
-      <c r="H26" t="s">
-        <v>492</v>
-      </c>
-      <c r="I26" t="s">
-        <v>518</v>
-      </c>
-      <c r="J26" t="s">
-        <v>491</v>
-      </c>
-      <c r="K26" t="s">
-        <v>492</v>
-      </c>
-      <c r="L26" t="s">
-        <v>519</v>
-      </c>
-      <c r="M26" t="s">
-        <v>491</v>
-      </c>
-      <c r="N26" t="s">
-        <v>492</v>
-      </c>
-      <c r="AW26" s="13" t="s">
-        <v>532</v>
-      </c>
-      <c r="AX26" s="15">
-        <v>8</v>
-      </c>
-      <c r="BD26" s="15">
-        <v>8</v>
-      </c>
-      <c r="BE26" s="13" t="s">
-        <v>532</v>
-      </c>
-      <c r="BF26" s="12" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="27" spans="1:58" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
-        <v>441</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>442</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>474</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>477</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>478</v>
-      </c>
-      <c r="F27" t="s">
-        <v>33</v>
-      </c>
-      <c r="G27" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" t="s">
-        <v>492</v>
-      </c>
-      <c r="I27" t="s">
-        <v>518</v>
-      </c>
-      <c r="J27" t="s">
-        <v>491</v>
-      </c>
-      <c r="K27" t="s">
-        <v>492</v>
-      </c>
-      <c r="L27" t="s">
-        <v>519</v>
-      </c>
-      <c r="M27" t="s">
-        <v>491</v>
-      </c>
-      <c r="N27" t="s">
-        <v>492</v>
-      </c>
-      <c r="AW27" s="13" t="s">
-        <v>532</v>
-      </c>
-      <c r="AX27" s="15">
-        <v>8</v>
-      </c>
-      <c r="BD27" s="15">
-        <v>8</v>
-      </c>
-      <c r="BE27" s="13" t="s">
-        <v>532</v>
-      </c>
-      <c r="BF27" s="12" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="28" spans="1:58" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
-        <v>441</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>442</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>474</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>479</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>480</v>
-      </c>
-      <c r="F28" t="s">
-        <v>520</v>
-      </c>
-      <c r="G28" t="s">
-        <v>491</v>
-      </c>
-      <c r="H28" t="s">
-        <v>492</v>
-      </c>
-      <c r="I28" t="s">
-        <v>516</v>
-      </c>
-      <c r="J28" t="s">
-        <v>491</v>
-      </c>
-      <c r="K28" t="s">
-        <v>492</v>
-      </c>
-      <c r="AW28" s="13" t="s">
-        <v>532</v>
-      </c>
-      <c r="AX28" s="15">
-        <v>8</v>
-      </c>
-      <c r="BD28" s="15">
-        <v>8</v>
-      </c>
-      <c r="BE28" s="13" t="s">
-        <v>532</v>
-      </c>
-      <c r="BF28" s="12" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="29" spans="1:58" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
-        <v>441</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>442</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>481</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>482</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>483</v>
-      </c>
-      <c r="F29" t="s">
-        <v>511</v>
-      </c>
-      <c r="G29" t="s">
-        <v>491</v>
-      </c>
-      <c r="H29" t="s">
-        <v>492</v>
-      </c>
-      <c r="I29" t="s">
-        <v>512</v>
-      </c>
-      <c r="J29" t="s">
-        <v>491</v>
-      </c>
-      <c r="K29" t="s">
-        <v>492</v>
-      </c>
-      <c r="L29" t="s">
-        <v>519</v>
-      </c>
-      <c r="M29" t="s">
-        <v>491</v>
-      </c>
-      <c r="N29" t="s">
-        <v>492</v>
-      </c>
-      <c r="AW29" s="13" t="s">
-        <v>533</v>
-      </c>
-      <c r="AX29" s="15">
-        <v>8</v>
-      </c>
-      <c r="BD29" s="15">
-        <v>8</v>
-      </c>
-      <c r="BE29" s="13" t="s">
-        <v>533</v>
-      </c>
-      <c r="BF29" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="1:58" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
-        <v>441</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>442</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>481</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>484</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>485</v>
-      </c>
-      <c r="F30" t="s">
-        <v>521</v>
-      </c>
-      <c r="G30" t="s">
-        <v>491</v>
-      </c>
-      <c r="H30" t="s">
-        <v>492</v>
-      </c>
-      <c r="I30" t="s">
-        <v>518</v>
-      </c>
-      <c r="J30" t="s">
-        <v>491</v>
-      </c>
-      <c r="K30" t="s">
-        <v>492</v>
-      </c>
-      <c r="L30" t="s">
-        <v>519</v>
-      </c>
-      <c r="M30" t="s">
-        <v>491</v>
-      </c>
-      <c r="N30" t="s">
-        <v>492</v>
-      </c>
-      <c r="AW30" s="13" t="s">
-        <v>533</v>
-      </c>
-      <c r="AX30" s="15">
-        <v>8</v>
-      </c>
-      <c r="BD30" s="15">
-        <v>8</v>
-      </c>
-      <c r="BE30" s="13" t="s">
-        <v>533</v>
-      </c>
-      <c r="BF30" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="1:58" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="s">
-        <v>441</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>442</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>481</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>486</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="F31" t="s">
-        <v>522</v>
-      </c>
-      <c r="G31" t="s">
-        <v>491</v>
-      </c>
-      <c r="H31" t="s">
-        <v>492</v>
-      </c>
-      <c r="AW31" s="13" t="s">
-        <v>533</v>
-      </c>
-      <c r="AX31" s="15">
-        <v>8</v>
-      </c>
-      <c r="BD31" s="15">
-        <v>8</v>
-      </c>
-      <c r="BE31" s="13" t="s">
-        <v>533</v>
-      </c>
-      <c r="BF31" s="12" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="32" spans="1:58" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="s">
-        <v>441</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>442</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>446</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>488</v>
-      </c>
-      <c r="E32" s="15" t="s">
-        <v>489</v>
-      </c>
-      <c r="F32" t="s">
-        <v>523</v>
-      </c>
-      <c r="G32" t="s">
-        <v>491</v>
-      </c>
-      <c r="H32" t="s">
-        <v>492</v>
-      </c>
-      <c r="I32" t="s">
-        <v>524</v>
-      </c>
-      <c r="J32" t="s">
-        <v>491</v>
-      </c>
-      <c r="K32" t="s">
-        <v>492</v>
-      </c>
-      <c r="L32" t="s">
-        <v>525</v>
-      </c>
-      <c r="M32" t="s">
-        <v>33</v>
-      </c>
-      <c r="N32" t="s">
-        <v>492</v>
-      </c>
-      <c r="AW32" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="AX32" s="15">
-        <v>8</v>
-      </c>
-      <c r="BD32" s="15">
-        <v>8</v>
-      </c>
-      <c r="BE32" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="BF32" s="12" t="s">
-        <v>534</v>
+        <v>510</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E2:E3">
-    <cfRule type="duplicateValues" dxfId="64" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="duplicateValues" dxfId="63" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="duplicateValues" dxfId="62" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E5 E7">
-    <cfRule type="duplicateValues" dxfId="61" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6 E8">
-    <cfRule type="duplicateValues" dxfId="60" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10">
-    <cfRule type="duplicateValues" dxfId="59" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E32">
+  <conditionalFormatting sqref="E2:E21">
     <cfRule type="duplicateValues" dxfId="58" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8497,43 +8220,43 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>570</v>
+        <v>546</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>530</v>
+        <v>506</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>577</v>
+        <v>553</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>571</v>
+        <v>547</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>526</v>
+        <v>502</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>526</v>
+        <v>502</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>572</v>
+        <v>548</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>527</v>
+        <v>503</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>527</v>
+        <v>503</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>573</v>
+        <v>549</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>574</v>
+        <v>550</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>224</v>
@@ -8541,18 +8264,18 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
-        <v>575</v>
+        <v>551</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>578</v>
+        <v>554</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
-        <v>531</v>
+        <v>507</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>579</v>
+        <v>555</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -8565,34 +8288,34 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="14" t="s">
-        <v>532</v>
+        <v>508</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>532</v>
+        <v>508</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="25" t="s">
-        <v>574</v>
+        <v>550</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>580</v>
+        <v>556</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" s="29" t="s">
-        <v>533</v>
+        <v>509</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>581</v>
+        <v>557</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" s="30" t="s">
-        <v>576</v>
+        <v>552</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>576</v>
+        <v>552</v>
       </c>
     </row>
   </sheetData>
@@ -8629,10 +8352,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
-        <v>582</v>
+        <v>558</v>
       </c>
       <c r="B2" t="s">
-        <v>492</v>
+        <v>468</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>345</v>
@@ -8643,10 +8366,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
-        <v>583</v>
+        <v>559</v>
       </c>
       <c r="B3" t="s">
-        <v>492</v>
+        <v>468</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>347</v>

--- a/Excels/MG.xlsx
+++ b/Excels/MG.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6855" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6855" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1402" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1457" uniqueCount="595">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -1749,6 +1749,81 @@
   </si>
   <si>
     <t>SmFuQDEyMyQ</t>
+  </si>
+  <si>
+    <t>COM600</t>
+  </si>
+  <si>
+    <t>COM601</t>
+  </si>
+  <si>
+    <t>COM602</t>
+  </si>
+  <si>
+    <t>COM603</t>
+  </si>
+  <si>
+    <t>COM604</t>
+  </si>
+  <si>
+    <t>COM605</t>
+  </si>
+  <si>
+    <t>COM606</t>
+  </si>
+  <si>
+    <t>COM609</t>
+  </si>
+  <si>
+    <t>COM610</t>
+  </si>
+  <si>
+    <t>Ntwk - Data Slow</t>
+  </si>
+  <si>
+    <t>Ntwk - Data Connectivity</t>
+  </si>
+  <si>
+    <t>Ntwk - Call Drops</t>
+  </si>
+  <si>
+    <t>Ntwk - Voice Quality</t>
+  </si>
+  <si>
+    <t>Ntwk - Cant make a Call</t>
+  </si>
+  <si>
+    <t>Ntwk - No Coverage</t>
+  </si>
+  <si>
+    <t>Ntwk - SMS Issues</t>
+  </si>
+  <si>
+    <t>Ntwk - Data Connectivity</t>
+  </si>
+  <si>
+    <t>Ntwk - Slt Blk Cals (to Agt)</t>
+  </si>
+  <si>
+    <t>Network complaint</t>
+  </si>
+  <si>
+    <t>NETWORK</t>
+  </si>
+  <si>
+    <t>Complaint NFTR</t>
+  </si>
+  <si>
+    <t>COM607</t>
+  </si>
+  <si>
+    <t>COM608</t>
+  </si>
+  <si>
+    <t>Ntwk - Rmg</t>
+  </si>
+  <si>
+    <t>Ntwk - OneAirtel Rmg</t>
   </si>
 </sst>
 </file>
@@ -1830,7 +1905,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1858,6 +1933,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1960,7 +2047,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2029,6 +2116,12 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -4782,7 +4875,7 @@
   <dimension ref="A1:BH21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6068,7 +6161,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E21">
-    <cfRule type="duplicateValues" dxfId="58" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6076,10 +6169,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F106"/>
+  <dimension ref="A1:F117"/>
   <sheetViews>
-    <sheetView topLeftCell="A104" workbookViewId="0">
-      <selection sqref="A1:F107"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8021,177 +8114,373 @@
       </c>
       <c r="F106" s="22"/>
     </row>
+    <row r="107" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A107" s="13" t="s">
+        <v>590</v>
+      </c>
+      <c r="B107" s="14" t="s">
+        <v>589</v>
+      </c>
+      <c r="C107" s="14" t="s">
+        <v>588</v>
+      </c>
+      <c r="D107" s="16" t="s">
+        <v>579</v>
+      </c>
+      <c r="E107" s="36" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="51" x14ac:dyDescent="0.25">
+      <c r="A108" s="13" t="s">
+        <v>590</v>
+      </c>
+      <c r="B108" s="14" t="s">
+        <v>589</v>
+      </c>
+      <c r="C108" s="14" t="s">
+        <v>588</v>
+      </c>
+      <c r="D108" s="16" t="s">
+        <v>580</v>
+      </c>
+      <c r="E108" s="36" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A109" s="13" t="s">
+        <v>590</v>
+      </c>
+      <c r="B109" s="14" t="s">
+        <v>589</v>
+      </c>
+      <c r="C109" s="14" t="s">
+        <v>588</v>
+      </c>
+      <c r="D109" s="16" t="s">
+        <v>581</v>
+      </c>
+      <c r="E109" s="36" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A110" s="13" t="s">
+        <v>590</v>
+      </c>
+      <c r="B110" s="14" t="s">
+        <v>589</v>
+      </c>
+      <c r="C110" s="14" t="s">
+        <v>588</v>
+      </c>
+      <c r="D110" s="16" t="s">
+        <v>582</v>
+      </c>
+      <c r="E110" s="36" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A111" s="13" t="s">
+        <v>590</v>
+      </c>
+      <c r="B111" s="14" t="s">
+        <v>589</v>
+      </c>
+      <c r="C111" s="14" t="s">
+        <v>588</v>
+      </c>
+      <c r="D111" s="16" t="s">
+        <v>583</v>
+      </c>
+      <c r="E111" s="36" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A112" s="13" t="s">
+        <v>590</v>
+      </c>
+      <c r="B112" s="14" t="s">
+        <v>589</v>
+      </c>
+      <c r="C112" s="14" t="s">
+        <v>588</v>
+      </c>
+      <c r="D112" s="16" t="s">
+        <v>584</v>
+      </c>
+      <c r="E112" s="36" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A113" s="13" t="s">
+        <v>590</v>
+      </c>
+      <c r="B113" s="14" t="s">
+        <v>589</v>
+      </c>
+      <c r="C113" s="14" t="s">
+        <v>588</v>
+      </c>
+      <c r="D113" s="16" t="s">
+        <v>585</v>
+      </c>
+      <c r="E113" s="36" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="A114" s="13" t="s">
+        <v>590</v>
+      </c>
+      <c r="B114" s="14" t="s">
+        <v>589</v>
+      </c>
+      <c r="C114" s="14" t="s">
+        <v>588</v>
+      </c>
+      <c r="D114" s="14" t="s">
+        <v>586</v>
+      </c>
+      <c r="E114" s="37" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A115" s="13" t="s">
+        <v>590</v>
+      </c>
+      <c r="B115" s="14" t="s">
+        <v>589</v>
+      </c>
+      <c r="C115" s="14" t="s">
+        <v>588</v>
+      </c>
+      <c r="D115" s="14" t="s">
+        <v>587</v>
+      </c>
+      <c r="E115" s="37" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A116" s="13" t="s">
+        <v>590</v>
+      </c>
+      <c r="B116" s="14" t="s">
+        <v>589</v>
+      </c>
+      <c r="C116" s="14" t="s">
+        <v>588</v>
+      </c>
+      <c r="D116" s="14" t="s">
+        <v>593</v>
+      </c>
+      <c r="E116" s="15" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A117" s="13" t="s">
+        <v>590</v>
+      </c>
+      <c r="B117" s="14" t="s">
+        <v>589</v>
+      </c>
+      <c r="C117" s="14" t="s">
+        <v>588</v>
+      </c>
+      <c r="D117" s="14" t="s">
+        <v>594</v>
+      </c>
+      <c r="E117" s="15" t="s">
+        <v>592</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="E4:E6">
-    <cfRule type="duplicateValues" dxfId="57" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="duplicateValues" dxfId="56" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8:E10">
-    <cfRule type="duplicateValues" dxfId="55" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22 E20 E14 E11">
-    <cfRule type="duplicateValues" dxfId="54" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="duplicateValues" dxfId="53" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="duplicateValues" dxfId="52" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="duplicateValues" dxfId="51" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18 E16">
-    <cfRule type="duplicateValues" dxfId="50" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="duplicateValues" dxfId="49" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="duplicateValues" dxfId="48" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="duplicateValues" dxfId="47" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23:E24">
-    <cfRule type="duplicateValues" dxfId="46" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="duplicateValues" dxfId="45" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="duplicateValues" dxfId="44" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27">
-    <cfRule type="duplicateValues" dxfId="43" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40:E41 E31:E36">
-    <cfRule type="duplicateValues" dxfId="42" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="duplicateValues" dxfId="41" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38">
-    <cfRule type="duplicateValues" dxfId="40" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="duplicateValues" dxfId="39" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45:E47">
-    <cfRule type="duplicateValues" dxfId="38" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48:E49">
-    <cfRule type="duplicateValues" dxfId="37" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50">
-    <cfRule type="duplicateValues" dxfId="36" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52:E53">
-    <cfRule type="duplicateValues" dxfId="35" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="duplicateValues" dxfId="34" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55:E60">
-    <cfRule type="duplicateValues" dxfId="33" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63">
-    <cfRule type="duplicateValues" dxfId="32" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E61:E62">
-    <cfRule type="duplicateValues" dxfId="31" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70">
-    <cfRule type="duplicateValues" dxfId="30" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E71">
-    <cfRule type="duplicateValues" dxfId="29" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="duplicateValues" dxfId="28" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73:E77">
-    <cfRule type="duplicateValues" dxfId="27" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E78:E81">
-    <cfRule type="duplicateValues" dxfId="26" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42:E43 E7">
-    <cfRule type="duplicateValues" dxfId="25" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E44">
-    <cfRule type="duplicateValues" dxfId="24" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28:E30">
-    <cfRule type="duplicateValues" dxfId="23" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E68">
-    <cfRule type="duplicateValues" dxfId="22" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69">
-    <cfRule type="duplicateValues" dxfId="21" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="duplicateValues" dxfId="20" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E64:E67">
-    <cfRule type="duplicateValues" dxfId="19" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="duplicateValues" dxfId="18" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E87:E89">
-    <cfRule type="duplicateValues" dxfId="17" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E90">
-    <cfRule type="duplicateValues" dxfId="16" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E95">
-    <cfRule type="duplicateValues" dxfId="15" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E96">
-    <cfRule type="duplicateValues" dxfId="14" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E97">
-    <cfRule type="duplicateValues" dxfId="13" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98:E99">
-    <cfRule type="duplicateValues" dxfId="12" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E100">
-    <cfRule type="duplicateValues" dxfId="11" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E101">
-    <cfRule type="duplicateValues" dxfId="10" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E102">
-    <cfRule type="duplicateValues" dxfId="9" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E103">
-    <cfRule type="duplicateValues" dxfId="8" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E104">
-    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E91:E94">
-    <cfRule type="duplicateValues" dxfId="6" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E105:E106">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E82">
-    <cfRule type="duplicateValues" dxfId="4" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83">
-    <cfRule type="duplicateValues" dxfId="3" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E84:E85">
-    <cfRule type="duplicateValues" dxfId="2" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E86">
-    <cfRule type="duplicateValues" dxfId="1" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E107 E109 E111">
+    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E108 E110 E112 E115">
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E117">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8380,7 +8669,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C3">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
